--- a/BackTest/2019-10-12 BackTest PPT.xlsx
+++ b/BackTest/2019-10-12 BackTest PPT.xlsx
@@ -971,7 +971,9 @@
       <c r="J12" t="n">
         <v>25</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>591.8</v>
       </c>
@@ -1022,7 +1024,9 @@
       <c r="J13" t="n">
         <v>31</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>21.42857142857143</v>
+      </c>
       <c r="L13" t="n">
         <v>592.4</v>
       </c>
@@ -1073,7 +1077,9 @@
       <c r="J14" t="n">
         <v>34</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>29.03225806451613</v>
+      </c>
       <c r="L14" t="n">
         <v>593.3</v>
       </c>
@@ -1124,7 +1130,9 @@
       <c r="J15" t="n">
         <v>35</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>4</v>
+      </c>
       <c r="L15" t="n">
         <v>594.1</v>
       </c>
@@ -1175,7 +1183,9 @@
       <c r="J16" t="n">
         <v>43</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-18.75</v>
+      </c>
       <c r="L16" t="n">
         <v>593.4</v>
       </c>
@@ -1226,7 +1236,9 @@
       <c r="J17" t="n">
         <v>47</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>9.67741935483871</v>
+      </c>
       <c r="L17" t="n">
         <v>593.2</v>
       </c>
@@ -1277,7 +1289,9 @@
       <c r="J18" t="n">
         <v>59</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-19.04761904761905</v>
+      </c>
       <c r="L18" t="n">
         <v>592.3</v>
       </c>
@@ -1328,7 +1342,9 @@
       <c r="J19" t="n">
         <v>63</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-19.04761904761905</v>
+      </c>
       <c r="L19" t="n">
         <v>591.9</v>
       </c>
@@ -1379,7 +1395,9 @@
       <c r="J20" t="n">
         <v>70</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="L20" t="n">
         <v>591.8</v>
       </c>
@@ -1430,7 +1448,9 @@
       <c r="J21" t="n">
         <v>73</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>591.8</v>
       </c>
@@ -1483,7 +1503,9 @@
       <c r="J22" t="n">
         <v>81</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>4</v>
+      </c>
       <c r="L22" t="n">
         <v>592.6</v>
       </c>
@@ -1531,7 +1553,7 @@
         <v>81</v>
       </c>
       <c r="K23" t="n">
-        <v>10.25641025641026</v>
+        <v>-2.127659574468085</v>
       </c>
       <c r="L23" t="n">
         <v>592.8</v>
@@ -1580,7 +1602,7 @@
         <v>83</v>
       </c>
       <c r="K24" t="n">
-        <v>7.5</v>
+        <v>-4.166666666666666</v>
       </c>
       <c r="L24" t="n">
         <v>592.5</v>
@@ -1629,7 +1651,7 @@
         <v>83</v>
       </c>
       <c r="K25" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="L25" t="n">
         <v>592.3</v>
@@ -1678,7 +1700,7 @@
         <v>85</v>
       </c>
       <c r="K26" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>592.7</v>
@@ -1727,7 +1749,7 @@
         <v>87</v>
       </c>
       <c r="K27" t="n">
-        <v>-5.263157894736842</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L27" t="n">
         <v>592.5</v>
@@ -1776,7 +1798,7 @@
         <v>90</v>
       </c>
       <c r="K28" t="n">
-        <v>5.405405405405405</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>593.8</v>
@@ -1825,7 +1847,7 @@
         <v>90</v>
       </c>
       <c r="K29" t="n">
-        <v>6.849315068493151</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
         <v>594.7</v>
@@ -1874,7 +1896,7 @@
         <v>91</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L30" t="n">
         <v>594.8</v>
@@ -1923,7 +1945,7 @@
         <v>92</v>
       </c>
       <c r="K31" t="n">
-        <v>7.462686567164178</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L31" t="n">
         <v>595.3</v>
@@ -1974,7 +1996,7 @@
         <v>95</v>
       </c>
       <c r="K32" t="n">
-        <v>2.857142857142857</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L32" t="n">
         <v>594.7</v>
@@ -2025,7 +2047,7 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>1.449275362318841</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L33" t="n">
         <v>594.6</v>
@@ -2076,7 +2098,7 @@
         <v>101</v>
       </c>
       <c r="K34" t="n">
-        <v>-4.477611940298507</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>594.6</v>
@@ -2127,7 +2149,7 @@
         <v>101</v>
       </c>
       <c r="K35" t="n">
-        <v>-3.03030303030303</v>
+        <v>12.5</v>
       </c>
       <c r="L35" t="n">
         <v>594.6</v>
@@ -2178,7 +2200,7 @@
         <v>102</v>
       </c>
       <c r="K36" t="n">
-        <v>8.474576271186439</v>
+        <v>20</v>
       </c>
       <c r="L36" t="n">
         <v>594.7</v>
@@ -2229,7 +2251,7 @@
         <v>102</v>
       </c>
       <c r="K37" t="n">
-        <v>1.818181818181818</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>595</v>
@@ -2280,7 +2302,7 @@
         <v>102</v>
       </c>
       <c r="K38" t="n">
-        <v>30.23255813953488</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>595</v>
@@ -2331,7 +2353,7 @@
         <v>103</v>
       </c>
       <c r="K39" t="n">
-        <v>25</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L39" t="n">
         <v>595.1</v>
@@ -2433,7 +2455,7 @@
         <v>104</v>
       </c>
       <c r="K41" t="n">
-        <v>22.58064516129032</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L41" t="n">
         <v>595.5</v>
@@ -2484,7 +2506,7 @@
         <v>104</v>
       </c>
       <c r="K42" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>596</v>
@@ -2535,7 +2557,7 @@
         <v>104</v>
       </c>
       <c r="K43" t="n">
-        <v>-4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>596</v>
@@ -2586,7 +2608,7 @@
         <v>104</v>
       </c>
       <c r="K44" t="n">
-        <v>4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L44" t="n">
         <v>596.1</v>
@@ -2637,7 +2659,7 @@
         <v>107</v>
       </c>
       <c r="K45" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L45" t="n">
         <v>596.5</v>
@@ -2688,7 +2710,7 @@
         <v>108</v>
       </c>
       <c r="K46" t="n">
-        <v>30.43478260869566</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
         <v>597.1</v>
@@ -2739,7 +2761,7 @@
         <v>108</v>
       </c>
       <c r="K47" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
         <v>597.7</v>
@@ -2790,7 +2812,7 @@
         <v>109</v>
       </c>
       <c r="K48" t="n">
-        <v>36.84210526315789</v>
+        <v>100</v>
       </c>
       <c r="L48" t="n">
         <v>598.4</v>
@@ -2841,7 +2863,7 @@
         <v>112</v>
       </c>
       <c r="K49" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
         <v>599.3</v>
@@ -2892,7 +2914,7 @@
         <v>114</v>
       </c>
       <c r="K50" t="n">
-        <v>56.52173913043478</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
         <v>600.4</v>
@@ -2943,7 +2965,7 @@
         <v>114</v>
       </c>
       <c r="K51" t="n">
-        <v>54.54545454545454</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>601.4</v>
@@ -2994,7 +3016,7 @@
         <v>119</v>
       </c>
       <c r="K52" t="n">
-        <v>41.66666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>601.9</v>
@@ -3045,7 +3067,7 @@
         <v>119</v>
       </c>
       <c r="K53" t="n">
-        <v>26.31578947368421</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>602.4</v>
@@ -3096,7 +3118,7 @@
         <v>121</v>
       </c>
       <c r="K54" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>602.7</v>
@@ -3147,7 +3169,7 @@
         <v>121</v>
       </c>
       <c r="K55" t="n">
-        <v>20</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L55" t="n">
         <v>602.7</v>
@@ -3198,7 +3220,7 @@
         <v>123</v>
       </c>
       <c r="K56" t="n">
-        <v>33.33333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L56" t="n">
         <v>602.8</v>
@@ -3249,7 +3271,7 @@
         <v>127</v>
       </c>
       <c r="K57" t="n">
-        <v>44</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L57" t="n">
         <v>603.3</v>
@@ -3300,7 +3322,7 @@
         <v>142</v>
       </c>
       <c r="K58" t="n">
-        <v>-10</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L58" t="n">
         <v>602.2</v>
@@ -3351,7 +3373,7 @@
         <v>148</v>
       </c>
       <c r="K59" t="n">
-        <v>2.222222222222222</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L59" t="n">
         <v>601.4</v>
@@ -3402,7 +3424,7 @@
         <v>157</v>
       </c>
       <c r="K60" t="n">
-        <v>18.51851851851852</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L60" t="n">
         <v>601.3</v>
@@ -3453,7 +3475,7 @@
         <v>165</v>
       </c>
       <c r="K61" t="n">
-        <v>1.639344262295082</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="L61" t="n">
         <v>600.4</v>
@@ -3504,7 +3526,7 @@
         <v>170</v>
       </c>
       <c r="K62" t="n">
-        <v>9.090909090909092</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="L62" t="n">
         <v>600.5</v>
@@ -3555,7 +3577,7 @@
         <v>172</v>
       </c>
       <c r="K63" t="n">
-        <v>5.88235294117647</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="L63" t="n">
         <v>600.4</v>
@@ -3606,7 +3628,7 @@
         <v>173</v>
       </c>
       <c r="K64" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>600.4</v>
@@ -3657,7 +3679,7 @@
         <v>174</v>
       </c>
       <c r="K65" t="n">
-        <v>1.492537313432836</v>
+        <v>-1.96078431372549</v>
       </c>
       <c r="L65" t="n">
         <v>600.5</v>
@@ -3708,7 +3730,7 @@
         <v>174</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>-10.63829787234043</v>
       </c>
       <c r="L66" t="n">
         <v>600.4</v>
@@ -3759,7 +3781,7 @@
         <v>176</v>
       </c>
       <c r="K67" t="n">
-        <v>-2.941176470588235</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L67" t="n">
         <v>599.7</v>
@@ -3810,7 +3832,7 @@
         <v>179</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L68" t="n">
         <v>600.8</v>
@@ -3861,7 +3883,7 @@
         <v>190</v>
       </c>
       <c r="K69" t="n">
-        <v>-17.94871794871795</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L69" t="n">
         <v>600.2</v>
@@ -3912,7 +3934,7 @@
         <v>192</v>
       </c>
       <c r="K70" t="n">
-        <v>-17.94871794871795</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L70" t="n">
         <v>598.9</v>
@@ -3963,7 +3985,7 @@
         <v>193</v>
       </c>
       <c r="K71" t="n">
-        <v>-16.45569620253164</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L71" t="n">
         <v>598.5</v>
@@ -4014,7 +4036,7 @@
         <v>195</v>
       </c>
       <c r="K72" t="n">
-        <v>-13.1578947368421</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L72" t="n">
         <v>597.4</v>
@@ -4065,7 +4087,7 @@
         <v>203</v>
       </c>
       <c r="K73" t="n">
-        <v>-2.380952380952381</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>597.3</v>
@@ -4116,7 +4138,7 @@
         <v>206</v>
       </c>
       <c r="K74" t="n">
-        <v>-3.529411764705882</v>
+        <v>-12.5</v>
       </c>
       <c r="L74" t="n">
         <v>597</v>
@@ -4167,7 +4189,7 @@
         <v>210</v>
       </c>
       <c r="K75" t="n">
-        <v>1.123595505617978</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>597</v>
@@ -4218,7 +4240,7 @@
         <v>221</v>
       </c>
       <c r="K76" t="n">
-        <v>-12.24489795918367</v>
+        <v>-20</v>
       </c>
       <c r="L76" t="n">
         <v>595.9</v>
@@ -4269,7 +4291,7 @@
         <v>231</v>
       </c>
       <c r="K77" t="n">
-        <v>-5.769230769230769</v>
+        <v>-3.846153846153846</v>
       </c>
       <c r="L77" t="n">
         <v>596</v>
@@ -4371,7 +4393,7 @@
         <v>240</v>
       </c>
       <c r="K79" t="n">
-        <v>-6.521739130434782</v>
+        <v>-4.166666666666666</v>
       </c>
       <c r="L79" t="n">
         <v>594.9</v>
@@ -4422,7 +4444,7 @@
         <v>240</v>
       </c>
       <c r="K80" t="n">
-        <v>-18.07228915662651</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="L80" t="n">
         <v>594.7</v>
@@ -4473,7 +4495,7 @@
         <v>242</v>
       </c>
       <c r="K81" t="n">
-        <v>-11.68831168831169</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="L81" t="n">
         <v>594.2</v>
@@ -4524,7 +4546,7 @@
         <v>244</v>
       </c>
       <c r="K82" t="n">
-        <v>-16.21621621621622</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L82" t="n">
         <v>594.1</v>
@@ -4575,7 +4597,7 @@
         <v>245</v>
       </c>
       <c r="K83" t="n">
-        <v>-15.06849315068493</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L83" t="n">
         <v>593.1</v>
@@ -4626,7 +4648,7 @@
         <v>245</v>
       </c>
       <c r="K84" t="n">
-        <v>-13.88888888888889</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L84" t="n">
         <v>592.4</v>
@@ -4677,7 +4699,7 @@
         <v>245</v>
       </c>
       <c r="K85" t="n">
-        <v>-15.49295774647887</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>591.3</v>
@@ -4728,7 +4750,7 @@
         <v>246</v>
       </c>
       <c r="K86" t="n">
-        <v>-13.88888888888889</v>
+        <v>-60</v>
       </c>
       <c r="L86" t="n">
         <v>591.4</v>
@@ -4779,7 +4801,7 @@
         <v>246</v>
       </c>
       <c r="K87" t="n">
-        <v>-11.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>590.5</v>
@@ -4830,7 +4852,7 @@
         <v>254</v>
       </c>
       <c r="K88" t="n">
-        <v>-4</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L88" t="n">
         <v>591.3</v>
@@ -4881,7 +4903,7 @@
         <v>255</v>
       </c>
       <c r="K89" t="n">
-        <v>10.76923076923077</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L89" t="n">
         <v>592</v>
@@ -4932,7 +4954,7 @@
         <v>262</v>
       </c>
       <c r="K90" t="n">
-        <v>-2.857142857142857</v>
+        <v>10</v>
       </c>
       <c r="L90" t="n">
         <v>592</v>
@@ -4983,7 +5005,7 @@
         <v>263</v>
       </c>
       <c r="K91" t="n">
-        <v>-2.857142857142857</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L91" t="n">
         <v>592.3</v>
@@ -5034,7 +5056,7 @@
         <v>269</v>
       </c>
       <c r="K92" t="n">
-        <v>8.108108108108109</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>593</v>
@@ -5085,7 +5107,7 @@
         <v>273</v>
       </c>
       <c r="K93" t="n">
-        <v>-8.571428571428571</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L93" t="n">
         <v>593.4</v>
@@ -5136,7 +5158,7 @@
         <v>275</v>
       </c>
       <c r="K94" t="n">
-        <v>-1.449275362318841</v>
+        <v>20</v>
       </c>
       <c r="L94" t="n">
         <v>594</v>
@@ -5187,7 +5209,7 @@
         <v>275</v>
       </c>
       <c r="K95" t="n">
-        <v>-7.692307692307693</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L95" t="n">
         <v>594.6</v>
@@ -5238,7 +5260,7 @@
         <v>275</v>
       </c>
       <c r="K96" t="n">
-        <v>11.11111111111111</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L96" t="n">
         <v>595.1</v>
@@ -5289,7 +5311,7 @@
         <v>277</v>
       </c>
       <c r="K97" t="n">
-        <v>-13.04347826086956</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L97" t="n">
         <v>595.4</v>
@@ -5340,7 +5362,7 @@
         <v>277</v>
       </c>
       <c r="K98" t="n">
-        <v>8.108108108108109</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L98" t="n">
         <v>594.9</v>
@@ -5391,7 +5413,7 @@
         <v>277</v>
       </c>
       <c r="K99" t="n">
-        <v>8.108108108108109</v>
+        <v>20</v>
       </c>
       <c r="L99" t="n">
         <v>594.5</v>
@@ -5442,7 +5464,7 @@
         <v>278</v>
       </c>
       <c r="K100" t="n">
-        <v>5.263157894736842</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L100" t="n">
         <v>594.7</v>
@@ -5493,7 +5515,7 @@
         <v>278</v>
       </c>
       <c r="K101" t="n">
-        <v>11.11111111111111</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L101" t="n">
         <v>594.8</v>
@@ -5544,7 +5566,7 @@
         <v>280</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L102" t="n">
         <v>594.1</v>
@@ -5595,7 +5617,7 @@
         <v>283</v>
       </c>
       <c r="K103" t="n">
-        <v>10.52631578947368</v>
+        <v>-25</v>
       </c>
       <c r="L103" t="n">
         <v>594.1</v>
@@ -5646,7 +5668,7 @@
         <v>283</v>
       </c>
       <c r="K104" t="n">
-        <v>10.52631578947368</v>
+        <v>-25</v>
       </c>
       <c r="L104" t="n">
         <v>593.9</v>
@@ -5697,7 +5719,7 @@
         <v>285</v>
       </c>
       <c r="K105" t="n">
-        <v>5</v>
+        <v>-40</v>
       </c>
       <c r="L105" t="n">
         <v>593.5</v>
@@ -5748,7 +5770,7 @@
         <v>286</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>593</v>
@@ -5799,7 +5821,7 @@
         <v>286</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L107" t="n">
         <v>592.7</v>
@@ -5850,7 +5872,7 @@
         <v>286</v>
       </c>
       <c r="K108" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L108" t="n">
         <v>592.4</v>
@@ -5901,7 +5923,7 @@
         <v>287</v>
       </c>
       <c r="K109" t="n">
-        <v>-18.75</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L109" t="n">
         <v>592.2</v>
@@ -5952,7 +5974,7 @@
         <v>291</v>
       </c>
       <c r="K110" t="n">
-        <v>17.24137931034483</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L110" t="n">
         <v>592.5</v>
@@ -6003,7 +6025,7 @@
         <v>291</v>
       </c>
       <c r="K111" t="n">
-        <v>14.28571428571428</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L111" t="n">
         <v>592.8</v>
@@ -6054,7 +6076,7 @@
         <v>291</v>
       </c>
       <c r="K112" t="n">
-        <v>-9.090909090909092</v>
+        <v>25</v>
       </c>
       <c r="L112" t="n">
         <v>593.3</v>
@@ -6105,7 +6127,7 @@
         <v>292</v>
       </c>
       <c r="K113" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>593.6</v>
@@ -6156,7 +6178,7 @@
         <v>292</v>
       </c>
       <c r="K114" t="n">
-        <v>5.88235294117647</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L114" t="n">
         <v>593.9</v>
@@ -6207,7 +6229,7 @@
         <v>293</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L115" t="n">
         <v>594.3</v>
@@ -6258,7 +6280,7 @@
         <v>294</v>
       </c>
       <c r="K116" t="n">
-        <v>-5.263157894736842</v>
+        <v>50</v>
       </c>
       <c r="L116" t="n">
         <v>594.7</v>
@@ -6309,7 +6331,7 @@
         <v>296</v>
       </c>
       <c r="K117" t="n">
-        <v>-5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L117" t="n">
         <v>594.9</v>
@@ -6360,7 +6382,7 @@
         <v>299</v>
       </c>
       <c r="K118" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L118" t="n">
         <v>595.4</v>
@@ -6411,7 +6433,7 @@
         <v>304</v>
       </c>
       <c r="K119" t="n">
-        <v>-11.11111111111111</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L119" t="n">
         <v>595.3</v>
@@ -6462,7 +6484,7 @@
         <v>305</v>
       </c>
       <c r="K120" t="n">
-        <v>-11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L120" t="n">
         <v>594.7</v>
@@ -6513,7 +6535,7 @@
         <v>310</v>
       </c>
       <c r="K121" t="n">
-        <v>-25</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L121" t="n">
         <v>593.6</v>
@@ -6564,7 +6586,7 @@
         <v>314</v>
       </c>
       <c r="K122" t="n">
-        <v>-5.88235294117647</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L122" t="n">
         <v>592.9</v>
@@ -6615,7 +6637,7 @@
         <v>315</v>
       </c>
       <c r="K123" t="n">
-        <v>-18.75</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L123" t="n">
         <v>592</v>
@@ -6666,7 +6688,7 @@
         <v>319</v>
       </c>
       <c r="K124" t="n">
-        <v>-27.77777777777778</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L124" t="n">
         <v>590.7</v>
@@ -6717,7 +6739,7 @@
         <v>322</v>
       </c>
       <c r="K125" t="n">
-        <v>-13.51351351351351</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L125" t="n">
         <v>589.8</v>
@@ -6768,7 +6790,7 @@
         <v>326</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L126" t="n">
         <v>589.4</v>
@@ -6819,7 +6841,7 @@
         <v>326</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L127" t="n">
         <v>589.2</v>
@@ -6870,7 +6892,7 @@
         <v>327</v>
       </c>
       <c r="K128" t="n">
-        <v>-2.439024390243902</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L128" t="n">
         <v>588.6</v>
@@ -6921,7 +6943,7 @@
         <v>330</v>
       </c>
       <c r="K129" t="n">
-        <v>2.325581395348837</v>
+        <v>12</v>
       </c>
       <c r="L129" t="n">
         <v>588.8</v>
@@ -6972,7 +6994,7 @@
         <v>337</v>
       </c>
       <c r="K130" t="n">
-        <v>-21.73913043478261</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L130" t="n">
         <v>588.4</v>
@@ -7023,7 +7045,7 @@
         <v>340</v>
       </c>
       <c r="K131" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>588.8</v>
@@ -7074,7 +7096,7 @@
         <v>344</v>
       </c>
       <c r="K132" t="n">
-        <v>-5.660377358490567</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L132" t="n">
         <v>589.2</v>
@@ -7125,7 +7147,7 @@
         <v>345</v>
       </c>
       <c r="K133" t="n">
-        <v>-9.433962264150944</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L133" t="n">
         <v>589.6</v>
@@ -7176,7 +7198,7 @@
         <v>346</v>
       </c>
       <c r="K134" t="n">
-        <v>-11.11111111111111</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L134" t="n">
         <v>590.3</v>
@@ -7227,7 +7249,7 @@
         <v>348</v>
       </c>
       <c r="K135" t="n">
-        <v>-5.454545454545454</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L135" t="n">
         <v>590.9</v>
@@ -7278,7 +7300,7 @@
         <v>350</v>
       </c>
       <c r="K136" t="n">
-        <v>-7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>590.9</v>
@@ -7329,7 +7351,7 @@
         <v>351</v>
       </c>
       <c r="K137" t="n">
-        <v>-1.818181818181818</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L137" t="n">
         <v>591</v>
@@ -7380,7 +7402,7 @@
         <v>354</v>
       </c>
       <c r="K138" t="n">
-        <v>-12.72727272727273</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L138" t="n">
         <v>590.9</v>
@@ -7431,7 +7453,7 @@
         <v>358</v>
       </c>
       <c r="K139" t="n">
-        <v>3.703703703703703</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L139" t="n">
         <v>590.9</v>
@@ -7482,7 +7504,7 @@
         <v>359</v>
       </c>
       <c r="K140" t="n">
-        <v>7.407407407407407</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L140" t="n">
         <v>591.7</v>
@@ -7533,7 +7555,7 @@
         <v>361</v>
       </c>
       <c r="K141" t="n">
-        <v>13.72549019607843</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L141" t="n">
         <v>592</v>
@@ -7584,7 +7606,7 @@
         <v>364</v>
       </c>
       <c r="K142" t="n">
-        <v>12</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L142" t="n">
         <v>592.2</v>
@@ -7635,7 +7657,7 @@
         <v>364</v>
       </c>
       <c r="K143" t="n">
-        <v>14.28571428571428</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L143" t="n">
         <v>592.5</v>
@@ -7686,7 +7708,7 @@
         <v>367</v>
       </c>
       <c r="K144" t="n">
-        <v>29.16666666666667</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L144" t="n">
         <v>593.2</v>
@@ -7737,7 +7759,7 @@
         <v>367</v>
       </c>
       <c r="K145" t="n">
-        <v>24.44444444444444</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L145" t="n">
         <v>593.7</v>
@@ -7788,7 +7810,7 @@
         <v>371</v>
       </c>
       <c r="K146" t="n">
-        <v>24.44444444444444</v>
+        <v>50</v>
       </c>
       <c r="L146" t="n">
         <v>594.8</v>
@@ -7839,7 +7861,7 @@
         <v>373</v>
       </c>
       <c r="K147" t="n">
-        <v>27.65957446808511</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L147" t="n">
         <v>596</v>
@@ -7890,7 +7912,7 @@
         <v>373</v>
       </c>
       <c r="K148" t="n">
-        <v>30.43478260869566</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>597.5</v>
@@ -7941,7 +7963,7 @@
         <v>374</v>
       </c>
       <c r="K149" t="n">
-        <v>27.27272727272727</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L149" t="n">
         <v>598.7</v>
@@ -7992,7 +8014,7 @@
         <v>380</v>
       </c>
       <c r="K150" t="n">
-        <v>30.23255813953488</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L150" t="n">
         <v>599.2</v>
@@ -8043,7 +8065,7 @@
         <v>385</v>
       </c>
       <c r="K151" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L151" t="n">
         <v>600.4</v>
@@ -8094,7 +8116,7 @@
         <v>387</v>
       </c>
       <c r="K152" t="n">
-        <v>30.23255813953488</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L152" t="n">
         <v>601.5</v>
@@ -8145,7 +8167,7 @@
         <v>387</v>
       </c>
       <c r="K153" t="n">
-        <v>33.33333333333333</v>
+        <v>40</v>
       </c>
       <c r="L153" t="n">
         <v>602.6</v>
@@ -8196,7 +8218,7 @@
         <v>391</v>
       </c>
       <c r="K154" t="n">
-        <v>24.44444444444444</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L154" t="n">
         <v>603</v>
@@ -8247,7 +8269,7 @@
         <v>393</v>
       </c>
       <c r="K155" t="n">
-        <v>24.44444444444444</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L155" t="n">
         <v>603.6</v>
@@ -8298,7 +8320,7 @@
         <v>393</v>
       </c>
       <c r="K156" t="n">
-        <v>30.23255813953488</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>603.8</v>
@@ -8349,7 +8371,7 @@
         <v>393</v>
       </c>
       <c r="K157" t="n">
-        <v>28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>603.8</v>
@@ -8400,7 +8422,7 @@
         <v>395</v>
       </c>
       <c r="K158" t="n">
-        <v>31.70731707317073</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L158" t="n">
         <v>603.6</v>
@@ -8451,7 +8473,7 @@
         <v>396</v>
       </c>
       <c r="K159" t="n">
-        <v>26.31578947368421</v>
+        <v>25</v>
       </c>
       <c r="L159" t="n">
         <v>603.4</v>
@@ -8502,7 +8524,7 @@
         <v>397</v>
       </c>
       <c r="K160" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>603.9</v>
@@ -8553,7 +8575,7 @@
         <v>397</v>
       </c>
       <c r="K161" t="n">
-        <v>33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L161" t="n">
         <v>603.9</v>
@@ -8604,7 +8626,7 @@
         <v>398</v>
       </c>
       <c r="K162" t="n">
-        <v>23.52941176470588</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L162" t="n">
         <v>603.6</v>
@@ -8655,7 +8677,7 @@
         <v>398</v>
       </c>
       <c r="K163" t="n">
-        <v>23.52941176470588</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L163" t="n">
         <v>603.3</v>
@@ -8706,7 +8728,7 @@
         <v>400</v>
       </c>
       <c r="K164" t="n">
-        <v>21.21212121212121</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L164" t="n">
         <v>603.6</v>
@@ -8757,7 +8779,7 @@
         <v>401</v>
       </c>
       <c r="K165" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>603.6</v>
@@ -8808,7 +8830,7 @@
         <v>401</v>
       </c>
       <c r="K166" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>603.6</v>
@@ -8859,7 +8881,7 @@
         <v>401</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L167" t="n">
         <v>603.6</v>
@@ -8910,7 +8932,7 @@
         <v>402</v>
       </c>
       <c r="K168" t="n">
-        <v>3.448275862068965</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L168" t="n">
         <v>603.9</v>
@@ -8961,7 +8983,7 @@
         <v>403</v>
       </c>
       <c r="K169" t="n">
-        <v>3.448275862068965</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L169" t="n">
         <v>604.2</v>
@@ -9012,7 +9034,7 @@
         <v>403</v>
       </c>
       <c r="K170" t="n">
-        <v>30.43478260869566</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L170" t="n">
         <v>604.4</v>
@@ -9063,7 +9085,7 @@
         <v>403</v>
       </c>
       <c r="K171" t="n">
-        <v>11.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="L171" t="n">
         <v>604.6</v>
@@ -9114,7 +9136,7 @@
         <v>403</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L172" t="n">
         <v>604.9</v>
@@ -9165,7 +9187,7 @@
         <v>403</v>
       </c>
       <c r="K173" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>605.2</v>
@@ -9216,7 +9238,7 @@
         <v>405</v>
       </c>
       <c r="K174" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L174" t="n">
         <v>605.5</v>
@@ -9267,7 +9289,7 @@
         <v>410</v>
       </c>
       <c r="K175" t="n">
-        <v>-5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L175" t="n">
         <v>605.4</v>
@@ -9369,7 +9391,7 @@
         <v>412</v>
       </c>
       <c r="K177" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>605.5</v>
@@ -9420,7 +9442,7 @@
         <v>414</v>
       </c>
       <c r="K178" t="n">
-        <v>26.31578947368421</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L178" t="n">
         <v>605.7</v>
@@ -9471,7 +9493,7 @@
         <v>419</v>
       </c>
       <c r="K179" t="n">
-        <v>-4.347826086956522</v>
+        <v>-25</v>
       </c>
       <c r="L179" t="n">
         <v>605.3</v>
@@ -9522,7 +9544,7 @@
         <v>420</v>
       </c>
       <c r="K180" t="n">
-        <v>-4.347826086956522</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L180" t="n">
         <v>605</v>
@@ -9573,7 +9595,7 @@
         <v>423</v>
       </c>
       <c r="K181" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>605</v>
@@ -9624,7 +9646,7 @@
         <v>424</v>
       </c>
       <c r="K182" t="n">
-        <v>7.692307692307693</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L182" t="n">
         <v>604.9</v>
@@ -9675,7 +9697,7 @@
         <v>424</v>
       </c>
       <c r="K183" t="n">
-        <v>7.692307692307693</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L183" t="n">
         <v>604.8</v>
@@ -9726,7 +9748,7 @@
         <v>427</v>
       </c>
       <c r="K184" t="n">
-        <v>11.11111111111111</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L184" t="n">
         <v>604.8</v>
@@ -9777,7 +9799,7 @@
         <v>427</v>
       </c>
       <c r="K185" t="n">
-        <v>15.38461538461539</v>
+        <v>25</v>
       </c>
       <c r="L185" t="n">
         <v>605.3</v>
@@ -9828,7 +9850,7 @@
         <v>427</v>
       </c>
       <c r="K186" t="n">
-        <v>15.38461538461539</v>
+        <v>20</v>
       </c>
       <c r="L186" t="n">
         <v>605.7</v>
@@ -9879,7 +9901,7 @@
         <v>427</v>
       </c>
       <c r="K187" t="n">
-        <v>15.38461538461539</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L187" t="n">
         <v>606</v>
@@ -9930,7 +9952,7 @@
         <v>427</v>
       </c>
       <c r="K188" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="L188" t="n">
         <v>606.1</v>
@@ -9981,7 +10003,7 @@
         <v>428</v>
       </c>
       <c r="K189" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="L189" t="n">
         <v>606.8</v>
@@ -10032,7 +10054,7 @@
         <v>428</v>
       </c>
       <c r="K190" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="L190" t="n">
         <v>607.4</v>
@@ -10083,7 +10105,7 @@
         <v>428</v>
       </c>
       <c r="K191" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L191" t="n">
         <v>607.7</v>
@@ -10134,7 +10156,7 @@
         <v>428</v>
       </c>
       <c r="K192" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L192" t="n">
         <v>608.1</v>
@@ -10185,7 +10207,7 @@
         <v>428</v>
       </c>
       <c r="K193" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L193" t="n">
         <v>608.5</v>
@@ -10236,7 +10258,7 @@
         <v>429</v>
       </c>
       <c r="K194" t="n">
-        <v>8.333333333333332</v>
+        <v>100</v>
       </c>
       <c r="L194" t="n">
         <v>608.7</v>
@@ -10287,7 +10309,7 @@
         <v>430</v>
       </c>
       <c r="K195" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L195" t="n">
         <v>609</v>
@@ -10338,7 +10360,7 @@
         <v>430</v>
       </c>
       <c r="K196" t="n">
-        <v>36.84210526315789</v>
+        <v>100</v>
       </c>
       <c r="L196" t="n">
         <v>609.3</v>
@@ -10389,7 +10411,7 @@
         <v>434</v>
       </c>
       <c r="K197" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L197" t="n">
         <v>610</v>
@@ -10440,7 +10462,7 @@
         <v>438</v>
       </c>
       <c r="K198" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L198" t="n">
         <v>610.3</v>
@@ -10491,7 +10513,7 @@
         <v>441</v>
       </c>
       <c r="K199" t="n">
-        <v>54.54545454545454</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L199" t="n">
         <v>610.8</v>
@@ -10542,7 +10564,7 @@
         <v>442</v>
       </c>
       <c r="K200" t="n">
-        <v>54.54545454545454</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L200" t="n">
         <v>611.4</v>
@@ -10593,7 +10615,7 @@
         <v>445</v>
       </c>
       <c r="K201" t="n">
-        <v>54.54545454545454</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L201" t="n">
         <v>612.3</v>
@@ -10644,7 +10666,7 @@
         <v>446</v>
       </c>
       <c r="K202" t="n">
-        <v>63.63636363636363</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L202" t="n">
         <v>613.3</v>
@@ -10695,7 +10717,7 @@
         <v>447</v>
       </c>
       <c r="K203" t="n">
-        <v>56.52173913043478</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L203" t="n">
         <v>614.2</v>
@@ -10746,7 +10768,7 @@
         <v>449</v>
       </c>
       <c r="K204" t="n">
-        <v>36.36363636363637</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L204" t="n">
         <v>614.8</v>
@@ -10797,7 +10819,7 @@
         <v>451</v>
       </c>
       <c r="K205" t="n">
-        <v>41.66666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>615.5</v>
@@ -10848,7 +10870,7 @@
         <v>451</v>
       </c>
       <c r="K206" t="n">
-        <v>41.66666666666667</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L206" t="n">
         <v>616.2</v>
@@ -10899,7 +10921,7 @@
         <v>452</v>
       </c>
       <c r="K207" t="n">
-        <v>44</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L207" t="n">
         <v>616.6</v>
@@ -10950,7 +10972,7 @@
         <v>452</v>
       </c>
       <c r="K208" t="n">
-        <v>44</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L208" t="n">
         <v>617.4</v>
@@ -11001,7 +11023,7 @@
         <v>452</v>
       </c>
       <c r="K209" t="n">
-        <v>41.66666666666667</v>
+        <v>40</v>
       </c>
       <c r="L209" t="n">
         <v>617.9</v>
@@ -11052,7 +11074,7 @@
         <v>458</v>
       </c>
       <c r="K210" t="n">
-        <v>53.33333333333334</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L210" t="n">
         <v>618.9</v>
@@ -11103,7 +11125,7 @@
         <v>459</v>
       </c>
       <c r="K211" t="n">
-        <v>48.38709677419355</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L211" t="n">
         <v>619.5</v>
@@ -11154,7 +11176,7 @@
         <v>461</v>
       </c>
       <c r="K212" t="n">
-        <v>51.51515151515152</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L212" t="n">
         <v>620.2</v>
@@ -11205,7 +11227,7 @@
         <v>485</v>
       </c>
       <c r="K213" t="n">
-        <v>71.92982456140351</v>
+        <v>94.44444444444444</v>
       </c>
       <c r="L213" t="n">
         <v>623.4</v>
@@ -11256,7 +11278,7 @@
         <v>486</v>
       </c>
       <c r="K214" t="n">
-        <v>68.42105263157895</v>
+        <v>88.57142857142857</v>
       </c>
       <c r="L214" t="n">
         <v>626.7</v>
@@ -11307,7 +11329,7 @@
         <v>487</v>
       </c>
       <c r="K215" t="n">
-        <v>68.42105263157895</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L215" t="n">
         <v>629.9</v>
@@ -11358,7 +11380,7 @@
         <v>503</v>
       </c>
       <c r="K216" t="n">
-        <v>31.50684931506849</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L216" t="n">
         <v>631.5</v>
@@ -11409,7 +11431,7 @@
         <v>509</v>
       </c>
       <c r="K217" t="n">
-        <v>33.33333333333333</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L217" t="n">
         <v>633.6</v>
@@ -11460,7 +11482,7 @@
         <v>524</v>
       </c>
       <c r="K218" t="n">
-        <v>51.16279069767442</v>
+        <v>50</v>
       </c>
       <c r="L218" t="n">
         <v>637.2</v>
@@ -11511,7 +11533,7 @@
         <v>526</v>
       </c>
       <c r="K219" t="n">
-        <v>45.88235294117647</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L219" t="n">
         <v>640.6</v>
@@ -11562,7 +11584,7 @@
         <v>577</v>
       </c>
       <c r="K220" t="n">
-        <v>65.92592592592592</v>
+        <v>67.79661016949152</v>
       </c>
       <c r="L220" t="n">
         <v>648.5</v>
@@ -11613,7 +11635,7 @@
         <v>579</v>
       </c>
       <c r="K221" t="n">
-        <v>65.67164179104478</v>
+        <v>67.79661016949152</v>
       </c>
       <c r="L221" t="n">
         <v>656.7</v>
@@ -11664,7 +11686,7 @@
         <v>628</v>
       </c>
       <c r="K222" t="n">
-        <v>20.87912087912088</v>
+        <v>4.895104895104895</v>
       </c>
       <c r="L222" t="n">
         <v>659.8</v>
@@ -11715,7 +11737,7 @@
         <v>628</v>
       </c>
       <c r="K223" t="n">
-        <v>21.54696132596685</v>
+        <v>5.633802816901409</v>
       </c>
       <c r="L223" t="n">
         <v>660.5</v>
@@ -11766,7 +11788,7 @@
         <v>629</v>
       </c>
       <c r="K224" t="n">
-        <v>23.33333333333333</v>
+        <v>5.633802816901409</v>
       </c>
       <c r="L224" t="n">
         <v>661.4</v>
@@ -11817,7 +11839,7 @@
         <v>640</v>
       </c>
       <c r="K225" t="n">
-        <v>26.98412698412698</v>
+        <v>25.54744525547445</v>
       </c>
       <c r="L225" t="n">
         <v>663.3</v>
@@ -11868,7 +11890,7 @@
         <v>649</v>
       </c>
       <c r="K226" t="n">
-        <v>21.21212121212121</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L226" t="n">
         <v>665.9</v>
@@ -11919,7 +11941,7 @@
         <v>654</v>
       </c>
       <c r="K227" t="n">
-        <v>22.77227722772277</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L227" t="n">
         <v>668.4</v>
@@ -11970,7 +11992,7 @@
         <v>660</v>
       </c>
       <c r="K228" t="n">
-        <v>25</v>
+        <v>13.43283582089552</v>
       </c>
       <c r="L228" t="n">
         <v>670</v>
@@ -12021,7 +12043,7 @@
         <v>660</v>
       </c>
       <c r="K229" t="n">
-        <v>25</v>
+        <v>-39.75903614457831</v>
       </c>
       <c r="L229" t="n">
         <v>671.8</v>
@@ -12072,7 +12094,7 @@
         <v>660</v>
       </c>
       <c r="K230" t="n">
-        <v>22.77227722772277</v>
+        <v>-43.20987654320987</v>
       </c>
       <c r="L230" t="n">
         <v>668.5</v>
@@ -12123,7 +12145,7 @@
         <v>680</v>
       </c>
       <c r="K231" t="n">
-        <v>12.21719457013575</v>
+        <v>-11.53846153846154</v>
       </c>
       <c r="L231" t="n">
         <v>663</v>
@@ -12174,7 +12196,7 @@
         <v>681</v>
       </c>
       <c r="K232" t="n">
-        <v>11.81818181818182</v>
+        <v>-9.433962264150944</v>
       </c>
       <c r="L232" t="n">
         <v>662.5</v>
@@ -12225,7 +12247,7 @@
         <v>682</v>
       </c>
       <c r="K233" t="n">
-        <v>1.522842639593909</v>
+        <v>-9.433962264150944</v>
       </c>
       <c r="L233" t="n">
         <v>662.1</v>
@@ -12276,7 +12298,7 @@
         <v>697</v>
       </c>
       <c r="K234" t="n">
-        <v>9.004739336492891</v>
+        <v>-1.754385964912281</v>
       </c>
       <c r="L234" t="n">
         <v>663.1</v>
@@ -12327,7 +12349,7 @@
         <v>699</v>
       </c>
       <c r="K235" t="n">
-        <v>7.547169811320755</v>
+        <v>12</v>
       </c>
       <c r="L235" t="n">
         <v>662.8</v>
@@ -12378,7 +12400,7 @@
         <v>706</v>
       </c>
       <c r="K236" t="n">
-        <v>12.31527093596059</v>
+        <v>-11.53846153846154</v>
       </c>
       <c r="L236" t="n">
         <v>662.7</v>
@@ -12429,7 +12451,7 @@
         <v>708</v>
       </c>
       <c r="K237" t="n">
-        <v>8.542713567839195</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L237" t="n">
         <v>661.9</v>
@@ -12480,7 +12502,7 @@
         <v>710</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="L238" t="n">
         <v>660.3</v>
@@ -12531,7 +12553,7 @@
         <v>711</v>
       </c>
       <c r="K239" t="n">
-        <v>1.621621621621622</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L239" t="n">
         <v>658.8</v>
@@ -12582,7 +12604,7 @@
         <v>712</v>
       </c>
       <c r="K240" t="n">
-        <v>-36.2962962962963</v>
+        <v>12.5</v>
       </c>
       <c r="L240" t="n">
         <v>657.2</v>
@@ -12633,7 +12655,7 @@
         <v>721</v>
       </c>
       <c r="K241" t="n">
-        <v>-29.57746478873239</v>
+        <v>30</v>
       </c>
       <c r="L241" t="n">
         <v>658.5</v>
@@ -12684,7 +12706,7 @@
         <v>722</v>
       </c>
       <c r="K242" t="n">
-        <v>8.51063829787234</v>
+        <v>30</v>
       </c>
       <c r="L242" t="n">
         <v>659.8</v>
@@ -12735,7 +12757,7 @@
         <v>722</v>
       </c>
       <c r="K243" t="n">
-        <v>8.51063829787234</v>
+        <v>-12</v>
       </c>
       <c r="L243" t="n">
         <v>661</v>
@@ -12786,7 +12808,7 @@
         <v>727</v>
       </c>
       <c r="K244" t="n">
-        <v>2.040816326530612</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L244" t="n">
         <v>660.2</v>
@@ -12837,7 +12859,7 @@
         <v>727</v>
       </c>
       <c r="K245" t="n">
-        <v>-10.3448275862069</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L245" t="n">
         <v>659.6</v>
@@ -12888,7 +12910,7 @@
         <v>727</v>
       </c>
       <c r="K246" t="n">
-        <v>0</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L246" t="n">
         <v>659.7</v>
@@ -12939,7 +12961,7 @@
         <v>727</v>
       </c>
       <c r="K247" t="n">
-        <v>-6.849315068493151</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L247" t="n">
         <v>660</v>
@@ -12990,7 +13012,7 @@
         <v>727</v>
       </c>
       <c r="K248" t="n">
-        <v>-16.41791044776119</v>
+        <v>25</v>
       </c>
       <c r="L248" t="n">
         <v>660.5</v>
@@ -13041,7 +13063,7 @@
         <v>735</v>
       </c>
       <c r="K249" t="n">
-        <v>-4</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L249" t="n">
         <v>661.7</v>
@@ -13092,7 +13114,7 @@
         <v>740</v>
       </c>
       <c r="K250" t="n">
-        <v>-10</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L250" t="n">
         <v>662.5</v>
@@ -13143,7 +13165,7 @@
         <v>740</v>
       </c>
       <c r="K251" t="n">
-        <v>20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L251" t="n">
         <v>662.4</v>
@@ -13194,7 +13216,7 @@
         <v>742</v>
       </c>
       <c r="K252" t="n">
-        <v>21.31147540983606</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>662.4</v>
@@ -13245,7 +13267,7 @@
         <v>743</v>
       </c>
       <c r="K253" t="n">
-        <v>21.31147540983606</v>
+        <v>37.5</v>
       </c>
       <c r="L253" t="n">
         <v>662.5</v>
@@ -13296,7 +13318,7 @@
         <v>753</v>
       </c>
       <c r="K254" t="n">
-        <v>14.28571428571428</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L254" t="n">
         <v>664.1</v>
@@ -13347,7 +13369,7 @@
         <v>755</v>
       </c>
       <c r="K255" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L255" t="n">
         <v>665.5</v>
@@ -13398,7 +13420,7 @@
         <v>762</v>
       </c>
       <c r="K256" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L256" t="n">
         <v>666.2</v>
@@ -13449,7 +13471,7 @@
         <v>771</v>
       </c>
       <c r="K257" t="n">
-        <v>30.15873015873016</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L257" t="n">
         <v>667.8</v>
@@ -13500,7 +13522,7 @@
         <v>771</v>
       </c>
       <c r="K258" t="n">
-        <v>34.42622950819672</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L258" t="n">
         <v>669.4</v>
@@ -13551,7 +13573,7 @@
         <v>777</v>
       </c>
       <c r="K259" t="n">
-        <v>21.21212121212121</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L259" t="n">
         <v>669.6</v>
@@ -13602,7 +13624,7 @@
         <v>778</v>
       </c>
       <c r="K260" t="n">
-        <v>21.21212121212121</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L260" t="n">
         <v>670.2</v>
@@ -13653,7 +13675,7 @@
         <v>779</v>
       </c>
       <c r="K261" t="n">
-        <v>10.3448275862069</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L261" t="n">
         <v>670.9</v>
@@ -13704,7 +13726,7 @@
         <v>783</v>
       </c>
       <c r="K262" t="n">
-        <v>14.75409836065574</v>
+        <v>20</v>
       </c>
       <c r="L262" t="n">
         <v>671.8</v>
@@ -13755,7 +13777,7 @@
         <v>787</v>
       </c>
       <c r="K263" t="n">
-        <v>7.692307692307693</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L263" t="n">
         <v>672.2</v>
@@ -13806,7 +13828,7 @@
         <v>792</v>
       </c>
       <c r="K264" t="n">
-        <v>7.692307692307693</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L264" t="n">
         <v>671.1</v>
@@ -13857,7 +13879,7 @@
         <v>797</v>
       </c>
       <c r="K265" t="n">
-        <v>14.28571428571428</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L265" t="n">
         <v>670.7</v>
@@ -13908,7 +13930,7 @@
         <v>797</v>
       </c>
       <c r="K266" t="n">
-        <v>14.28571428571428</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L266" t="n">
         <v>671</v>
@@ -13959,7 +13981,7 @@
         <v>798</v>
       </c>
       <c r="K267" t="n">
-        <v>12.67605633802817</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L267" t="n">
         <v>670.3</v>
@@ -14010,7 +14032,7 @@
         <v>798</v>
       </c>
       <c r="K268" t="n">
-        <v>12.67605633802817</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L268" t="n">
         <v>669.6</v>
@@ -14061,7 +14083,7 @@
         <v>798</v>
       </c>
       <c r="K269" t="n">
-        <v>1.587301587301587</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>669.5</v>
@@ -14112,7 +14134,7 @@
         <v>798</v>
       </c>
       <c r="K270" t="n">
-        <v>10.3448275862069</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L270" t="n">
         <v>669.5</v>
@@ -14163,7 +14185,7 @@
         <v>798</v>
       </c>
       <c r="K271" t="n">
-        <v>10.3448275862069</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L271" t="n">
         <v>669.4</v>
@@ -14214,7 +14236,7 @@
         <v>802</v>
       </c>
       <c r="K272" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L272" t="n">
         <v>668.5</v>
@@ -14265,7 +14287,7 @@
         <v>802</v>
       </c>
       <c r="K273" t="n">
-        <v>-1.694915254237288</v>
+        <v>0</v>
       </c>
       <c r="L273" t="n">
         <v>668</v>
@@ -14316,7 +14338,7 @@
         <v>802</v>
       </c>
       <c r="K274" t="n">
-        <v>-22.44897959183674</v>
+        <v>-100</v>
       </c>
       <c r="L274" t="n">
         <v>668</v>
@@ -14367,7 +14389,7 @@
         <v>802</v>
       </c>
       <c r="K275" t="n">
-        <v>-19.14893617021277</v>
+        <v>-100</v>
       </c>
       <c r="L275" t="n">
         <v>667.5</v>
@@ -14418,7 +14440,7 @@
         <v>807</v>
       </c>
       <c r="K276" t="n">
-        <v>6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L276" t="n">
         <v>667.5</v>
@@ -14469,7 +14491,7 @@
         <v>807</v>
       </c>
       <c r="K277" t="n">
-        <v>-16.66666666666666</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L277" t="n">
         <v>667.6</v>
@@ -14520,7 +14542,7 @@
         <v>807</v>
       </c>
       <c r="K278" t="n">
-        <v>-16.66666666666666</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L278" t="n">
         <v>667.7</v>
@@ -14571,7 +14593,7 @@
         <v>811</v>
       </c>
       <c r="K279" t="n">
-        <v>-11.76470588235294</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L279" t="n">
         <v>667.4</v>
@@ -14622,7 +14644,7 @@
         <v>811</v>
       </c>
       <c r="K280" t="n">
-        <v>-9.090909090909092</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L280" t="n">
         <v>667.1</v>
@@ -14673,7 +14695,7 @@
         <v>812</v>
       </c>
       <c r="K281" t="n">
-        <v>-15.15151515151515</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>666.7</v>
@@ -14724,7 +14746,7 @@
         <v>814</v>
       </c>
       <c r="K282" t="n">
-        <v>-35.48387096774194</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L282" t="n">
         <v>666.5</v>
@@ -14775,7 +14797,7 @@
         <v>819</v>
       </c>
       <c r="K283" t="n">
-        <v>-37.5</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L283" t="n">
         <v>665.8</v>
@@ -14826,7 +14848,7 @@
         <v>819</v>
       </c>
       <c r="K284" t="n">
-        <v>-25.92592592592592</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L284" t="n">
         <v>665.1</v>
@@ -14877,7 +14899,7 @@
         <v>821</v>
       </c>
       <c r="K285" t="n">
-        <v>-41.66666666666667</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L285" t="n">
         <v>664.6</v>
@@ -14928,7 +14950,7 @@
         <v>823</v>
       </c>
       <c r="K286" t="n">
-        <v>-30.76923076923077</v>
+        <v>-50</v>
       </c>
       <c r="L286" t="n">
         <v>663.8</v>
@@ -14979,7 +15001,7 @@
         <v>825</v>
       </c>
       <c r="K287" t="n">
-        <v>-33.33333333333333</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L287" t="n">
         <v>662.8</v>
@@ -15030,7 +15052,7 @@
         <v>827</v>
       </c>
       <c r="K288" t="n">
-        <v>-24.13793103448276</v>
+        <v>-25</v>
       </c>
       <c r="L288" t="n">
         <v>662</v>
@@ -15081,7 +15103,7 @@
         <v>835</v>
       </c>
       <c r="K289" t="n">
-        <v>-40.54054054054054</v>
+        <v>-50</v>
       </c>
       <c r="L289" t="n">
         <v>660.8</v>
@@ -15132,7 +15154,7 @@
         <v>836</v>
       </c>
       <c r="K290" t="n">
-        <v>-36.84210526315789</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L290" t="n">
         <v>659.7</v>
@@ -15183,7 +15205,7 @@
         <v>839</v>
       </c>
       <c r="K291" t="n">
-        <v>-26.82926829268293</v>
+        <v>-20</v>
       </c>
       <c r="L291" t="n">
         <v>659</v>
@@ -15234,7 +15256,7 @@
         <v>847</v>
       </c>
       <c r="K292" t="n">
-        <v>-33.33333333333333</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L292" t="n">
         <v>657.7</v>
@@ -15285,7 +15307,7 @@
         <v>849</v>
       </c>
       <c r="K293" t="n">
-        <v>-36.17021276595745</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L293" t="n">
         <v>656.7</v>
@@ -15336,7 +15358,7 @@
         <v>852</v>
       </c>
       <c r="K294" t="n">
-        <v>-40</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L294" t="n">
         <v>655.4</v>
@@ -15387,7 +15409,7 @@
         <v>853</v>
       </c>
       <c r="K295" t="n">
-        <v>-37.25490196078432</v>
+        <v>-53.33333333333334</v>
       </c>
       <c r="L295" t="n">
         <v>654</v>
@@ -15438,7 +15460,7 @@
         <v>855</v>
       </c>
       <c r="K296" t="n">
-        <v>-45.83333333333333</v>
+        <v>-40</v>
       </c>
       <c r="L296" t="n">
         <v>652.6</v>
@@ -15540,7 +15562,7 @@
         <v>858</v>
       </c>
       <c r="K298" t="n">
-        <v>-41.17647058823529</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L298" t="n">
         <v>650.3</v>
@@ -15591,7 +15613,7 @@
         <v>859</v>
       </c>
       <c r="K299" t="n">
-        <v>-33.33333333333333</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L299" t="n">
         <v>649.9</v>
@@ -15642,7 +15664,7 @@
         <v>864</v>
       </c>
       <c r="K300" t="n">
-        <v>-20.75471698113208</v>
+        <v>-12</v>
       </c>
       <c r="L300" t="n">
         <v>649.9</v>
@@ -15693,7 +15715,7 @@
         <v>871</v>
       </c>
       <c r="K301" t="n">
-        <v>-5.084745762711865</v>
+        <v>50</v>
       </c>
       <c r="L301" t="n">
         <v>650.3</v>
@@ -15744,7 +15766,7 @@
         <v>878</v>
       </c>
       <c r="K302" t="n">
-        <v>-12.5</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L302" t="n">
         <v>650.8</v>
@@ -15795,7 +15817,7 @@
         <v>878</v>
       </c>
       <c r="K303" t="n">
-        <v>-5.084745762711865</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L303" t="n">
         <v>651.5</v>
@@ -15846,7 +15868,7 @@
         <v>878</v>
       </c>
       <c r="K304" t="n">
-        <v>-5.084745762711865</v>
+        <v>36</v>
       </c>
       <c r="L304" t="n">
         <v>652.5</v>
@@ -15897,7 +15919,7 @@
         <v>880</v>
       </c>
       <c r="K305" t="n">
-        <v>-11.86440677966102</v>
+        <v>20</v>
       </c>
       <c r="L305" t="n">
         <v>653.2</v>
@@ -15948,7 +15970,7 @@
         <v>881</v>
       </c>
       <c r="K306" t="n">
-        <v>-17.24137931034483</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L306" t="n">
         <v>653.6</v>
@@ -15999,7 +16021,7 @@
         <v>881</v>
       </c>
       <c r="K307" t="n">
-        <v>-14.28571428571428</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L307" t="n">
         <v>653.8</v>
@@ -16050,7 +16072,7 @@
         <v>884</v>
       </c>
       <c r="K308" t="n">
-        <v>-22.80701754385965</v>
+        <v>-4</v>
       </c>
       <c r="L308" t="n">
         <v>653.8</v>
@@ -16101,7 +16123,7 @@
         <v>890</v>
       </c>
       <c r="K309" t="n">
-        <v>1.818181818181818</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
         <v>654.3</v>
@@ -16152,7 +16174,7 @@
         <v>898</v>
       </c>
       <c r="K310" t="n">
-        <v>-12.90322580645161</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L310" t="n">
         <v>653.5</v>
@@ -16254,7 +16276,7 @@
         <v>906</v>
       </c>
       <c r="K312" t="n">
-        <v>1.694915254237288</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L312" t="n">
         <v>652.2</v>
@@ -16305,7 +16327,7 @@
         <v>909</v>
       </c>
       <c r="K313" t="n">
-        <v>10</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L313" t="n">
         <v>652.1</v>
@@ -16356,7 +16378,7 @@
         <v>909</v>
       </c>
       <c r="K314" t="n">
-        <v>15.78947368421053</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L314" t="n">
         <v>652</v>
@@ -16407,7 +16429,7 @@
         <v>910</v>
       </c>
       <c r="K315" t="n">
-        <v>15.78947368421053</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L315" t="n">
         <v>652.2</v>
@@ -16458,7 +16480,7 @@
         <v>910</v>
       </c>
       <c r="K316" t="n">
-        <v>12.72727272727273</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L316" t="n">
         <v>652.5</v>
@@ -16509,7 +16531,7 @@
         <v>916</v>
       </c>
       <c r="K317" t="n">
-        <v>18.64406779661017</v>
+        <v>37.5</v>
       </c>
       <c r="L317" t="n">
         <v>653.4</v>
@@ -16560,7 +16582,7 @@
         <v>921</v>
       </c>
       <c r="K318" t="n">
-        <v>11.11111111111111</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L318" t="n">
         <v>654.1</v>
@@ -16611,7 +16633,7 @@
         <v>921</v>
       </c>
       <c r="K319" t="n">
-        <v>9.67741935483871</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L319" t="n">
         <v>654.2</v>
@@ -16662,7 +16684,7 @@
         <v>921</v>
       </c>
       <c r="K320" t="n">
-        <v>1.754385964912281</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L320" t="n">
         <v>655.1</v>
@@ -16713,7 +16735,7 @@
         <v>923</v>
       </c>
       <c r="K321" t="n">
-        <v>-7.692307692307693</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L321" t="n">
         <v>655.6</v>
@@ -16764,7 +16786,7 @@
         <v>923</v>
       </c>
       <c r="K322" t="n">
-        <v>6.666666666666667</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L322" t="n">
         <v>656.3</v>
@@ -16815,7 +16837,7 @@
         <v>927</v>
       </c>
       <c r="K323" t="n">
-        <v>-2.040816326530612</v>
+        <v>0</v>
       </c>
       <c r="L323" t="n">
         <v>656.3</v>
@@ -16866,7 +16888,7 @@
         <v>927</v>
       </c>
       <c r="K324" t="n">
-        <v>-2.040816326530612</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L324" t="n">
         <v>656.3</v>
@@ -16917,7 +16939,7 @@
         <v>931</v>
       </c>
       <c r="K325" t="n">
-        <v>9.803921568627452</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L325" t="n">
         <v>656.6</v>
@@ -16968,7 +16990,7 @@
         <v>933</v>
       </c>
       <c r="K326" t="n">
-        <v>7.692307692307693</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L326" t="n">
         <v>656.7</v>
@@ -17019,7 +17041,7 @@
         <v>934</v>
       </c>
       <c r="K327" t="n">
-        <v>5.660377358490567</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L327" t="n">
         <v>656.1</v>
@@ -17070,7 +17092,7 @@
         <v>936</v>
       </c>
       <c r="K328" t="n">
-        <v>15.38461538461539</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L328" t="n">
         <v>656.2</v>
@@ -17121,7 +17143,7 @@
         <v>937</v>
       </c>
       <c r="K329" t="n">
-        <v>2.127659574468085</v>
+        <v>0</v>
       </c>
       <c r="L329" t="n">
         <v>656.2</v>
@@ -17172,7 +17194,7 @@
         <v>937</v>
       </c>
       <c r="K330" t="n">
-        <v>23.07692307692308</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L330" t="n">
         <v>656.2</v>
@@ -17223,7 +17245,7 @@
         <v>937</v>
       </c>
       <c r="K331" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L331" t="n">
         <v>656</v>
@@ -17274,7 +17296,7 @@
         <v>937</v>
       </c>
       <c r="K332" t="n">
-        <v>16.12903225806452</v>
+        <v>20</v>
       </c>
       <c r="L332" t="n">
         <v>655.8</v>
@@ -17376,7 +17398,7 @@
         <v>941</v>
       </c>
       <c r="K334" t="n">
-        <v>6.25</v>
+        <v>-20</v>
       </c>
       <c r="L334" t="n">
         <v>656</v>
@@ -17427,7 +17449,7 @@
         <v>943</v>
       </c>
       <c r="K335" t="n">
-        <v>-3.03030303030303</v>
+        <v>-20</v>
       </c>
       <c r="L335" t="n">
         <v>655.6</v>
@@ -17478,7 +17500,7 @@
         <v>946</v>
       </c>
       <c r="K336" t="n">
-        <v>5.555555555555555</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L336" t="n">
         <v>655.7</v>
@@ -17529,7 +17551,7 @@
         <v>946</v>
       </c>
       <c r="K337" t="n">
-        <v>-13.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L337" t="n">
         <v>655.9</v>
@@ -17580,7 +17602,7 @@
         <v>946</v>
       </c>
       <c r="K338" t="n">
-        <v>4</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L338" t="n">
         <v>655.9</v>
@@ -17631,7 +17653,7 @@
         <v>949</v>
       </c>
       <c r="K339" t="n">
-        <v>-7.142857142857142</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L339" t="n">
         <v>655.7</v>
@@ -17682,7 +17704,7 @@
         <v>949</v>
       </c>
       <c r="K340" t="n">
-        <v>-7.142857142857142</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L340" t="n">
         <v>655.5</v>
@@ -17733,7 +17755,7 @@
         <v>950</v>
       </c>
       <c r="K341" t="n">
-        <v>-11.11111111111111</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L341" t="n">
         <v>655.4</v>
@@ -17784,7 +17806,7 @@
         <v>950</v>
       </c>
       <c r="K342" t="n">
-        <v>-11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L342" t="n">
         <v>655.3</v>
@@ -17835,7 +17857,7 @@
         <v>950</v>
       </c>
       <c r="K343" t="n">
-        <v>4.347826086956522</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L343" t="n">
         <v>655.4</v>
@@ -17886,7 +17908,7 @@
         <v>951</v>
       </c>
       <c r="K344" t="n">
-        <v>8.333333333333332</v>
+        <v>25</v>
       </c>
       <c r="L344" t="n">
         <v>655.4</v>
@@ -17937,7 +17959,7 @@
         <v>953</v>
       </c>
       <c r="K345" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L345" t="n">
         <v>655.8</v>
@@ -17988,7 +18010,7 @@
         <v>953</v>
       </c>
       <c r="K346" t="n">
-        <v>10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L346" t="n">
         <v>655.9</v>
@@ -18039,7 +18061,7 @@
         <v>955</v>
       </c>
       <c r="K347" t="n">
-        <v>4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L347" t="n">
         <v>655.8</v>
@@ -18090,7 +18112,7 @@
         <v>957</v>
       </c>
       <c r="K348" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L348" t="n">
         <v>655.5</v>
@@ -18141,7 +18163,7 @@
         <v>958</v>
       </c>
       <c r="K349" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L349" t="n">
         <v>655.4</v>
@@ -18192,7 +18214,7 @@
         <v>958</v>
       </c>
       <c r="K350" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L350" t="n">
         <v>655.3</v>
@@ -18243,7 +18265,7 @@
         <v>958</v>
       </c>
       <c r="K351" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L351" t="n">
         <v>655.1</v>
@@ -18294,7 +18316,7 @@
         <v>958</v>
       </c>
       <c r="K352" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L352" t="n">
         <v>654.9</v>
@@ -18345,7 +18367,7 @@
         <v>959</v>
       </c>
       <c r="K353" t="n">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="L353" t="n">
         <v>654.6</v>
@@ -18396,7 +18418,7 @@
         <v>959</v>
       </c>
       <c r="K354" t="n">
-        <v>-22.22222222222222</v>
+        <v>-100</v>
       </c>
       <c r="L354" t="n">
         <v>654.2</v>
@@ -18447,7 +18469,7 @@
         <v>962</v>
       </c>
       <c r="K355" t="n">
-        <v>5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L355" t="n">
         <v>653.9</v>
@@ -18498,7 +18520,7 @@
         <v>965</v>
       </c>
       <c r="K356" t="n">
-        <v>-26.31578947368421</v>
+        <v>-40</v>
       </c>
       <c r="L356" t="n">
         <v>653.3</v>
@@ -18549,7 +18571,7 @@
         <v>971</v>
       </c>
       <c r="K357" t="n">
-        <v>-44</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L357" t="n">
         <v>652.3</v>
@@ -18600,7 +18622,7 @@
         <v>982</v>
       </c>
       <c r="K358" t="n">
-        <v>-61.11111111111111</v>
+        <v>-75</v>
       </c>
       <c r="L358" t="n">
         <v>650.4</v>
@@ -18651,7 +18673,7 @@
         <v>985</v>
       </c>
       <c r="K359" t="n">
-        <v>-44.44444444444444</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L359" t="n">
         <v>648.9</v>
@@ -18702,7 +18724,7 @@
         <v>991</v>
       </c>
       <c r="K360" t="n">
-        <v>-23.80952380952381</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L360" t="n">
         <v>648</v>
@@ -18753,7 +18775,7 @@
         <v>991</v>
       </c>
       <c r="K361" t="n">
-        <v>-26.82926829268293</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L361" t="n">
         <v>647.1</v>
@@ -18804,7 +18826,7 @@
         <v>993</v>
       </c>
       <c r="K362" t="n">
-        <v>-20.93023255813954</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L362" t="n">
         <v>646.4</v>
@@ -18855,7 +18877,7 @@
         <v>993</v>
       </c>
       <c r="K363" t="n">
-        <v>-20.93023255813954</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L363" t="n">
         <v>645.8</v>
@@ -18906,7 +18928,7 @@
         <v>994</v>
       </c>
       <c r="K364" t="n">
-        <v>-25.58139534883721</v>
+        <v>-31.25</v>
       </c>
       <c r="L364" t="n">
         <v>645.1</v>
@@ -18957,7 +18979,7 @@
         <v>998</v>
       </c>
       <c r="K365" t="n">
-        <v>-20</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L365" t="n">
         <v>644.5</v>
@@ -19008,7 +19030,7 @@
         <v>999</v>
       </c>
       <c r="K366" t="n">
-        <v>-17.39130434782609</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L366" t="n">
         <v>644.3</v>
@@ -19059,7 +19081,7 @@
         <v>1001</v>
       </c>
       <c r="K367" t="n">
-        <v>-8.695652173913043</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="L367" t="n">
         <v>644.9</v>
@@ -19110,7 +19132,7 @@
         <v>1003</v>
       </c>
       <c r="K368" t="n">
-        <v>-8.695652173913043</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L368" t="n">
         <v>646.4</v>
@@ -19161,7 +19183,7 @@
         <v>1004</v>
       </c>
       <c r="K369" t="n">
-        <v>-8.695652173913043</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L369" t="n">
         <v>647.5</v>
@@ -19212,7 +19234,7 @@
         <v>1005</v>
       </c>
       <c r="K370" t="n">
-        <v>-6.382978723404255</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L370" t="n">
         <v>648.1</v>
@@ -19263,7 +19285,7 @@
         <v>1005</v>
       </c>
       <c r="K371" t="n">
-        <v>-6.382978723404255</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L371" t="n">
         <v>648.7</v>
@@ -19314,7 +19336,7 @@
         <v>1005</v>
       </c>
       <c r="K372" t="n">
-        <v>-6.382978723404255</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L372" t="n">
         <v>649.1</v>
@@ -19365,7 +19387,7 @@
         <v>1005</v>
       </c>
       <c r="K373" t="n">
-        <v>-4.347826086956522</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L373" t="n">
         <v>649.5</v>
@@ -19416,7 +19438,7 @@
         <v>1005</v>
       </c>
       <c r="K374" t="n">
-        <v>-4.347826086956522</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L374" t="n">
         <v>650</v>
@@ -19467,7 +19489,7 @@
         <v>1005</v>
       </c>
       <c r="K375" t="n">
-        <v>-11.62790697674419</v>
+        <v>0</v>
       </c>
       <c r="L375" t="n">
         <v>650.1</v>
@@ -19518,7 +19540,7 @@
         <v>1009</v>
       </c>
       <c r="K376" t="n">
-        <v>-13.63636363636363</v>
+        <v>-75</v>
       </c>
       <c r="L376" t="n">
         <v>649.7</v>
@@ -19569,7 +19591,7 @@
         <v>1012</v>
       </c>
       <c r="K377" t="n">
-        <v>7.317073170731707</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L377" t="n">
         <v>649.4</v>
@@ -19620,7 +19642,7 @@
         <v>1013</v>
       </c>
       <c r="K378" t="n">
-        <v>48.38709677419355</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L378" t="n">
         <v>649.4</v>
@@ -19671,7 +19693,7 @@
         <v>1013</v>
       </c>
       <c r="K379" t="n">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L379" t="n">
         <v>649.5</v>
@@ -19722,7 +19744,7 @@
         <v>1013</v>
       </c>
       <c r="K380" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L380" t="n">
         <v>649.5</v>
@@ -19773,7 +19795,7 @@
         <v>1013</v>
       </c>
       <c r="K381" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>649.5</v>
@@ -19824,7 +19846,7 @@
         <v>1015</v>
       </c>
       <c r="K382" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L382" t="n">
         <v>649.7</v>
@@ -19875,7 +19897,7 @@
         <v>1015</v>
       </c>
       <c r="K383" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L383" t="n">
         <v>649.9</v>
@@ -19926,7 +19948,7 @@
         <v>1017</v>
       </c>
       <c r="K384" t="n">
-        <v>21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L384" t="n">
         <v>649.9</v>
@@ -19977,7 +19999,7 @@
         <v>1017</v>
       </c>
       <c r="K385" t="n">
-        <v>5.263157894736842</v>
+        <v>50</v>
       </c>
       <c r="L385" t="n">
         <v>649.9</v>
@@ -20028,7 +20050,7 @@
         <v>1017</v>
       </c>
       <c r="K386" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L386" t="n">
         <v>650.3</v>
@@ -20079,7 +20101,7 @@
         <v>1017</v>
       </c>
       <c r="K387" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L387" t="n">
         <v>650.4</v>
@@ -20130,7 +20152,7 @@
         <v>1020</v>
       </c>
       <c r="K388" t="n">
-        <v>-17.64705882352941</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L388" t="n">
         <v>650.1</v>
@@ -20181,7 +20203,7 @@
         <v>1023</v>
       </c>
       <c r="K389" t="n">
-        <v>-26.31578947368421</v>
+        <v>-60</v>
       </c>
       <c r="L389" t="n">
         <v>649.5</v>
@@ -20232,7 +20254,7 @@
         <v>1024</v>
       </c>
       <c r="K390" t="n">
-        <v>-36.84210526315789</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L390" t="n">
         <v>648.8</v>
@@ -20283,7 +20305,7 @@
         <v>1027</v>
       </c>
       <c r="K391" t="n">
-        <v>-45.45454545454545</v>
+        <v>-100</v>
       </c>
       <c r="L391" t="n">
         <v>647.8</v>
@@ -20334,7 +20356,7 @@
         <v>1032</v>
       </c>
       <c r="K392" t="n">
-        <v>-18.51851851851852</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L392" t="n">
         <v>647.1</v>
@@ -20385,7 +20407,7 @@
         <v>1036</v>
       </c>
       <c r="K393" t="n">
-        <v>-29.03225806451613</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L393" t="n">
         <v>646</v>
@@ -20436,7 +20458,7 @@
         <v>1044</v>
       </c>
       <c r="K394" t="n">
-        <v>-2.564102564102564</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L394" t="n">
         <v>645.9</v>
@@ -20487,7 +20509,7 @@
         <v>1044</v>
       </c>
       <c r="K395" t="n">
-        <v>-2.564102564102564</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L395" t="n">
         <v>645.8</v>
@@ -20538,7 +20560,7 @@
         <v>1046</v>
       </c>
       <c r="K396" t="n">
-        <v>2.702702702702703</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L396" t="n">
         <v>645.5</v>
@@ -20589,7 +20611,7 @@
         <v>1050</v>
       </c>
       <c r="K397" t="n">
-        <v>-15.78947368421053</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L397" t="n">
         <v>644.8</v>
@@ -20640,7 +20662,7 @@
         <v>1050</v>
       </c>
       <c r="K398" t="n">
-        <v>-18.91891891891892</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L398" t="n">
         <v>644.4</v>
@@ -20691,7 +20713,7 @@
         <v>1051</v>
       </c>
       <c r="K399" t="n">
-        <v>-15.78947368421053</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L399" t="n">
         <v>644.4</v>
@@ -20742,7 +20764,7 @@
         <v>1051</v>
       </c>
       <c r="K400" t="n">
-        <v>-15.78947368421053</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L400" t="n">
         <v>644.5</v>
@@ -20793,7 +20815,7 @@
         <v>1052</v>
       </c>
       <c r="K401" t="n">
-        <v>-17.94871794871795</v>
+        <v>-10</v>
       </c>
       <c r="L401" t="n">
         <v>644.8</v>
@@ -20844,7 +20866,7 @@
         <v>1052</v>
       </c>
       <c r="K402" t="n">
-        <v>-24.32432432432433</v>
+        <v>12.5</v>
       </c>
       <c r="L402" t="n">
         <v>644.6</v>
@@ -20895,7 +20917,7 @@
         <v>1052</v>
       </c>
       <c r="K403" t="n">
-        <v>-24.32432432432433</v>
+        <v>-75</v>
       </c>
       <c r="L403" t="n">
         <v>644.8</v>
@@ -20946,7 +20968,7 @@
         <v>1052</v>
       </c>
       <c r="K404" t="n">
-        <v>-20</v>
+        <v>-75</v>
       </c>
       <c r="L404" t="n">
         <v>644.2</v>
@@ -20997,7 +21019,7 @@
         <v>1052</v>
       </c>
       <c r="K405" t="n">
-        <v>-20</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L405" t="n">
         <v>643.6</v>
@@ -21048,7 +21070,7 @@
         <v>1053</v>
       </c>
       <c r="K406" t="n">
-        <v>-16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L406" t="n">
         <v>643.3</v>
@@ -21099,7 +21121,7 @@
         <v>1054</v>
       </c>
       <c r="K407" t="n">
-        <v>-18.91891891891892</v>
+        <v>0</v>
       </c>
       <c r="L407" t="n">
         <v>643.3</v>
@@ -21150,7 +21172,7 @@
         <v>1055</v>
       </c>
       <c r="K408" t="n">
-        <v>-8.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
         <v>643.4</v>
@@ -21201,7 +21223,7 @@
         <v>1056</v>
       </c>
       <c r="K409" t="n">
-        <v>-3.03030303030303</v>
+        <v>-20</v>
       </c>
       <c r="L409" t="n">
         <v>643.3</v>
@@ -21303,7 +21325,7 @@
         <v>1056</v>
       </c>
       <c r="K411" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>643.2</v>
@@ -21354,7 +21376,7 @@
         <v>1058</v>
       </c>
       <c r="K412" t="n">
-        <v>-15.38461538461539</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L412" t="n">
         <v>643</v>
@@ -21405,7 +21427,7 @@
         <v>1061</v>
       </c>
       <c r="K413" t="n">
-        <v>-12</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L413" t="n">
         <v>642.5</v>
@@ -21456,7 +21478,7 @@
         <v>1061</v>
       </c>
       <c r="K414" t="n">
-        <v>-64.70588235294117</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L414" t="n">
         <v>642</v>
@@ -21507,7 +21529,7 @@
         <v>1064</v>
       </c>
       <c r="K415" t="n">
-        <v>-70</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L415" t="n">
         <v>641.2</v>
@@ -21558,7 +21580,7 @@
         <v>1067</v>
       </c>
       <c r="K416" t="n">
-        <v>-42.85714285714285</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L416" t="n">
         <v>640.6</v>
@@ -21609,7 +21631,7 @@
         <v>1069</v>
       </c>
       <c r="K417" t="n">
-        <v>-36.84210526315789</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L417" t="n">
         <v>639.9</v>
@@ -21660,7 +21682,7 @@
         <v>1074</v>
       </c>
       <c r="K418" t="n">
-        <v>-50</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L418" t="n">
         <v>638.6</v>
@@ -21711,7 +21733,7 @@
         <v>1079</v>
       </c>
       <c r="K419" t="n">
-        <v>-28.57142857142857</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L419" t="n">
         <v>637.9</v>
@@ -21762,7 +21784,7 @@
         <v>1083</v>
       </c>
       <c r="K420" t="n">
-        <v>-37.5</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L420" t="n">
         <v>636.8</v>
@@ -21813,7 +21835,7 @@
         <v>1085</v>
       </c>
       <c r="K421" t="n">
-        <v>-39.39393939393939</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L421" t="n">
         <v>635.5</v>
@@ -21864,7 +21886,7 @@
         <v>1088</v>
       </c>
       <c r="K422" t="n">
-        <v>-27.77777777777778</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L422" t="n">
         <v>634.7</v>
@@ -21915,7 +21937,7 @@
         <v>1092</v>
       </c>
       <c r="K423" t="n">
-        <v>-35</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L423" t="n">
         <v>633.8</v>
@@ -21966,7 +21988,7 @@
         <v>1094</v>
       </c>
       <c r="K424" t="n">
-        <v>-28.57142857142857</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L424" t="n">
         <v>633.1</v>
@@ -22017,7 +22039,7 @@
         <v>1096</v>
       </c>
       <c r="K425" t="n">
-        <v>-22.72727272727273</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L425" t="n">
         <v>632.9</v>
@@ -22068,7 +22090,7 @@
         <v>1096</v>
       </c>
       <c r="K426" t="n">
-        <v>-25.58139534883721</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L426" t="n">
         <v>632.4</v>
@@ -22119,7 +22141,7 @@
         <v>1096</v>
       </c>
       <c r="K427" t="n">
-        <v>-23.80952380952381</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L427" t="n">
         <v>632.1</v>
@@ -22170,7 +22192,7 @@
         <v>1096</v>
       </c>
       <c r="K428" t="n">
-        <v>-26.82926829268293</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L428" t="n">
         <v>632.3</v>
@@ -22221,7 +22243,7 @@
         <v>1098</v>
       </c>
       <c r="K429" t="n">
-        <v>-19.04761904761905</v>
+        <v>20</v>
       </c>
       <c r="L429" t="n">
         <v>632.2</v>
@@ -22272,7 +22294,7 @@
         <v>1100</v>
       </c>
       <c r="K430" t="n">
-        <v>-22.72727272727273</v>
+        <v>20</v>
       </c>
       <c r="L430" t="n">
         <v>632.3</v>
@@ -22323,7 +22345,7 @@
         <v>1106</v>
       </c>
       <c r="K431" t="n">
-        <v>-32</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L431" t="n">
         <v>632</v>
@@ -22374,7 +22396,7 @@
         <v>1106</v>
       </c>
       <c r="K432" t="n">
-        <v>-29.16666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L432" t="n">
         <v>631.4</v>
@@ -22425,7 +22447,7 @@
         <v>1107</v>
       </c>
       <c r="K433" t="n">
-        <v>-26.08695652173913</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L433" t="n">
         <v>631.1</v>
@@ -22476,7 +22498,7 @@
         <v>1114</v>
       </c>
       <c r="K434" t="n">
-        <v>-35.84905660377358</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L434" t="n">
         <v>629.9</v>
@@ -22527,7 +22549,7 @@
         <v>1115</v>
       </c>
       <c r="K435" t="n">
-        <v>-29.41176470588236</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L435" t="n">
         <v>628.6</v>
@@ -22578,7 +22600,7 @@
         <v>1116</v>
       </c>
       <c r="K436" t="n">
-        <v>-38.77551020408163</v>
+        <v>-70</v>
       </c>
       <c r="L436" t="n">
         <v>627.2</v>
@@ -22629,7 +22651,7 @@
         <v>1117</v>
       </c>
       <c r="K437" t="n">
-        <v>-33.33333333333333</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L437" t="n">
         <v>625.9</v>
@@ -22680,7 +22702,7 @@
         <v>1118</v>
       </c>
       <c r="K438" t="n">
-        <v>-27.27272727272727</v>
+        <v>-80</v>
       </c>
       <c r="L438" t="n">
         <v>624.5</v>
@@ -22731,7 +22753,7 @@
         <v>1118</v>
       </c>
       <c r="K439" t="n">
-        <v>-43.58974358974359</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L439" t="n">
         <v>622.9</v>
@@ -22782,7 +22804,7 @@
         <v>1118</v>
       </c>
       <c r="K440" t="n">
-        <v>-37.14285714285715</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L440" t="n">
         <v>621.5</v>
@@ -22833,7 +22855,7 @@
         <v>1118</v>
       </c>
       <c r="K441" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L441" t="n">
         <v>620.7</v>
@@ -22884,7 +22906,7 @@
         <v>1127</v>
       </c>
       <c r="K442" t="n">
-        <v>-12.82051282051282</v>
+        <v>10</v>
       </c>
       <c r="L442" t="n">
         <v>620.8</v>
@@ -22935,7 +22957,7 @@
         <v>1134</v>
       </c>
       <c r="K443" t="n">
-        <v>-19.04761904761905</v>
+        <v>10</v>
       </c>
       <c r="L443" t="n">
         <v>620.3</v>
@@ -22986,7 +23008,7 @@
         <v>1134</v>
       </c>
       <c r="K444" t="n">
-        <v>-25</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L444" t="n">
         <v>620.5</v>
@@ -23037,7 +23059,7 @@
         <v>1136</v>
       </c>
       <c r="K445" t="n">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="L445" t="n">
         <v>620.8</v>
@@ -23088,7 +23110,7 @@
         <v>1138</v>
       </c>
       <c r="K446" t="n">
-        <v>-28.57142857142857</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L446" t="n">
         <v>621</v>
@@ -23139,7 +23161,7 @@
         <v>1139</v>
       </c>
       <c r="K447" t="n">
-        <v>-25.58139534883721</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L447" t="n">
         <v>621.2</v>
@@ -23190,7 +23212,7 @@
         <v>1140</v>
       </c>
       <c r="K448" t="n">
-        <v>-27.27272727272727</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L448" t="n">
         <v>621.4</v>
@@ -23241,7 +23263,7 @@
         <v>1141</v>
       </c>
       <c r="K449" t="n">
-        <v>-34.88372093023256</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L449" t="n">
         <v>621.5</v>
@@ -23292,7 +23314,7 @@
         <v>1144</v>
       </c>
       <c r="K450" t="n">
-        <v>-22.72727272727273</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L450" t="n">
         <v>621.9</v>
@@ -23343,7 +23365,7 @@
         <v>1146</v>
       </c>
       <c r="K451" t="n">
-        <v>-15</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L451" t="n">
         <v>622.1</v>
@@ -23394,7 +23416,7 @@
         <v>1152</v>
       </c>
       <c r="K452" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L452" t="n">
         <v>622</v>
@@ -23445,7 +23467,7 @@
         <v>1157</v>
       </c>
       <c r="K453" t="n">
-        <v>-8</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L453" t="n">
         <v>622.1</v>
@@ -23496,7 +23518,7 @@
         <v>1160</v>
       </c>
       <c r="K454" t="n">
-        <v>13.04347826086956</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L454" t="n">
         <v>622.5</v>
@@ -23547,7 +23569,7 @@
         <v>1173</v>
       </c>
       <c r="K455" t="n">
-        <v>31.03448275862069</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="L455" t="n">
         <v>624</v>
@@ -23598,7 +23620,7 @@
         <v>1185</v>
       </c>
       <c r="K456" t="n">
-        <v>10.14492753623188</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="L456" t="n">
         <v>624.5</v>
@@ -23649,7 +23671,7 @@
         <v>1186</v>
       </c>
       <c r="K457" t="n">
-        <v>10.14492753623188</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L457" t="n">
         <v>625</v>
@@ -23700,7 +23722,7 @@
         <v>1189</v>
       </c>
       <c r="K458" t="n">
-        <v>15.49295774647887</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="L458" t="n">
         <v>625.9</v>
@@ -23751,7 +23773,7 @@
         <v>1190</v>
       </c>
       <c r="K459" t="n">
-        <v>13.88888888888889</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L459" t="n">
         <v>626.8</v>
@@ -23802,7 +23824,7 @@
         <v>1190</v>
       </c>
       <c r="K460" t="n">
-        <v>13.88888888888889</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L460" t="n">
         <v>627.4</v>
@@ -23853,7 +23875,7 @@
         <v>1190</v>
       </c>
       <c r="K461" t="n">
-        <v>13.88888888888889</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L461" t="n">
         <v>628.2</v>
@@ -23904,7 +23926,7 @@
         <v>1200</v>
       </c>
       <c r="K462" t="n">
-        <v>15.06849315068493</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="L462" t="n">
         <v>629.4</v>
@@ -23955,7 +23977,7 @@
         <v>1208</v>
       </c>
       <c r="K463" t="n">
-        <v>13.51351351351351</v>
+        <v>12.5</v>
       </c>
       <c r="L463" t="n">
         <v>630.3</v>
@@ -24006,7 +24028,7 @@
         <v>1214</v>
       </c>
       <c r="K464" t="n">
-        <v>20</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L464" t="n">
         <v>631.5</v>
@@ -24057,7 +24079,7 @@
         <v>1222</v>
       </c>
       <c r="K465" t="n">
-        <v>25.58139534883721</v>
+        <v>51.35135135135135</v>
       </c>
       <c r="L465" t="n">
         <v>632.2</v>
@@ -24108,7 +24130,7 @@
         <v>1228</v>
       </c>
       <c r="K466" t="n">
-        <v>20</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L466" t="n">
         <v>633.5</v>
@@ -24159,7 +24181,7 @@
         <v>1229</v>
       </c>
       <c r="K467" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L467" t="n">
         <v>634.8</v>
@@ -24210,7 +24232,7 @@
         <v>1231</v>
       </c>
       <c r="K468" t="n">
-        <v>23.07692307692308</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="L468" t="n">
         <v>636</v>
@@ -24261,7 +24283,7 @@
         <v>1232</v>
       </c>
       <c r="K469" t="n">
-        <v>23.07692307692308</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L469" t="n">
         <v>637.2</v>
@@ -24312,7 +24334,7 @@
         <v>1241</v>
       </c>
       <c r="K470" t="n">
-        <v>27.83505154639175</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L470" t="n">
         <v>639.3</v>
@@ -24363,7 +24385,7 @@
         <v>1245</v>
       </c>
       <c r="K471" t="n">
-        <v>25.25252525252525</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="L471" t="n">
         <v>641</v>
@@ -24414,7 +24436,7 @@
         <v>1250</v>
       </c>
       <c r="K472" t="n">
-        <v>14.28571428571428</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L472" t="n">
         <v>641.2</v>
@@ -24465,7 +24487,7 @@
         <v>1255</v>
       </c>
       <c r="K473" t="n">
-        <v>14.28571428571428</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L473" t="n">
         <v>641.7</v>
@@ -24516,7 +24538,7 @@
         <v>1259</v>
       </c>
       <c r="K474" t="n">
-        <v>15.15151515151515</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L474" t="n">
         <v>642</v>
@@ -24567,7 +24589,7 @@
         <v>1263</v>
       </c>
       <c r="K475" t="n">
-        <v>-2.222222222222222</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L475" t="n">
         <v>641.1</v>
@@ -24618,7 +24640,7 @@
         <v>1270</v>
       </c>
       <c r="K476" t="n">
-        <v>3.529411764705882</v>
+        <v>-26.82926829268293</v>
       </c>
       <c r="L476" t="n">
         <v>640.1</v>
@@ -24669,7 +24691,7 @@
         <v>1279</v>
       </c>
       <c r="K477" t="n">
-        <v>11.82795698924731</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L477" t="n">
         <v>639.9</v>
@@ -24720,7 +24742,7 @@
         <v>1280</v>
       </c>
       <c r="K478" t="n">
-        <v>7.692307692307693</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L478" t="n">
         <v>639.4</v>
@@ -24771,7 +24793,7 @@
         <v>1280</v>
       </c>
       <c r="K479" t="n">
-        <v>8.888888888888889</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L479" t="n">
         <v>639</v>
@@ -24822,7 +24844,7 @@
         <v>1286</v>
       </c>
       <c r="K480" t="n">
-        <v>2.083333333333333</v>
+        <v>-36.58536585365854</v>
       </c>
       <c r="L480" t="n">
         <v>637.1</v>
@@ -24873,7 +24895,7 @@
         <v>1290</v>
       </c>
       <c r="K481" t="n">
-        <v>-2</v>
+        <v>-35</v>
       </c>
       <c r="L481" t="n">
         <v>635.2</v>
@@ -24924,7 +24946,7 @@
         <v>1290</v>
       </c>
       <c r="K482" t="n">
-        <v>-13.33333333333333</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L482" t="n">
         <v>633.8</v>
@@ -24975,7 +24997,7 @@
         <v>1290</v>
       </c>
       <c r="K483" t="n">
-        <v>-4.878048780487805</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L483" t="n">
         <v>632.9</v>
@@ -25026,7 +25048,7 @@
         <v>1300</v>
       </c>
       <c r="K484" t="n">
-        <v>0</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L484" t="n">
         <v>632.6</v>
@@ -25077,7 +25099,7 @@
         <v>1307</v>
       </c>
       <c r="K485" t="n">
-        <v>-17.64705882352941</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L485" t="n">
         <v>632</v>
@@ -25128,7 +25150,7 @@
         <v>1309</v>
       </c>
       <c r="K486" t="n">
-        <v>-13.58024691358025</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L486" t="n">
         <v>631.9</v>
@@ -25179,7 +25201,7 @@
         <v>1309</v>
       </c>
       <c r="K487" t="n">
-        <v>-15</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L487" t="n">
         <v>630.9</v>
@@ -25230,7 +25252,7 @@
         <v>1310</v>
       </c>
       <c r="K488" t="n">
-        <v>-16.45569620253164</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L488" t="n">
         <v>630.1</v>
@@ -25281,7 +25303,7 @@
         <v>1310</v>
       </c>
       <c r="K489" t="n">
-        <v>-15.38461538461539</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L489" t="n">
         <v>629.3</v>
@@ -25332,7 +25354,7 @@
         <v>1311</v>
       </c>
       <c r="K490" t="n">
-        <v>-28.57142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L490" t="n">
         <v>629.2</v>
@@ -25383,7 +25405,7 @@
         <v>1314</v>
       </c>
       <c r="K491" t="n">
-        <v>-18.84057971014493</v>
+        <v>25</v>
       </c>
       <c r="L491" t="n">
         <v>629.8</v>
@@ -25434,7 +25456,7 @@
         <v>1318</v>
       </c>
       <c r="K492" t="n">
-        <v>-17.64705882352941</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L492" t="n">
         <v>630</v>
@@ -25485,7 +25507,7 @@
         <v>1319</v>
       </c>
       <c r="K493" t="n">
-        <v>-12.5</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L493" t="n">
         <v>630.1</v>
@@ -25536,7 +25558,7 @@
         <v>1319</v>
       </c>
       <c r="K494" t="n">
-        <v>-20</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L494" t="n">
         <v>629.2</v>
@@ -25587,7 +25609,7 @@
         <v>1320</v>
       </c>
       <c r="K495" t="n">
-        <v>-15.78947368421053</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L495" t="n">
         <v>628.9</v>
@@ -25638,7 +25660,7 @@
         <v>1320</v>
       </c>
       <c r="K496" t="n">
-        <v>-4</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L496" t="n">
         <v>628.8</v>
@@ -25689,7 +25711,7 @@
         <v>1321</v>
       </c>
       <c r="K497" t="n">
-        <v>-23.80952380952381</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L497" t="n">
         <v>628.8</v>
@@ -25740,7 +25762,7 @@
         <v>1325</v>
       </c>
       <c r="K498" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L498" t="n">
         <v>629.1</v>
@@ -25791,7 +25813,7 @@
         <v>1328</v>
       </c>
       <c r="K499" t="n">
-        <v>-16.66666666666666</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L499" t="n">
         <v>629.1</v>
@@ -25842,7 +25864,7 @@
         <v>1328</v>
       </c>
       <c r="K500" t="n">
-        <v>-4.761904761904762</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L500" t="n">
         <v>629</v>
@@ -25893,7 +25915,7 @@
         <v>1331</v>
       </c>
       <c r="K501" t="n">
-        <v>12.19512195121951</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L501" t="n">
         <v>628.9</v>
@@ -25944,7 +25966,7 @@
         <v>1331</v>
       </c>
       <c r="K502" t="n">
-        <v>12.19512195121951</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L502" t="n">
         <v>629.2</v>
@@ -25995,7 +26017,7 @@
         <v>1334</v>
       </c>
       <c r="K503" t="n">
-        <v>18.18181818181818</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L503" t="n">
         <v>629.9</v>
@@ -26046,7 +26068,7 @@
         <v>1340</v>
       </c>
       <c r="K504" t="n">
-        <v>-20</v>
+        <v>10</v>
       </c>
       <c r="L504" t="n">
         <v>630</v>
@@ -26097,7 +26119,7 @@
         <v>1357</v>
       </c>
       <c r="K505" t="n">
-        <v>32</v>
+        <v>51.35135135135135</v>
       </c>
       <c r="L505" t="n">
         <v>631.9</v>
@@ -26148,7 +26170,7 @@
         <v>1368</v>
       </c>
       <c r="K506" t="n">
-        <v>11.86440677966102</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="L506" t="n">
         <v>632.7</v>
@@ -26199,7 +26221,7 @@
         <v>1369</v>
       </c>
       <c r="K507" t="n">
-        <v>10</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L507" t="n">
         <v>633.3</v>
@@ -26250,7 +26272,7 @@
         <v>1371</v>
       </c>
       <c r="K508" t="n">
-        <v>11.47540983606557</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="L508" t="n">
         <v>633.7</v>
@@ -26301,7 +26323,7 @@
         <v>1372</v>
       </c>
       <c r="K509" t="n">
-        <v>12.90322580645161</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L509" t="n">
         <v>634.5</v>
@@ -26352,7 +26374,7 @@
         <v>1373</v>
       </c>
       <c r="K510" t="n">
-        <v>9.67741935483871</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L510" t="n">
         <v>635.2</v>
@@ -26403,7 +26425,7 @@
         <v>1374</v>
       </c>
       <c r="K511" t="n">
-        <v>6.666666666666667</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L511" t="n">
         <v>635.7</v>
@@ -26454,7 +26476,7 @@
         <v>1377</v>
       </c>
       <c r="K512" t="n">
-        <v>18.64406779661017</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L512" t="n">
         <v>636.5</v>
@@ -26505,7 +26527,7 @@
         <v>1383</v>
       </c>
       <c r="K513" t="n">
-        <v>9.375</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L513" t="n">
         <v>636.4</v>
@@ -26556,7 +26578,7 @@
         <v>1385</v>
       </c>
       <c r="K514" t="n">
-        <v>6.060606060606061</v>
+        <v>-50</v>
       </c>
       <c r="L514" t="n">
         <v>636.7</v>
@@ -26607,7 +26629,7 @@
         <v>1391</v>
       </c>
       <c r="K515" t="n">
-        <v>-1.408450704225352</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L515" t="n">
         <v>634.7</v>
@@ -26658,7 +26680,7 @@
         <v>1395</v>
       </c>
       <c r="K516" t="n">
-        <v>4</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L516" t="n">
         <v>634.2</v>
@@ -26709,7 +26731,7 @@
         <v>1401</v>
       </c>
       <c r="K517" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L517" t="n">
         <v>634.4</v>
@@ -26760,7 +26782,7 @@
         <v>1409</v>
       </c>
       <c r="K518" t="n">
-        <v>-4.761904761904762</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L518" t="n">
         <v>633.6</v>
@@ -26811,7 +26833,7 @@
         <v>1411</v>
       </c>
       <c r="K519" t="n">
-        <v>-3.614457831325301</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L519" t="n">
         <v>632.5</v>
@@ -26862,7 +26884,7 @@
         <v>1412</v>
       </c>
       <c r="K520" t="n">
-        <v>-2.380952380952381</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L520" t="n">
         <v>631.6</v>
@@ -26913,7 +26935,7 @@
         <v>1416</v>
       </c>
       <c r="K521" t="n">
-        <v>-10.58823529411765</v>
+        <v>-43.58974358974359</v>
       </c>
       <c r="L521" t="n">
         <v>630.2</v>
@@ -26964,7 +26986,7 @@
         <v>1416</v>
       </c>
       <c r="K522" t="n">
-        <v>-10.58823529411765</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L522" t="n">
         <v>628.5</v>
@@ -27015,7 +27037,7 @@
         <v>1421</v>
       </c>
       <c r="K523" t="n">
-        <v>-8.045977011494253</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L523" t="n">
         <v>627.9</v>
@@ -27066,7 +27088,7 @@
         <v>1421</v>
       </c>
       <c r="K524" t="n">
-        <v>-1.234567901234568</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L524" t="n">
         <v>627.5</v>
@@ -27117,7 +27139,7 @@
         <v>1421</v>
       </c>
       <c r="K525" t="n">
-        <v>-28.125</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L525" t="n">
         <v>627.7</v>
@@ -27168,7 +27190,7 @@
         <v>1423</v>
       </c>
       <c r="K526" t="n">
-        <v>-9.090909090909092</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L526" t="n">
         <v>627.7</v>
@@ -27219,7 +27241,7 @@
         <v>1424</v>
       </c>
       <c r="K527" t="n">
-        <v>-5.454545454545454</v>
+        <v>20</v>
       </c>
       <c r="L527" t="n">
         <v>627.2</v>
@@ -27270,7 +27292,7 @@
         <v>1425</v>
       </c>
       <c r="K528" t="n">
-        <v>-7.407407407407407</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L528" t="n">
         <v>627.6</v>
@@ -27321,7 +27343,7 @@
         <v>1429</v>
       </c>
       <c r="K529" t="n">
-        <v>-1.754385964912281</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L529" t="n">
         <v>628.6</v>
@@ -27372,7 +27394,7 @@
         <v>1432</v>
       </c>
       <c r="K530" t="n">
-        <v>-5.084745762711865</v>
+        <v>62.5</v>
       </c>
       <c r="L530" t="n">
         <v>629.2</v>
@@ -27423,7 +27445,7 @@
         <v>1433</v>
       </c>
       <c r="K531" t="n">
-        <v>-5.084745762711865</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L531" t="n">
         <v>630.3</v>
@@ -27474,7 +27496,7 @@
         <v>1436</v>
       </c>
       <c r="K532" t="n">
-        <v>-15.25423728813559</v>
+        <v>20</v>
       </c>
       <c r="L532" t="n">
         <v>631.1</v>
@@ -27525,7 +27547,7 @@
         <v>1437</v>
       </c>
       <c r="K533" t="n">
-        <v>-3.703703703703703</v>
+        <v>25</v>
       </c>
       <c r="L533" t="n">
         <v>631.5</v>
@@ -27576,7 +27598,7 @@
         <v>1438</v>
       </c>
       <c r="K534" t="n">
-        <v>-1.886792452830189</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L534" t="n">
         <v>631.8</v>
@@ -27627,7 +27649,7 @@
         <v>1438</v>
       </c>
       <c r="K535" t="n">
-        <v>10.63829787234043</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L535" t="n">
         <v>632.1</v>
@@ -27678,7 +27700,7 @@
         <v>1439</v>
       </c>
       <c r="K536" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L536" t="n">
         <v>632.1</v>
@@ -27729,7 +27751,7 @@
         <v>1443</v>
       </c>
       <c r="K537" t="n">
-        <v>-4.761904761904762</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L537" t="n">
         <v>632.4</v>
@@ -27780,7 +27802,7 @@
         <v>1446</v>
       </c>
       <c r="K538" t="n">
-        <v>8.108108108108109</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L538" t="n">
         <v>632.3</v>
@@ -27831,7 +27853,7 @@
         <v>1447</v>
       </c>
       <c r="K539" t="n">
-        <v>16.66666666666666</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L539" t="n">
         <v>631.9</v>
@@ -27882,7 +27904,7 @@
         <v>1448</v>
       </c>
       <c r="K540" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L540" t="n">
         <v>631.7</v>
@@ -27933,7 +27955,7 @@
         <v>1449</v>
       </c>
       <c r="K541" t="n">
-        <v>27.27272727272727</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L541" t="n">
         <v>631.5</v>
@@ -27984,7 +28006,7 @@
         <v>1451</v>
       </c>
       <c r="K542" t="n">
-        <v>31.42857142857143</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L542" t="n">
         <v>631.8</v>
@@ -28035,7 +28057,7 @@
         <v>1454</v>
       </c>
       <c r="K543" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L543" t="n">
         <v>631.7</v>
@@ -28086,7 +28108,7 @@
         <v>1454</v>
       </c>
       <c r="K544" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L544" t="n">
         <v>631.7</v>
@@ -28137,7 +28159,7 @@
         <v>1454</v>
       </c>
       <c r="K545" t="n">
-        <v>9.090909090909092</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L545" t="n">
         <v>631.7</v>
@@ -28188,7 +28210,7 @@
         <v>1455</v>
       </c>
       <c r="K546" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L546" t="n">
         <v>631.7</v>
@@ -28341,7 +28363,7 @@
         <v>1467</v>
       </c>
       <c r="K549" t="n">
-        <v>15.78947368421053</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L549" t="n">
         <v>632.5</v>
@@ -28392,7 +28414,7 @@
         <v>1479</v>
       </c>
       <c r="K550" t="n">
-        <v>-6.382978723404255</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L550" t="n">
         <v>632.4</v>
@@ -28443,7 +28465,7 @@
         <v>1479</v>
       </c>
       <c r="K551" t="n">
-        <v>-8.695652173913043</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L551" t="n">
         <v>632.2</v>
@@ -28494,7 +28516,7 @@
         <v>1481</v>
       </c>
       <c r="K552" t="n">
-        <v>2.222222222222222</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L552" t="n">
         <v>632</v>
@@ -28545,7 +28567,7 @@
         <v>1488</v>
       </c>
       <c r="K553" t="n">
-        <v>13.72549019607843</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L553" t="n">
         <v>632.8</v>
@@ -28596,7 +28618,7 @@
         <v>1495</v>
       </c>
       <c r="K554" t="n">
-        <v>1.754385964912281</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L554" t="n">
         <v>632.9</v>
@@ -28647,7 +28669,7 @@
         <v>1499</v>
       </c>
       <c r="K555" t="n">
-        <v>8.196721311475409</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="L555" t="n">
         <v>633.4</v>
@@ -28698,7 +28720,7 @@
         <v>1500</v>
       </c>
       <c r="K556" t="n">
-        <v>8.196721311475409</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L556" t="n">
         <v>633.9</v>
@@ -28749,7 +28771,7 @@
         <v>1503</v>
       </c>
       <c r="K557" t="n">
-        <v>6.666666666666667</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L557" t="n">
         <v>634.6</v>
@@ -28800,7 +28822,7 @@
         <v>1506</v>
       </c>
       <c r="K558" t="n">
-        <v>6.666666666666667</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L558" t="n">
         <v>634.9</v>
@@ -28851,7 +28873,7 @@
         <v>1511</v>
       </c>
       <c r="K559" t="n">
-        <v>12.5</v>
+        <v>31.25</v>
       </c>
       <c r="L559" t="n">
         <v>634.7</v>
@@ -28902,7 +28924,7 @@
         <v>1512</v>
       </c>
       <c r="K560" t="n">
-        <v>12.5</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L560" t="n">
         <v>635.6</v>
@@ -28953,7 +28975,7 @@
         <v>1513</v>
       </c>
       <c r="K561" t="n">
-        <v>9.375</v>
+        <v>18.75</v>
       </c>
       <c r="L561" t="n">
         <v>636.4</v>
@@ -29004,7 +29026,7 @@
         <v>1518</v>
       </c>
       <c r="K562" t="n">
-        <v>13.43283582089552</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L562" t="n">
         <v>637.5</v>
@@ -29055,7 +29077,7 @@
         <v>1521</v>
       </c>
       <c r="K563" t="n">
-        <v>13.43283582089552</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L563" t="n">
         <v>637.6</v>
@@ -29106,7 +29128,7 @@
         <v>1524</v>
       </c>
       <c r="K564" t="n">
-        <v>8.571428571428571</v>
+        <v>4</v>
       </c>
       <c r="L564" t="n">
         <v>638.1</v>
@@ -29157,7 +29179,7 @@
         <v>1524</v>
       </c>
       <c r="K565" t="n">
-        <v>8.571428571428571</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L565" t="n">
         <v>638.2</v>
@@ -29208,7 +29230,7 @@
         <v>1526</v>
       </c>
       <c r="K566" t="n">
-        <v>7.042253521126761</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L566" t="n">
         <v>638.2</v>
@@ -29259,7 +29281,7 @@
         <v>1526</v>
       </c>
       <c r="K567" t="n">
-        <v>5.714285714285714</v>
+        <v>0</v>
       </c>
       <c r="L567" t="n">
         <v>637.9</v>
@@ -29310,7 +29332,7 @@
         <v>1526</v>
       </c>
       <c r="K568" t="n">
-        <v>4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L568" t="n">
         <v>637.9</v>
@@ -29361,7 +29383,7 @@
         <v>1526</v>
       </c>
       <c r="K569" t="n">
-        <v>-11.86440677966102</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L569" t="n">
         <v>637.4</v>
@@ -29412,7 +29434,7 @@
         <v>1528</v>
       </c>
       <c r="K570" t="n">
-        <v>14.28571428571428</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L570" t="n">
         <v>637.2</v>
@@ -29463,7 +29485,7 @@
         <v>1534</v>
       </c>
       <c r="K571" t="n">
-        <v>1.818181818181818</v>
+        <v>-75</v>
       </c>
       <c r="L571" t="n">
         <v>636.5</v>
@@ -29514,7 +29536,7 @@
         <v>1540</v>
       </c>
       <c r="K572" t="n">
-        <v>8.474576271186439</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L572" t="n">
         <v>635.9</v>
@@ -29565,7 +29587,7 @@
         <v>1546</v>
       </c>
       <c r="K573" t="n">
-        <v>-13.79310344827586</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L573" t="n">
         <v>635</v>
@@ -29616,7 +29638,7 @@
         <v>1546</v>
       </c>
       <c r="K574" t="n">
-        <v>-1.96078431372549</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L574" t="n">
         <v>634.4</v>
@@ -29667,7 +29689,7 @@
         <v>1549</v>
       </c>
       <c r="K575" t="n">
-        <v>-4</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L575" t="n">
         <v>634.1</v>
@@ -29718,7 +29740,7 @@
         <v>1549</v>
       </c>
       <c r="K576" t="n">
-        <v>-2.040816326530612</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L576" t="n">
         <v>634</v>
@@ -29769,7 +29791,7 @@
         <v>1549</v>
       </c>
       <c r="K577" t="n">
-        <v>-8.695652173913043</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L577" t="n">
         <v>633.9</v>
@@ -29820,7 +29842,7 @@
         <v>1549</v>
       </c>
       <c r="K578" t="n">
-        <v>-2.325581395348837</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L578" t="n">
         <v>633.8</v>
@@ -29871,7 +29893,7 @@
         <v>1553</v>
       </c>
       <c r="K579" t="n">
-        <v>-23.80952380952381</v>
+        <v>-28</v>
       </c>
       <c r="L579" t="n">
         <v>633.3</v>
@@ -29922,7 +29944,7 @@
         <v>1554</v>
       </c>
       <c r="K580" t="n">
-        <v>-19.04761904761905</v>
+        <v>0</v>
       </c>
       <c r="L580" t="n">
         <v>632.7</v>
@@ -29973,7 +29995,7 @@
         <v>1555</v>
       </c>
       <c r="K581" t="n">
-        <v>-19.04761904761905</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L581" t="n">
         <v>632.6</v>
@@ -30024,7 +30046,7 @@
         <v>1555</v>
       </c>
       <c r="K582" t="n">
-        <v>-35.13513513513514</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L582" t="n">
         <v>631.9</v>
@@ -30075,7 +30097,7 @@
         <v>1555</v>
       </c>
       <c r="K583" t="n">
-        <v>-29.41176470588236</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L583" t="n">
         <v>631.8</v>
@@ -30126,7 +30148,7 @@
         <v>1557</v>
       </c>
       <c r="K584" t="n">
-        <v>-15.15151515151515</v>
+        <v>-25</v>
       </c>
       <c r="L584" t="n">
         <v>631.9</v>
@@ -30177,7 +30199,7 @@
         <v>1562</v>
       </c>
       <c r="K585" t="n">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L585" t="n">
         <v>632.2</v>
@@ -30228,7 +30250,7 @@
         <v>1563</v>
       </c>
       <c r="K586" t="n">
-        <v>2.702702702702703</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L586" t="n">
         <v>632.4</v>
@@ -30279,7 +30301,7 @@
         <v>1569</v>
       </c>
       <c r="K587" t="n">
-        <v>-11.62790697674419</v>
+        <v>-20</v>
       </c>
       <c r="L587" t="n">
         <v>632</v>
@@ -30330,7 +30352,7 @@
         <v>1571</v>
       </c>
       <c r="K588" t="n">
-        <v>-15.55555555555556</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L588" t="n">
         <v>631.4</v>
@@ -30381,7 +30403,7 @@
         <v>1581</v>
       </c>
       <c r="K589" t="n">
-        <v>5.454545454545454</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L589" t="n">
         <v>632.2</v>
@@ -30432,7 +30454,7 @@
         <v>1588</v>
       </c>
       <c r="K590" t="n">
-        <v>-10</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L590" t="n">
         <v>632.2</v>
@@ -30483,7 +30505,7 @@
         <v>1588</v>
       </c>
       <c r="K591" t="n">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L591" t="n">
         <v>632.3</v>
@@ -30534,7 +30556,7 @@
         <v>1594</v>
       </c>
       <c r="K592" t="n">
-        <v>0</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L592" t="n">
         <v>633</v>
@@ -30585,7 +30607,7 @@
         <v>1603</v>
       </c>
       <c r="K593" t="n">
-        <v>-5.263157894736842</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="L593" t="n">
         <v>632.8</v>
@@ -30636,7 +30658,7 @@
         <v>1604</v>
       </c>
       <c r="K594" t="n">
-        <v>-6.896551724137931</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L594" t="n">
         <v>632.3</v>
@@ -30687,7 +30709,7 @@
         <v>1604</v>
       </c>
       <c r="K595" t="n">
-        <v>-12.72727272727273</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L595" t="n">
         <v>631.3</v>
@@ -30738,7 +30760,7 @@
         <v>1604</v>
       </c>
       <c r="K596" t="n">
-        <v>-12.72727272727273</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L596" t="n">
         <v>630.4</v>
@@ -30789,7 +30811,7 @@
         <v>1611</v>
       </c>
       <c r="K597" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L597" t="n">
         <v>630.8</v>
@@ -30840,7 +30862,7 @@
         <v>1612</v>
       </c>
       <c r="K598" t="n">
-        <v>1.587301587301587</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L598" t="n">
         <v>631.5</v>
@@ -30891,7 +30913,7 @@
         <v>1614</v>
       </c>
       <c r="K599" t="n">
-        <v>11.47540983606557</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L599" t="n">
         <v>631.4</v>
@@ -30942,7 +30964,7 @@
         <v>1617</v>
       </c>
       <c r="K600" t="n">
-        <v>4.761904761904762</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L600" t="n">
         <v>631.7</v>
@@ -30993,7 +31015,7 @@
         <v>1621</v>
       </c>
       <c r="K601" t="n">
-        <v>12.12121212121212</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L601" t="n">
         <v>632.4</v>
@@ -31044,7 +31066,7 @@
         <v>1625</v>
       </c>
       <c r="K602" t="n">
-        <v>5.714285714285714</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L602" t="n">
         <v>632.1</v>
@@ -31095,7 +31117,7 @@
         <v>1625</v>
       </c>
       <c r="K603" t="n">
-        <v>5.714285714285714</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L603" t="n">
         <v>632.7</v>
@@ -31146,7 +31168,7 @@
         <v>1626</v>
       </c>
       <c r="K604" t="n">
-        <v>4.347826086956522</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L604" t="n">
         <v>633.5</v>
@@ -31197,7 +31219,7 @@
         <v>1627</v>
       </c>
       <c r="K605" t="n">
-        <v>-4.615384615384616</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L605" t="n">
         <v>634.2</v>
@@ -31248,7 +31270,7 @@
         <v>1632</v>
       </c>
       <c r="K606" t="n">
-        <v>-10.14492753623188</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L606" t="n">
         <v>634.4</v>
@@ -31299,7 +31321,7 @@
         <v>1633</v>
       </c>
       <c r="K607" t="n">
-        <v>-3.125</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L607" t="n">
         <v>633.8</v>
@@ -31350,7 +31372,7 @@
         <v>1634</v>
       </c>
       <c r="K608" t="n">
-        <v>1.587301587301587</v>
+        <v>-40</v>
       </c>
       <c r="L608" t="n">
         <v>633.2</v>
@@ -31401,7 +31423,7 @@
         <v>1635</v>
       </c>
       <c r="K609" t="n">
-        <v>-18.51851851851852</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L609" t="n">
         <v>632.3</v>
@@ -31452,7 +31474,7 @@
         <v>1635</v>
       </c>
       <c r="K610" t="n">
-        <v>-6.382978723404255</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L610" t="n">
         <v>631.7</v>
@@ -31503,7 +31525,7 @@
         <v>1635</v>
       </c>
       <c r="K611" t="n">
-        <v>-6.382978723404255</v>
+        <v>-60</v>
       </c>
       <c r="L611" t="n">
         <v>630.7</v>
@@ -31554,7 +31576,7 @@
         <v>1637</v>
       </c>
       <c r="K612" t="n">
-        <v>-16.27906976744186</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L612" t="n">
         <v>630.3</v>
@@ -31605,7 +31627,7 @@
         <v>1639</v>
       </c>
       <c r="K613" t="n">
-        <v>0</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L613" t="n">
         <v>629.7</v>
@@ -31656,7 +31678,7 @@
         <v>1640</v>
       </c>
       <c r="K614" t="n">
-        <v>5.555555555555555</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L614" t="n">
         <v>629.1</v>
@@ -31707,7 +31729,7 @@
         <v>1646</v>
       </c>
       <c r="K615" t="n">
-        <v>-9.523809523809524</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L615" t="n">
         <v>628</v>
@@ -31758,7 +31780,7 @@
         <v>1650</v>
       </c>
       <c r="K616" t="n">
-        <v>-17.39130434782609</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L616" t="n">
         <v>627</v>
@@ -31809,7 +31831,7 @@
         <v>1650</v>
       </c>
       <c r="K617" t="n">
-        <v>-38.46153846153847</v>
+        <v>-62.5</v>
       </c>
       <c r="L617" t="n">
         <v>626.1</v>
@@ -31860,7 +31882,7 @@
         <v>1656</v>
       </c>
       <c r="K618" t="n">
-        <v>-22.72727272727273</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L618" t="n">
         <v>625.7</v>
@@ -31911,7 +31933,7 @@
         <v>1661</v>
       </c>
       <c r="K619" t="n">
-        <v>-36.17021276595745</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L619" t="n">
         <v>624.9</v>
@@ -32013,7 +32035,7 @@
         <v>1662</v>
       </c>
       <c r="K621" t="n">
-        <v>-46.34146341463415</v>
+        <v>-44</v>
       </c>
       <c r="L621" t="n">
         <v>623.1</v>
@@ -32064,7 +32086,7 @@
         <v>1664</v>
       </c>
       <c r="K622" t="n">
-        <v>-43.58974358974359</v>
+        <v>-44</v>
       </c>
       <c r="L622" t="n">
         <v>621.8</v>
@@ -32115,7 +32137,7 @@
         <v>1665</v>
       </c>
       <c r="K623" t="n">
-        <v>-45</v>
+        <v>-52</v>
       </c>
       <c r="L623" t="n">
         <v>620.6</v>
@@ -32166,7 +32188,7 @@
         <v>1665</v>
       </c>
       <c r="K624" t="n">
-        <v>-48.71794871794872</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L624" t="n">
         <v>619.3</v>
@@ -32217,7 +32239,7 @@
         <v>1671</v>
       </c>
       <c r="K625" t="n">
-        <v>-54.54545454545454</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L625" t="n">
         <v>618</v>
@@ -32268,7 +32290,7 @@
         <v>1673</v>
       </c>
       <c r="K626" t="n">
-        <v>-41.46341463414634</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L626" t="n">
         <v>617.3</v>
@@ -32319,7 +32341,7 @@
         <v>1674</v>
       </c>
       <c r="K627" t="n">
-        <v>-41.46341463414634</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L627" t="n">
         <v>616.5</v>
@@ -32370,7 +32392,7 @@
         <v>1675</v>
       </c>
       <c r="K628" t="n">
-        <v>-41.46341463414634</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L628" t="n">
         <v>615.2</v>
@@ -32421,7 +32443,7 @@
         <v>1676</v>
       </c>
       <c r="K629" t="n">
-        <v>-41.46341463414634</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L629" t="n">
         <v>614.3</v>
@@ -32472,7 +32494,7 @@
         <v>1681</v>
       </c>
       <c r="K630" t="n">
-        <v>-26.08695652173913</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L630" t="n">
         <v>614</v>
@@ -32523,7 +32545,7 @@
         <v>1682</v>
       </c>
       <c r="K631" t="n">
-        <v>-23.40425531914894</v>
+        <v>0</v>
       </c>
       <c r="L631" t="n">
         <v>613.8</v>
@@ -32574,7 +32596,7 @@
         <v>1683</v>
       </c>
       <c r="K632" t="n">
-        <v>-30.43478260869566</v>
+        <v>0</v>
       </c>
       <c r="L632" t="n">
         <v>613.7</v>
@@ -32625,7 +32647,7 @@
         <v>1688</v>
       </c>
       <c r="K633" t="n">
-        <v>-34.69387755102041</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L633" t="n">
         <v>613.2</v>
@@ -32676,7 +32698,7 @@
         <v>1689</v>
       </c>
       <c r="K634" t="n">
-        <v>-38.77551020408163</v>
+        <v>0</v>
       </c>
       <c r="L634" t="n">
         <v>612.6</v>
@@ -32727,7 +32749,7 @@
         <v>1694</v>
       </c>
       <c r="K635" t="n">
-        <v>-16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L635" t="n">
         <v>613.1</v>
@@ -32778,7 +32800,7 @@
         <v>1698</v>
       </c>
       <c r="K636" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L636" t="n">
         <v>613</v>
@@ -32829,7 +32851,7 @@
         <v>1699</v>
       </c>
       <c r="K637" t="n">
-        <v>-18.36734693877551</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L637" t="n">
         <v>612.9</v>
@@ -32880,7 +32902,7 @@
         <v>1699</v>
       </c>
       <c r="K638" t="n">
-        <v>-34.88372093023256</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L638" t="n">
         <v>612.7</v>
@@ -32931,7 +32953,7 @@
         <v>1699</v>
       </c>
       <c r="K639" t="n">
-        <v>-26.31578947368421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L639" t="n">
         <v>612.6</v>
@@ -32982,7 +33004,7 @@
         <v>1701</v>
       </c>
       <c r="K640" t="n">
-        <v>-17.94871794871795</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L640" t="n">
         <v>612.2</v>
@@ -33033,7 +33055,7 @@
         <v>1701</v>
       </c>
       <c r="K641" t="n">
-        <v>-17.94871794871795</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L641" t="n">
         <v>611.7</v>
@@ -33084,7 +33106,7 @@
         <v>1701</v>
       </c>
       <c r="K642" t="n">
-        <v>-13.51351351351351</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L642" t="n">
         <v>611.3</v>
@@ -33135,7 +33157,7 @@
         <v>1704</v>
       </c>
       <c r="K643" t="n">
-        <v>-2.564102564102564</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L643" t="n">
         <v>611.7</v>
@@ -33186,7 +33208,7 @@
         <v>1704</v>
       </c>
       <c r="K644" t="n">
-        <v>-2.564102564102564</v>
+        <v>0</v>
       </c>
       <c r="L644" t="n">
         <v>612.2</v>
@@ -33237,7 +33259,7 @@
         <v>1704</v>
       </c>
       <c r="K645" t="n">
-        <v>15.15151515151515</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L645" t="n">
         <v>612.2</v>
@@ -33288,7 +33310,7 @@
         <v>1704</v>
       </c>
       <c r="K646" t="n">
-        <v>9.67741935483871</v>
+        <v>100</v>
       </c>
       <c r="L646" t="n">
         <v>612.6</v>
@@ -33339,7 +33361,7 @@
         <v>1705</v>
       </c>
       <c r="K647" t="n">
-        <v>16.12903225806452</v>
+        <v>100</v>
       </c>
       <c r="L647" t="n">
         <v>613.2</v>
@@ -33390,7 +33412,7 @@
         <v>1710</v>
       </c>
       <c r="K648" t="n">
-        <v>-2.857142857142857</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L648" t="n">
         <v>613.3</v>
@@ -33441,7 +33463,7 @@
         <v>1711</v>
       </c>
       <c r="K649" t="n">
-        <v>-2.857142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L649" t="n">
         <v>613.3</v>
@@ -33492,7 +33514,7 @@
         <v>1717</v>
       </c>
       <c r="K650" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L650" t="n">
         <v>613.7</v>
@@ -33543,7 +33565,7 @@
         <v>1720</v>
       </c>
       <c r="K651" t="n">
-        <v>5.263157894736842</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L651" t="n">
         <v>614.4</v>
@@ -33594,7 +33616,7 @@
         <v>1727</v>
       </c>
       <c r="K652" t="n">
-        <v>-9.090909090909092</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L652" t="n">
         <v>614.4</v>
@@ -33645,7 +33667,7 @@
         <v>1736</v>
       </c>
       <c r="K653" t="n">
-        <v>20.83333333333334</v>
+        <v>18.75</v>
       </c>
       <c r="L653" t="n">
         <v>615</v>
@@ -33696,7 +33718,7 @@
         <v>1750</v>
       </c>
       <c r="K654" t="n">
-        <v>-4.918032786885246</v>
+        <v>-17.39130434782609</v>
       </c>
       <c r="L654" t="n">
         <v>614.2</v>
@@ -33747,7 +33769,7 @@
         <v>1751</v>
       </c>
       <c r="K655" t="n">
-        <v>-15.78947368421053</v>
+        <v>-19.14893617021277</v>
       </c>
       <c r="L655" t="n">
         <v>613.3</v>
@@ -33798,7 +33820,7 @@
         <v>1751</v>
       </c>
       <c r="K656" t="n">
-        <v>-9.433962264150944</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L656" t="n">
         <v>612.4</v>
@@ -33849,7 +33871,7 @@
         <v>1755</v>
       </c>
       <c r="K657" t="n">
-        <v>0</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="L657" t="n">
         <v>611.8</v>
@@ -33900,7 +33922,7 @@
         <v>1759</v>
       </c>
       <c r="K658" t="n">
-        <v>-6.666666666666667</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L658" t="n">
         <v>611.3</v>
@@ -33951,7 +33973,7 @@
         <v>1760</v>
       </c>
       <c r="K659" t="n">
-        <v>-8.196721311475409</v>
+        <v>-25.58139534883721</v>
       </c>
       <c r="L659" t="n">
         <v>610.8</v>
@@ -34002,7 +34024,7 @@
         <v>1761</v>
       </c>
       <c r="K660" t="n">
-        <v>-13.33333333333333</v>
+        <v>-36.58536585365854</v>
       </c>
       <c r="L660" t="n">
         <v>609.6</v>
@@ -34053,7 +34075,7 @@
         <v>1764</v>
       </c>
       <c r="K661" t="n">
-        <v>-17.46031746031746</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L661" t="n">
         <v>607.8</v>
@@ -34104,7 +34126,7 @@
         <v>1764</v>
       </c>
       <c r="K662" t="n">
-        <v>-17.46031746031746</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L662" t="n">
         <v>606.7</v>
@@ -34155,7 +34177,7 @@
         <v>1771</v>
       </c>
       <c r="K663" t="n">
-        <v>-31.34328358208955</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L663" t="n">
         <v>604</v>
@@ -34206,7 +34228,7 @@
         <v>1771</v>
       </c>
       <c r="K664" t="n">
-        <v>-31.34328358208955</v>
+        <v>-60</v>
       </c>
       <c r="L664" t="n">
         <v>602.7</v>
@@ -34257,7 +34279,7 @@
         <v>1772</v>
       </c>
       <c r="K665" t="n">
-        <v>-32.35294117647059</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L665" t="n">
         <v>601.4</v>
@@ -34308,7 +34330,7 @@
         <v>1773</v>
       </c>
       <c r="K666" t="n">
-        <v>-30.43478260869566</v>
+        <v>-88.88888888888889</v>
       </c>
       <c r="L666" t="n">
         <v>600.2</v>
@@ -34359,7 +34381,7 @@
         <v>1777</v>
       </c>
       <c r="K667" t="n">
-        <v>-25</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L667" t="n">
         <v>599</v>
@@ -34410,7 +34432,7 @@
         <v>1786</v>
       </c>
       <c r="K668" t="n">
-        <v>-5.263157894736842</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L668" t="n">
         <v>599.1</v>
@@ -34461,7 +34483,7 @@
         <v>1795</v>
       </c>
       <c r="K669" t="n">
-        <v>-14.28571428571428</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L669" t="n">
         <v>598.4</v>
@@ -34512,7 +34534,7 @@
         <v>1799</v>
       </c>
       <c r="K670" t="n">
-        <v>-17.07317073170732</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L670" t="n">
         <v>598.2</v>
@@ -34563,7 +34585,7 @@
         <v>1802</v>
       </c>
       <c r="K671" t="n">
-        <v>-24.39024390243902</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L671" t="n">
         <v>598</v>
@@ -34614,7 +34636,7 @@
         <v>1803</v>
       </c>
       <c r="K672" t="n">
-        <v>-18.42105263157895</v>
+        <v>12.5</v>
       </c>
       <c r="L672" t="n">
         <v>597.7</v>
@@ -34665,7 +34687,7 @@
         <v>1804</v>
       </c>
       <c r="K673" t="n">
-        <v>-32.35294117647059</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L673" t="n">
         <v>598.2</v>
@@ -34716,7 +34738,7 @@
         <v>1806</v>
       </c>
       <c r="K674" t="n">
-        <v>-10.71428571428571</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L674" t="n">
         <v>598.9</v>
@@ -34767,7 +34789,7 @@
         <v>1809</v>
       </c>
       <c r="K675" t="n">
-        <v>-13.79310344827586</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L675" t="n">
         <v>599.4</v>
@@ -34818,7 +34840,7 @@
         <v>1813</v>
       </c>
       <c r="K676" t="n">
-        <v>-6.451612903225806</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L676" t="n">
         <v>600.2</v>
@@ -34869,7 +34891,7 @@
         <v>1815</v>
       </c>
       <c r="K677" t="n">
-        <v>-16.66666666666666</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L677" t="n">
         <v>600.4</v>
@@ -34920,7 +34942,7 @@
         <v>1816</v>
       </c>
       <c r="K678" t="n">
-        <v>-12.28070175438596</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L678" t="n">
         <v>599.6</v>
@@ -34971,7 +34993,7 @@
         <v>1820</v>
       </c>
       <c r="K679" t="n">
-        <v>-3.333333333333333</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L679" t="n">
         <v>600.1</v>
@@ -35022,7 +35044,7 @@
         <v>1821</v>
       </c>
       <c r="K680" t="n">
-        <v>0</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L680" t="n">
         <v>600.3</v>
@@ -35073,7 +35095,7 @@
         <v>1821</v>
       </c>
       <c r="K681" t="n">
-        <v>5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L681" t="n">
         <v>600.8</v>
@@ -35124,7 +35146,7 @@
         <v>1824</v>
       </c>
       <c r="K682" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L682" t="n">
         <v>601.1</v>
@@ -35175,7 +35197,7 @@
         <v>1825</v>
       </c>
       <c r="K683" t="n">
-        <v>11.11111111111111</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L683" t="n">
         <v>601.2</v>
@@ -35226,7 +35248,7 @@
         <v>1825</v>
       </c>
       <c r="K684" t="n">
-        <v>11.11111111111111</v>
+        <v>12.5</v>
       </c>
       <c r="L684" t="n">
         <v>601.1</v>
@@ -35277,7 +35299,7 @@
         <v>1832</v>
       </c>
       <c r="K685" t="n">
-        <v>23.33333333333333</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L685" t="n">
         <v>602</v>
@@ -35328,7 +35350,7 @@
         <v>1832</v>
       </c>
       <c r="K686" t="n">
-        <v>22.03389830508474</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L686" t="n">
         <v>602.5</v>
@@ -35379,7 +35401,7 @@
         <v>1837</v>
       </c>
       <c r="K687" t="n">
-        <v>23.33333333333333</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L687" t="n">
         <v>603.7</v>
@@ -35430,7 +35452,7 @@
         <v>1841</v>
       </c>
       <c r="K688" t="n">
-        <v>1.818181818181818</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L688" t="n">
         <v>604.6</v>
@@ -35481,7 +35503,7 @@
         <v>1841</v>
       </c>
       <c r="K689" t="n">
-        <v>21.73913043478261</v>
+        <v>20</v>
       </c>
       <c r="L689" t="n">
         <v>605.1</v>
@@ -35532,7 +35554,7 @@
         <v>1843</v>
       </c>
       <c r="K690" t="n">
-        <v>18.18181818181818</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L690" t="n">
         <v>605.7</v>
@@ -35583,7 +35605,7 @@
         <v>1849</v>
       </c>
       <c r="K691" t="n">
-        <v>10.63829787234043</v>
+        <v>12</v>
       </c>
       <c r="L691" t="n">
         <v>605.7</v>
@@ -35634,7 +35656,7 @@
         <v>1852</v>
       </c>
       <c r="K692" t="n">
-        <v>18.36734693877551</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L692" t="n">
         <v>606.3</v>
@@ -35685,7 +35707,7 @@
         <v>1853</v>
       </c>
       <c r="K693" t="n">
-        <v>14.28571428571428</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L693" t="n">
         <v>606.9</v>
@@ -35736,7 +35758,7 @@
         <v>1854</v>
       </c>
       <c r="K694" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L694" t="n">
         <v>607.6</v>
@@ -35787,7 +35809,7 @@
         <v>1857</v>
       </c>
       <c r="K695" t="n">
-        <v>12.5</v>
+        <v>-12</v>
       </c>
       <c r="L695" t="n">
         <v>607.3</v>
@@ -35838,7 +35860,7 @@
         <v>1859</v>
       </c>
       <c r="K696" t="n">
-        <v>8.695652173913043</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L696" t="n">
         <v>607.2</v>
@@ -35889,7 +35911,7 @@
         <v>1861</v>
       </c>
       <c r="K697" t="n">
-        <v>17.39130434782609</v>
+        <v>0</v>
       </c>
       <c r="L697" t="n">
         <v>606.8</v>
@@ -35940,7 +35962,7 @@
         <v>1864</v>
       </c>
       <c r="K698" t="n">
-        <v>12.5</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L698" t="n">
         <v>606.5</v>
@@ -35991,7 +36013,7 @@
         <v>1867</v>
       </c>
       <c r="K699" t="n">
-        <v>10.63829787234043</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L699" t="n">
         <v>606.5</v>
@@ -36042,7 +36064,7 @@
         <v>1867</v>
       </c>
       <c r="K700" t="n">
-        <v>8.695652173913043</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L700" t="n">
         <v>606.3</v>
@@ -36093,7 +36115,7 @@
         <v>1868</v>
       </c>
       <c r="K701" t="n">
-        <v>10.63829787234043</v>
+        <v>12.5</v>
       </c>
       <c r="L701" t="n">
         <v>606.8</v>
@@ -36144,7 +36166,7 @@
         <v>1869</v>
       </c>
       <c r="K702" t="n">
-        <v>15.55555555555556</v>
+        <v>12.5</v>
       </c>
       <c r="L702" t="n">
         <v>606.9</v>
@@ -36195,7 +36217,7 @@
         <v>1872</v>
       </c>
       <c r="K703" t="n">
-        <v>23.40425531914894</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L703" t="n">
         <v>607.4</v>
@@ -36246,7 +36268,7 @@
         <v>1872</v>
       </c>
       <c r="K704" t="n">
-        <v>23.40425531914894</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L704" t="n">
         <v>607.8</v>
@@ -36297,7 +36319,7 @@
         <v>1873</v>
       </c>
       <c r="K705" t="n">
-        <v>7.317073170731707</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L705" t="n">
         <v>608.4</v>
@@ -36348,7 +36370,7 @@
         <v>1875</v>
       </c>
       <c r="K706" t="n">
-        <v>11.62790697674419</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L706" t="n">
         <v>609</v>
@@ -36399,7 +36421,7 @@
         <v>1875</v>
       </c>
       <c r="K707" t="n">
-        <v>0</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L707" t="n">
         <v>609.4</v>
@@ -36450,7 +36472,7 @@
         <v>1878</v>
       </c>
       <c r="K708" t="n">
-        <v>2.702702702702703</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L708" t="n">
         <v>609.8</v>
@@ -36501,7 +36523,7 @@
         <v>1878</v>
       </c>
       <c r="K709" t="n">
-        <v>2.702702702702703</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L709" t="n">
         <v>609.9</v>
@@ -36552,7 +36574,7 @@
         <v>1882</v>
       </c>
       <c r="K710" t="n">
-        <v>7.692307692307693</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L710" t="n">
         <v>610.4</v>
@@ -36603,7 +36625,7 @@
         <v>1885</v>
       </c>
       <c r="K711" t="n">
-        <v>16.66666666666666</v>
+        <v>12.5</v>
       </c>
       <c r="L711" t="n">
         <v>610.5</v>
@@ -36654,7 +36676,7 @@
         <v>1886</v>
       </c>
       <c r="K712" t="n">
-        <v>5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L712" t="n">
         <v>610.6</v>
@@ -36705,7 +36727,7 @@
         <v>1887</v>
       </c>
       <c r="K713" t="n">
-        <v>5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L713" t="n">
         <v>610.3</v>
@@ -36756,7 +36778,7 @@
         <v>1887</v>
       </c>
       <c r="K714" t="n">
-        <v>3.03030303030303</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L714" t="n">
         <v>610</v>
@@ -36807,7 +36829,7 @@
         <v>1888</v>
       </c>
       <c r="K715" t="n">
-        <v>9.67741935483871</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L715" t="n">
         <v>609.7</v>
@@ -36858,7 +36880,7 @@
         <v>1889</v>
       </c>
       <c r="K716" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L716" t="n">
         <v>609.1</v>
@@ -36909,7 +36931,7 @@
         <v>1896</v>
       </c>
       <c r="K717" t="n">
-        <v>14.28571428571428</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L717" t="n">
         <v>609.2</v>

--- a/BackTest/2019-10-12 BackTest PPT.xlsx
+++ b/BackTest/2019-10-12 BackTest PPT.xlsx
@@ -451,20 +451,14 @@
         <v>595.7166666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>594</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>595.75</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>593</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>595.7</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>590</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>595.7333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>590</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>595.8833333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>596</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>595.95</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>596</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>595.9666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>591</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>596</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>591</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>596.0333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>594</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>595.9833333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>591</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>596.0166666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>590</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>596.0666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>595</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>596.1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>596</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>596.1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>598</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>595.9833333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>592</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>595.9333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>594</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>595.6666666666666</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>582</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>595.3666666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>588</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>595.3166666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>598</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>595.2333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>590</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>595.2833333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>598</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>595.3666666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>598</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>595.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>592</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>595.5333333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>592</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1291,14 @@
         <v>595.6333333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>594</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1476,20 +1326,14 @@
         <v>595.7</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>594</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1517,20 +1361,14 @@
         <v>595.6333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>595</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,20 +1396,14 @@
         <v>595.75</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>595</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1599,20 +1431,14 @@
         <v>595.7333333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>593</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1640,20 +1466,14 @@
         <v>595.7333333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>595</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1681,20 +1501,14 @@
         <v>595.8</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>593</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1722,20 +1536,14 @@
         <v>595.8666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>595</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1763,20 +1571,14 @@
         <v>595.8166666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>597</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1804,20 +1606,14 @@
         <v>595.9333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>596</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1845,20 +1641,14 @@
         <v>595.8666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>596</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1886,20 +1676,14 @@
         <v>595.9166666666666</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>595</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1927,20 +1711,14 @@
         <v>595.5833333333334</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>595</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1968,20 +1746,14 @@
         <v>595.6166666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>596</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2009,20 +1781,14 @@
         <v>595.55</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>599</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2050,20 +1816,14 @@
         <v>595.4</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>597</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2091,20 +1851,14 @@
         <v>595.35</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>597</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2132,20 +1886,14 @@
         <v>595.2166666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>597</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2173,20 +1921,14 @@
         <v>595.1166666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>597</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2214,20 +1956,14 @@
         <v>595.0833333333334</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>600</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2255,20 +1991,14 @@
         <v>595.2333333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>600</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2296,20 +2026,14 @@
         <v>595.25</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>601</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2337,20 +2061,14 @@
         <v>595.25</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>602</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2378,20 +2096,14 @@
         <v>595.35</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>605</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2419,20 +2131,14 @@
         <v>595.5</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>604</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2460,20 +2166,14 @@
         <v>595.7</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>607</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2501,20 +2201,14 @@
         <v>595.7166666666667</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>603</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2549,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2588,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2627,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2666,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2698,20 +2376,14 @@
         <v>596.0666666666667</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>606</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2746,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2785,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2817,20 +2481,14 @@
         <v>596.1166666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>605</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2858,20 +2516,14 @@
         <v>596.0833333333334</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>596</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2906,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2938,20 +2586,14 @@
         <v>596.4333333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>596</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2979,20 +2621,14 @@
         <v>596.6</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>600</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3020,20 +2656,14 @@
         <v>596.7833333333333</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>601</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3061,20 +2691,14 @@
         <v>596.85</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>601</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3102,20 +2726,14 @@
         <v>596.9</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>599</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3143,20 +2761,14 @@
         <v>597.0833333333334</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>597</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3184,20 +2796,14 @@
         <v>597.1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>592</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3225,20 +2831,14 @@
         <v>597.0833333333334</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>593</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3266,20 +2866,14 @@
         <v>597.15</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>594</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3307,20 +2901,14 @@
         <v>597.1833333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>592</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3348,20 +2936,14 @@
         <v>597.25</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>590</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3389,20 +2971,14 @@
         <v>597.2166666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>597</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3430,20 +3006,14 @@
         <v>597.2666666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>600</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3471,20 +3041,14 @@
         <v>597.2666666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>599</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3512,20 +3076,14 @@
         <v>597.3666666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>599</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3553,20 +3111,14 @@
         <v>597.5166666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>597</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3594,20 +3146,14 @@
         <v>597.6</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>591</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3635,20 +3181,14 @@
         <v>597.5666666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>591</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3676,20 +3216,14 @@
         <v>597.55</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>591</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3717,20 +3251,14 @@
         <v>597.4333333333333</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>591</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3758,20 +3286,14 @@
         <v>597.3</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>590</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3799,20 +3321,14 @@
         <v>597.2</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>590</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3840,20 +3356,14 @@
         <v>597.1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>590</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3881,20 +3391,14 @@
         <v>597.05</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>591</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3922,20 +3426,14 @@
         <v>597.0333333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>591</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3963,20 +3461,14 @@
         <v>597.1</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>595</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4004,20 +3496,14 @@
         <v>597.15</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>598</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4045,20 +3531,14 @@
         <v>597.1</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>598</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4086,20 +3566,14 @@
         <v>597.05</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>593</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4127,20 +3601,14 @@
         <v>597.15</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>598</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4168,20 +3636,14 @@
         <v>597.1</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>594</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4209,20 +3671,14 @@
         <v>597.1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>596</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4250,20 +3706,14 @@
         <v>597.1</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>596</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4291,20 +3741,14 @@
         <v>597.1166666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>596</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4332,20 +3776,14 @@
         <v>597.1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>594</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4373,20 +3811,14 @@
         <v>597.0833333333334</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>594</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4414,20 +3846,14 @@
         <v>597.05</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>594</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4455,20 +3881,14 @@
         <v>597</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>593</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4496,20 +3916,14 @@
         <v>596.9333333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>593</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4537,20 +3951,14 @@
         <v>596.8333333333334</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>592</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4578,20 +3986,14 @@
         <v>596.7833333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>594</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4619,20 +4021,14 @@
         <v>596.7333333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>592</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4660,20 +4056,14 @@
         <v>596.6</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>592</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4701,20 +4091,14 @@
         <v>596.4333333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>593</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4742,20 +4126,14 @@
         <v>596.2666666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>592</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4783,20 +4161,14 @@
         <v>596.0833333333334</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>591</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4824,20 +4196,14 @@
         <v>595.8666666666667</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>592</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4865,20 +4231,14 @@
         <v>595.6833333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>596</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4906,20 +4266,14 @@
         <v>595.5</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>594</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4947,20 +4301,14 @@
         <v>595.4</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>596</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4988,20 +4336,14 @@
         <v>595.3166666666667</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>597</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5029,20 +4371,14 @@
         <v>595.2666666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>596</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5070,20 +4406,14 @@
         <v>595.2</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>596</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5111,20 +4441,14 @@
         <v>595.0833333333334</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>595</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5152,20 +4476,14 @@
         <v>594.8666666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>595</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5193,20 +4511,14 @@
         <v>594.95</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>596</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5234,20 +4546,14 @@
         <v>594.85</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>593</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5275,20 +4581,14 @@
         <v>594.5833333333334</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>592</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5316,20 +4616,14 @@
         <v>594.3666666666667</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>589</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5357,20 +4651,14 @@
         <v>594.1333333333333</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>585</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5398,20 +4686,14 @@
         <v>593.9166666666666</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>588</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5439,20 +4721,14 @@
         <v>593.65</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>584</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5480,20 +4756,14 @@
         <v>593.4166666666666</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>587</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5521,20 +4791,14 @@
         <v>593.25</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>591</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5562,20 +4826,14 @@
         <v>593.1166666666667</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>591</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5603,20 +4861,14 @@
         <v>592.9166666666666</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>590</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5644,20 +4896,14 @@
         <v>592.95</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>591</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5685,20 +4931,14 @@
         <v>592.8333333333334</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>593</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5726,20 +4966,14 @@
         <v>592.75</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>589</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5767,20 +5001,14 @@
         <v>592.7666666666667</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>593</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5808,20 +5036,14 @@
         <v>592.6333333333333</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>592</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5849,20 +5071,14 @@
         <v>592.5333333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>591</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5890,20 +5106,14 @@
         <v>592.4</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>593</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5931,20 +5141,14 @@
         <v>592.4166666666666</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>591</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5972,20 +5176,14 @@
         <v>592.2833333333333</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>592</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6013,20 +5211,14 @@
         <v>592.25</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>590</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6054,20 +5246,14 @@
         <v>592.2833333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>593</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6095,20 +5281,14 @@
         <v>592.3333333333334</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>594</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6136,20 +5316,14 @@
         <v>592.3833333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>592</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6177,20 +5351,14 @@
         <v>592.45</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>593</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6218,20 +5386,14 @@
         <v>592.5333333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>595</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6259,20 +5421,14 @@
         <v>592.6666666666666</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>595</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6300,20 +5456,14 @@
         <v>592.8</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>598</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6341,20 +5491,14 @@
         <v>592.9833333333333</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>600</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6382,20 +5526,14 @@
         <v>593.2</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>602</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6423,20 +5561,14 @@
         <v>593.2833333333333</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>598</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6464,20 +5596,14 @@
         <v>593.4</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>604</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6505,20 +5631,14 @@
         <v>593.5333333333333</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>600</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6546,20 +5666,14 @@
         <v>593.7333333333333</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>601</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6587,20 +5701,14 @@
         <v>593.8666666666667</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>601</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6628,20 +5736,14 @@
         <v>594.0666666666667</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>602</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6669,20 +5771,14 @@
         <v>594.1666666666666</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>606</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6710,20 +5806,14 @@
         <v>594.3</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>602</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6751,20 +5841,14 @@
         <v>594.4333333333333</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>604</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6792,20 +5876,14 @@
         <v>594.6</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>604</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6833,20 +5911,14 @@
         <v>594.7333333333333</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>604</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6881,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6920,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6959,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6998,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7037,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7076,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7115,11 +6163,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7154,11 +6198,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7193,11 +6233,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7232,11 +6268,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7271,11 +6303,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7310,11 +6338,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7349,11 +6373,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7388,11 +6408,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7427,11 +6443,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7466,11 +6478,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7505,11 +6513,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7544,11 +6548,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7583,11 +6583,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7622,11 +6618,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7661,11 +6653,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7700,11 +6688,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7739,11 +6723,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7778,11 +6758,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7817,11 +6793,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7856,11 +6828,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7895,11 +6863,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7934,11 +6898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7973,11 +6933,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8012,11 +6968,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8051,11 +7003,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8090,11 +7038,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8129,11 +7073,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8168,11 +7108,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8207,11 +7143,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8246,11 +7178,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8285,11 +7213,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8324,11 +7248,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8363,11 +7283,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8402,11 +7318,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8441,11 +7353,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8480,11 +7388,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8519,11 +7423,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8558,11 +7458,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8597,11 +7493,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8636,11 +7528,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8675,11 +7563,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8714,11 +7598,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8753,11 +7633,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8792,11 +7668,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8831,11 +7703,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8870,11 +7738,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8909,11 +7773,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8948,11 +7808,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8987,11 +7843,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -9026,11 +7878,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -9061,15 +7909,11 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9100,15 +7944,11 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9139,15 +7979,11 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9182,12 +8018,10 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9250,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
@@ -9285,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
@@ -9320,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
@@ -25032,14 +23866,20 @@
         <v>611.4666666666667</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
       </c>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>602</v>
+      </c>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -25074,7 +23914,11 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -25109,7 +23953,11 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -25144,7 +23992,11 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -25179,7 +24031,11 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -25207,14 +24063,20 @@
         <v>609.2833333333333</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
       </c>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>598</v>
+      </c>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -25242,14 +24104,20 @@
         <v>608.9666666666667</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
       </c>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>602</v>
+      </c>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -25277,14 +24145,20 @@
         <v>608.5333333333333</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
       </c>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>600</v>
+      </c>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -25312,14 +24186,20 @@
         <v>608.25</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
       </c>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>599</v>
+      </c>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -25347,14 +24227,20 @@
         <v>608</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
       </c>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>603</v>
+      </c>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -25389,7 +24275,11 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -25424,7 +24314,11 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -25459,7 +24353,11 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -25494,7 +24392,11 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -25529,7 +24431,11 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -25564,7 +24470,11 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -25599,7 +24509,11 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -25634,7 +24548,11 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -25669,7 +24587,11 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -25704,7 +24626,11 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -25739,7 +24665,11 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -25774,7 +24704,11 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -25809,7 +24743,11 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -25844,7 +24782,11 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -25879,7 +24821,11 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -25914,7 +24860,11 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-12 BackTest PPT.xlsx
+++ b/BackTest/2019-10-12 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>20222.1820423</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>21270.3820423</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>588</v>
@@ -523,7 +523,7 @@
         <v>19511.3820423</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>593</v>
@@ -562,7 +562,7 @@
         <v>19511.3820423</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>588</v>
@@ -601,7 +601,7 @@
         <v>20333.0944423</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>588</v>
@@ -640,7 +640,7 @@
         <v>20030.7334423</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>592</v>
@@ -679,7 +679,7 @@
         <v>19410.5444423</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>590</v>
@@ -718,7 +718,7 @@
         <v>22503.51726048</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>588</v>
@@ -757,9 +757,11 @@
         <v>23363.94696048</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>592</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -794,9 +796,11 @@
         <v>21157.82346048</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>593</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -905,9 +909,11 @@
         <v>29276.55641541</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>597</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -942,9 +948,11 @@
         <v>29275.55641541</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>598</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -10414,16 +10422,18 @@
         <v>61846.04764238002</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L271" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
       <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
@@ -10449,11 +10459,15 @@
         <v>73865.70902273002</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10482,11 +10496,15 @@
         <v>68516.59012273002</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10515,11 +10533,15 @@
         <v>70617.44872273003</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10548,11 +10570,15 @@
         <v>49263.66982273002</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10581,11 +10607,15 @@
         <v>63846.10180193002</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10614,11 +10644,15 @@
         <v>73375.55980193002</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10647,11 +10681,15 @@
         <v>71771.96790193002</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10680,11 +10718,15 @@
         <v>95721.07739537003</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10713,11 +10755,15 @@
         <v>124042.79615854</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10746,11 +10792,15 @@
         <v>113371.29475854</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10779,11 +10829,15 @@
         <v>113371.29475854</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10812,11 +10866,15 @@
         <v>115297.22895854</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10845,11 +10903,15 @@
         <v>116242.74495854</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10878,11 +10940,15 @@
         <v>80104.78245854005</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10911,11 +10977,15 @@
         <v>83186.66363469005</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10944,11 +11014,15 @@
         <v>86064.01263469005</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10977,11 +11051,15 @@
         <v>86064.01263469005</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11010,11 +11088,15 @@
         <v>86064.01263469005</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11043,11 +11125,15 @@
         <v>57674.07633469005</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11080,7 +11166,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11109,11 +11199,15 @@
         <v>83339.70713469005</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11142,14 +11236,16 @@
         <v>91720.37673244005</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
@@ -11175,7 +11271,7 @@
         <v>91398.89492427005</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11208,7 +11304,7 @@
         <v>85832.56052427005</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11241,7 +11337,7 @@
         <v>85782.56052427005</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11274,7 +11370,7 @@
         <v>81146.70052427005</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11307,7 +11403,7 @@
         <v>82529.21832427006</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11340,7 +11436,7 @@
         <v>80452.80352427006</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11373,7 +11469,7 @@
         <v>82455.22512427006</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11406,7 +11502,7 @@
         <v>83626.66542427006</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11439,7 +11535,7 @@
         <v>83626.66542427006</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11472,7 +11568,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11505,7 +11601,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11538,7 +11634,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11571,7 +11667,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11604,7 +11700,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11637,7 +11733,7 @@
         <v>82393.54087352006</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11670,7 +11766,7 @@
         <v>81445.54087352006</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11769,7 +11865,7 @@
         <v>84920.95097352007</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11835,7 +11931,7 @@
         <v>85838.94547352007</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12165,7 +12261,7 @@
         <v>63013.92127352008</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12198,7 +12294,7 @@
         <v>63013.92127352008</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12231,7 +12327,7 @@
         <v>55711.38337352008</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12264,7 +12360,7 @@
         <v>55711.38337352008</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12297,7 +12393,7 @@
         <v>55711.38337352008</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12330,7 +12426,7 @@
         <v>55711.38337352008</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12363,7 +12459,7 @@
         <v>55711.38337352008</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12396,7 +12492,7 @@
         <v>54878.68827352008</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12429,7 +12525,7 @@
         <v>54878.68827352008</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12495,7 +12591,7 @@
         <v>54878.68827352008</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12528,7 +12624,7 @@
         <v>62271.90217352008</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12561,7 +12657,7 @@
         <v>62271.90217352008</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12594,7 +12690,7 @@
         <v>62271.90217352008</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12627,7 +12723,7 @@
         <v>59301.23477352008</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12660,7 +12756,7 @@
         <v>59301.23477352008</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12693,7 +12789,7 @@
         <v>57066.52357352008</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12726,7 +12822,7 @@
         <v>55497.52357352008</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12759,7 +12855,7 @@
         <v>42208.23617352008</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12792,7 +12888,7 @@
         <v>42208.23617352008</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12825,7 +12921,7 @@
         <v>42355.91687352008</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12858,7 +12954,7 @@
         <v>49774.51227352008</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12891,7 +12987,7 @@
         <v>45122.54967352008</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12924,7 +13020,7 @@
         <v>45273.60707352008</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12957,7 +13053,7 @@
         <v>44628.33077352008</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12990,7 +13086,7 @@
         <v>45462.75987352008</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13023,7 +13119,7 @@
         <v>45523.84619570008</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13056,7 +13152,7 @@
         <v>43833.58919570009</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13089,7 +13185,7 @@
         <v>43694.10359570009</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13122,7 +13218,7 @@
         <v>40625.48569570009</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13155,7 +13251,7 @@
         <v>42688.45969570009</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13188,7 +13284,7 @@
         <v>43621.15609570009</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13221,7 +13317,7 @@
         <v>43894.93559570009</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13254,7 +13350,7 @@
         <v>38851.01909570009</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13287,7 +13383,7 @@
         <v>44717.62359570009</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13320,7 +13416,7 @@
         <v>48020.56749570009</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13353,7 +13449,7 @@
         <v>50749.94829570009</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13386,7 +13482,7 @@
         <v>50578.94829570009</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13419,7 +13515,7 @@
         <v>50578.94829570009</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13452,7 +13548,7 @@
         <v>50578.94829570009</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13485,7 +13581,7 @@
         <v>48411.54829570009</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13518,7 +13614,7 @@
         <v>46633.40149570008</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13551,7 +13647,7 @@
         <v>46633.40149570008</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13584,7 +13680,7 @@
         <v>45789.75059570008</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13617,7 +13713,7 @@
         <v>46871.75509570009</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13650,7 +13746,7 @@
         <v>42967.12069570008</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13683,7 +13779,7 @@
         <v>42968.12069570008</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13716,7 +13812,7 @@
         <v>40539.94092572008</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13749,7 +13845,7 @@
         <v>42342.95645574008</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13782,7 +13878,7 @@
         <v>42342.95645574008</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13815,7 +13911,7 @@
         <v>43089.95645574008</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13848,7 +13944,7 @@
         <v>43089.95645574008</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13881,7 +13977,7 @@
         <v>43884.66915574008</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13914,7 +14010,7 @@
         <v>43418.20075574008</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13947,7 +14043,7 @@
         <v>43418.20075574008</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13980,7 +14076,7 @@
         <v>43418.20075574008</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14013,7 +14109,7 @@
         <v>45079.54435574008</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14046,7 +14142,7 @@
         <v>45079.54435574008</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14079,7 +14175,7 @@
         <v>44301.19655574008</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14112,7 +14208,7 @@
         <v>44301.19655574008</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14145,7 +14241,7 @@
         <v>44305.87655574008</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14178,7 +14274,7 @@
         <v>44061.87665574007</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14211,7 +14307,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14244,7 +14340,7 @@
         <v>40007.87675574007</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14277,7 +14373,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14310,7 +14406,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14343,7 +14439,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14376,7 +14472,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14409,7 +14505,7 @@
         <v>24632.21775574007</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14442,7 +14538,7 @@
         <v>26550.76495574007</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14475,7 +14571,7 @@
         <v>26245.94555574007</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14508,7 +14604,7 @@
         <v>26250.94555574007</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14541,7 +14637,7 @@
         <v>26250.94555574007</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14574,7 +14670,7 @@
         <v>26250.94555574007</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14607,7 +14703,7 @@
         <v>26228.68425574007</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14640,7 +14736,7 @@
         <v>26228.68425574007</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14673,7 +14769,7 @@
         <v>27694.49635574007</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14706,7 +14802,7 @@
         <v>27694.49635574007</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14739,7 +14835,7 @@
         <v>27694.49635574007</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14772,7 +14868,7 @@
         <v>29311.44015574007</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14805,7 +14901,7 @@
         <v>29592.11275574008</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14838,7 +14934,7 @@
         <v>29592.11275574008</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14871,7 +14967,7 @@
         <v>28230.05275574007</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14904,7 +15000,7 @@
         <v>27228.31615574007</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14937,7 +15033,7 @@
         <v>26165.83245574007</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14970,7 +15066,7 @@
         <v>26165.83245574007</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15003,7 +15099,7 @@
         <v>26165.83245574007</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15036,7 +15132,7 @@
         <v>26165.83245574007</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15069,7 +15165,7 @@
         <v>23521.91845574007</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15102,7 +15198,7 @@
         <v>23521.91845574007</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15135,7 +15231,7 @@
         <v>23651.41114062007</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15168,7 +15264,7 @@
         <v>21794.78614062007</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15201,7 +15297,7 @@
         <v>11674.15504062007</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15234,7 +15330,7 @@
         <v>5249.353340620071</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15267,7 +15363,7 @@
         <v>5940.271440620071</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15300,7 +15396,7 @@
         <v>6513.855140620071</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15333,7 +15429,7 @@
         <v>6513.855140620071</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15366,7 +15462,7 @@
         <v>8088.927840620071</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15399,7 +15495,7 @@
         <v>8088.927840620071</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15432,7 +15528,7 @@
         <v>5142.476340620071</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15465,7 +15561,7 @@
         <v>6066.466340620071</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15498,7 +15594,7 @@
         <v>6216.466340620071</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15531,7 +15627,7 @@
         <v>7094.86634062007</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15564,7 +15660,7 @@
         <v>7049.38644062007</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15597,7 +15693,7 @@
         <v>6541.70574062007</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15630,7 +15726,7 @@
         <v>6700.46574062007</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15663,7 +15759,7 @@
         <v>6700.46574062007</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15696,7 +15792,7 @@
         <v>6700.46574062007</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15729,7 +15825,7 @@
         <v>6700.46574062007</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15762,7 +15858,7 @@
         <v>6700.46574062007</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15795,7 +15891,7 @@
         <v>6700.46574062007</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15828,7 +15924,7 @@
         <v>4962.214540620071</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15861,7 +15957,7 @@
         <v>5030.296040620071</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15894,7 +15990,7 @@
         <v>9220.592840620071</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15927,7 +16023,7 @@
         <v>9220.592840620071</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15960,7 +16056,7 @@
         <v>9220.592840620071</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15993,7 +16089,7 @@
         <v>9220.592840620071</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16026,7 +16122,7 @@
         <v>9238.486940620071</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16059,7 +16155,7 @@
         <v>9238.486940620071</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16092,7 +16188,7 @@
         <v>8521.48084062007</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16125,7 +16221,7 @@
         <v>8521.48084062007</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16158,7 +16254,7 @@
         <v>8521.48084062007</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16191,7 +16287,7 @@
         <v>8521.48084062007</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16224,7 +16320,7 @@
         <v>8195.463440620069</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16257,7 +16353,7 @@
         <v>4224.609040620069</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16290,7 +16386,7 @@
         <v>3969.809040620069</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16323,7 +16419,7 @@
         <v>1140.597540620069</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16356,7 +16452,7 @@
         <v>5446.201640620069</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16389,7 +16485,7 @@
         <v>5096.266640620069</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16422,7 +16518,7 @@
         <v>6315.488240620069</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16455,7 +16551,7 @@
         <v>6315.488240620069</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16488,7 +16584,7 @@
         <v>5840.974440620069</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16521,7 +16617,7 @@
         <v>5444.274440620069</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16554,7 +16650,7 @@
         <v>5444.274440620069</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16587,7 +16683,7 @@
         <v>5593.353540620069</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16620,7 +16716,7 @@
         <v>5593.353540620069</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16653,7 +16749,7 @@
         <v>4980.263240620069</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16686,7 +16782,7 @@
         <v>4980.263240620069</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16719,7 +16815,7 @@
         <v>4980.263240620069</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16752,7 +16848,7 @@
         <v>4980.263240620069</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16785,7 +16881,7 @@
         <v>4980.263240620069</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16818,7 +16914,7 @@
         <v>9474.95944062007</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16851,7 +16947,7 @@
         <v>6975.23394062007</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16884,7 +16980,7 @@
         <v>7341.48714062007</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16917,7 +17013,7 @@
         <v>6421.70214062007</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16950,7 +17046,7 @@
         <v>6421.70214062007</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16983,7 +17079,7 @@
         <v>6421.70214062007</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17016,7 +17112,7 @@
         <v>6178.94134062007</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17049,7 +17145,7 @@
         <v>3646.64404062007</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17082,7 +17178,7 @@
         <v>3646.64404062007</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17115,7 +17211,7 @@
         <v>-351.2922593799299</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17148,7 +17244,7 @@
         <v>-223.3942593799299</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17181,7 +17277,7 @@
         <v>-950.2416593799298</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17214,7 +17310,7 @@
         <v>-13168.90075937993</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17247,7 +17343,7 @@
         <v>-4690.433159379931</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17280,7 +17376,7 @@
         <v>-5116.70325937993</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17313,7 +17409,7 @@
         <v>-5912.02165937993</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17346,7 +17442,7 @@
         <v>-5661.744259379931</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17379,7 +17475,7 @@
         <v>-8733.95875937993</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17412,7 +17508,7 @@
         <v>-8233.93995937993</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17445,7 +17541,7 @@
         <v>-6605.34885937993</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17478,7 +17574,7 @@
         <v>-6605.34885937993</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17511,7 +17607,7 @@
         <v>-6605.34885937993</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17544,7 +17640,7 @@
         <v>-6605.34885937993</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17577,7 +17673,7 @@
         <v>-6490.88595937993</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17610,7 +17706,7 @@
         <v>-6570.34145937993</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17643,7 +17739,7 @@
         <v>-6719.04785937993</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17676,7 +17772,7 @@
         <v>-6719.04785937993</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17742,7 +17838,7 @@
         <v>-9074.63385937993</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17775,7 +17871,7 @@
         <v>-8282.73495937993</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17808,7 +17904,7 @@
         <v>-13602.75915937993</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17841,7 +17937,7 @@
         <v>-13208.75915937993</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17874,7 +17970,7 @@
         <v>-20470.24025937993</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17907,7 +18003,7 @@
         <v>-20470.24025937993</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17940,7 +18036,7 @@
         <v>-20470.24025937993</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18039,7 +18135,7 @@
         <v>-19172.05715937993</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18072,7 +18168,7 @@
         <v>-19172.05715937993</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18105,7 +18201,7 @@
         <v>-19103.35165937993</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18138,7 +18234,7 @@
         <v>-21680.35165937993</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18765,7 +18861,7 @@
         <v>2554.041546260064</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18798,7 +18894,7 @@
         <v>2209.995046260064</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18831,7 +18927,7 @@
         <v>2320.779546260064</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18864,7 +18960,7 @@
         <v>6169.072046260064</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18897,7 +18993,7 @@
         <v>2915.626246260064</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18930,7 +19026,7 @@
         <v>3702.385146260064</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18963,7 +19059,7 @@
         <v>3700.255146260064</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18996,7 +19092,7 @@
         <v>3512.164946260064</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19029,7 +19125,7 @@
         <v>-10743.68245373994</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19062,7 +19158,7 @@
         <v>-10086.68245373994</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19095,7 +19191,7 @@
         <v>-12191.66215373994</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19128,7 +19224,7 @@
         <v>-15907.67315373994</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19161,7 +19257,7 @@
         <v>-15104.71315373994</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -21636,7 +21732,7 @@
         <v>-68693.75652699992</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22032,7 +22128,7 @@
         <v>-71402.88562699991</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22098,7 +22194,7 @@
         <v>-71434.79502699991</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22131,7 +22227,7 @@
         <v>-71434.79502699991</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22395,7 +22491,7 @@
         <v>-74128.25252699992</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -26729,6 +26825,6 @@
       <c r="M765" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-12 BackTest PPT.xlsx
+++ b/BackTest/2019-10-12 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>20222.1820423</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>21270.3820423</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>19511.3820423</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>19511.3820423</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>20333.0944423</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>20030.7334423</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>592</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>19410.5444423</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>22503.51726048</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>23363.94696048</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>592</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>21157.82346048</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -839,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -876,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -909,17 +847,11 @@
         <v>29276.55641541</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -948,17 +880,11 @@
         <v>29275.55641541</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1028,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1065,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1102,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1139,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1176,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1213,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1250,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1287,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1324,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1361,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1398,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1435,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1472,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1509,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1546,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1583,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1620,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1657,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1694,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1731,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1768,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1805,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1842,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1879,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1916,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1953,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1990,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2027,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2064,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2138,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2175,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2212,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2249,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2286,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2323,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2360,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2397,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2434,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2471,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2508,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2545,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2582,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2619,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2656,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2693,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2730,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2767,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2804,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2841,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2878,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2915,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2952,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2989,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3026,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3063,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3100,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3137,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3174,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3211,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3248,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3285,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3359,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3396,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3433,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3470,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3507,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3544,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3581,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3618,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3655,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3692,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3729,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3766,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3803,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3840,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3877,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3914,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3951,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3988,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4025,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4062,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4099,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4136,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4173,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4210,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4247,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4284,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4321,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4358,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4395,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4432,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4469,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4506,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4580,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4617,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4654,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4691,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4728,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4765,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4802,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4839,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4876,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4913,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4950,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4987,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5024,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5061,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5098,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5135,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5172,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5209,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5246,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5283,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5320,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5357,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5394,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5431,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5468,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5505,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5542,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5579,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5616,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5653,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5690,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5727,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5801,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5838,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5875,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5912,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5949,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5986,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6023,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6060,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6097,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6134,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6171,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6208,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6245,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6282,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6319,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6356,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6393,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6430,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6467,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6504,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6541,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6578,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6615,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6652,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6689,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6726,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6763,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6800,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6837,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6874,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6911,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6948,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7022,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7059,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7096,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7133,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7170,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7207,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7244,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7281,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7318,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7355,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7392,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7429,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7466,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7503,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7540,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7577,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7614,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7651,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7688,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7725,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7762,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7799,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7836,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7873,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7910,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7947,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7984,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8021,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8058,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8095,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8132,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8169,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8243,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8280,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8317,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8354,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8391,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8428,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8465,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8502,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8539,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8576,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8613,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8650,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8687,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8724,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8761,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8798,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8835,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8872,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8909,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8946,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8983,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9020,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9057,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9094,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9131,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9168,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9205,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9242,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9279,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9316,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9353,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9390,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9464,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9501,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9538,11 +8540,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9575,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9612,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9649,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9686,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9723,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9760,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9797,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9834,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9871,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9908,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9945,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9982,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10019,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10056,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10093,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10130,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10167,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10204,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10241,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10278,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10315,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10352,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10389,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10426,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10463,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10500,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10537,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10574,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10611,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10685,11 +9563,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10722,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10759,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10796,11 +9662,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10833,11 +9695,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10870,11 +9728,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10907,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10944,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10981,11 +9827,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11014,15 +9856,11 @@
         <v>86064.01263469005</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11055,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11092,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11129,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11166,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11203,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11236,16 +10054,14 @@
         <v>91720.37673244005</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
       <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
@@ -11271,7 +10087,7 @@
         <v>91398.89492427005</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11304,7 +10120,7 @@
         <v>85832.56052427005</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11337,7 +10153,7 @@
         <v>85782.56052427005</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11370,7 +10186,7 @@
         <v>81146.70052427005</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11403,7 +10219,7 @@
         <v>82529.21832427006</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11436,7 +10252,7 @@
         <v>80452.80352427006</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11799,7 +10615,7 @@
         <v>81445.54087352006</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11832,7 +10648,7 @@
         <v>81751.17887352007</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11931,7 +10747,7 @@
         <v>85838.94547352007</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11997,7 +10813,7 @@
         <v>84113.78537352008</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12261,7 +11077,7 @@
         <v>63013.92127352008</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12294,7 +11110,7 @@
         <v>63013.92127352008</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12327,7 +11143,7 @@
         <v>55711.38337352008</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12360,7 +11176,7 @@
         <v>55711.38337352008</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12393,7 +11209,7 @@
         <v>55711.38337352008</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12426,7 +11242,7 @@
         <v>55711.38337352008</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12459,7 +11275,7 @@
         <v>55711.38337352008</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12492,7 +11308,7 @@
         <v>54878.68827352008</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12525,7 +11341,7 @@
         <v>54878.68827352008</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12591,7 +11407,7 @@
         <v>54878.68827352008</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12624,7 +11440,7 @@
         <v>62271.90217352008</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12657,7 +11473,7 @@
         <v>62271.90217352008</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12690,7 +11506,7 @@
         <v>62271.90217352008</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12723,7 +11539,7 @@
         <v>59301.23477352008</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12756,7 +11572,7 @@
         <v>59301.23477352008</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12789,7 +11605,7 @@
         <v>57066.52357352008</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12822,7 +11638,7 @@
         <v>55497.52357352008</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12855,7 +11671,7 @@
         <v>42208.23617352008</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12888,7 +11704,7 @@
         <v>42208.23617352008</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12921,7 +11737,7 @@
         <v>42355.91687352008</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12954,7 +11770,7 @@
         <v>49774.51227352008</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12987,7 +11803,7 @@
         <v>45122.54967352008</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13020,7 +11836,7 @@
         <v>45273.60707352008</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13053,7 +11869,7 @@
         <v>44628.33077352008</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13086,7 +11902,7 @@
         <v>45462.75987352008</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13119,7 +11935,7 @@
         <v>45523.84619570008</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13152,7 +11968,7 @@
         <v>43833.58919570009</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13185,7 +12001,7 @@
         <v>43694.10359570009</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13218,7 +12034,7 @@
         <v>40625.48569570009</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13251,7 +12067,7 @@
         <v>42688.45969570009</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13284,7 +12100,7 @@
         <v>43621.15609570009</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13317,7 +12133,7 @@
         <v>43894.93559570009</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13350,7 +12166,7 @@
         <v>38851.01909570009</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13383,7 +12199,7 @@
         <v>44717.62359570009</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13416,7 +12232,7 @@
         <v>48020.56749570009</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13449,7 +12265,7 @@
         <v>50749.94829570009</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13482,7 +12298,7 @@
         <v>50578.94829570009</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13515,7 +12331,7 @@
         <v>50578.94829570009</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13548,7 +12364,7 @@
         <v>50578.94829570009</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13581,7 +12397,7 @@
         <v>48411.54829570009</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13614,7 +12430,7 @@
         <v>46633.40149570008</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13647,7 +12463,7 @@
         <v>46633.40149570008</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13680,7 +12496,7 @@
         <v>45789.75059570008</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13713,7 +12529,7 @@
         <v>46871.75509570009</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13746,7 +12562,7 @@
         <v>42967.12069570008</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13779,7 +12595,7 @@
         <v>42968.12069570008</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13812,7 +12628,7 @@
         <v>40539.94092572008</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13845,7 +12661,7 @@
         <v>42342.95645574008</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13878,7 +12694,7 @@
         <v>42342.95645574008</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13911,7 +12727,7 @@
         <v>43089.95645574008</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13944,7 +12760,7 @@
         <v>43089.95645574008</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13977,7 +12793,7 @@
         <v>43884.66915574008</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14010,7 +12826,7 @@
         <v>43418.20075574008</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14043,7 +12859,7 @@
         <v>43418.20075574008</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14076,7 +12892,7 @@
         <v>43418.20075574008</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14109,7 +12925,7 @@
         <v>45079.54435574008</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14142,7 +12958,7 @@
         <v>45079.54435574008</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14175,7 +12991,7 @@
         <v>44301.19655574008</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14208,7 +13024,7 @@
         <v>44301.19655574008</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14241,7 +13057,7 @@
         <v>44305.87655574008</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14274,7 +13090,7 @@
         <v>44061.87665574007</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14307,7 +13123,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14340,7 +13156,7 @@
         <v>40007.87675574007</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14373,7 +13189,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14406,7 +13222,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14439,7 +13255,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14472,7 +13288,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14505,7 +13321,7 @@
         <v>24632.21775574007</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14538,7 +13354,7 @@
         <v>26550.76495574007</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14571,7 +13387,7 @@
         <v>26245.94555574007</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14604,7 +13420,7 @@
         <v>26250.94555574007</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14637,7 +13453,7 @@
         <v>26250.94555574007</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14670,7 +13486,7 @@
         <v>26250.94555574007</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14703,7 +13519,7 @@
         <v>26228.68425574007</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14736,7 +13552,7 @@
         <v>26228.68425574007</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14769,7 +13585,7 @@
         <v>27694.49635574007</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14802,7 +13618,7 @@
         <v>27694.49635574007</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14835,7 +13651,7 @@
         <v>27694.49635574007</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14868,7 +13684,7 @@
         <v>29311.44015574007</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14901,7 +13717,7 @@
         <v>29592.11275574008</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14934,7 +13750,7 @@
         <v>29592.11275574008</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14967,7 +13783,7 @@
         <v>28230.05275574007</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15000,7 +13816,7 @@
         <v>27228.31615574007</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15033,7 +13849,7 @@
         <v>26165.83245574007</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15066,7 +13882,7 @@
         <v>26165.83245574007</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15099,7 +13915,7 @@
         <v>26165.83245574007</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15132,7 +13948,7 @@
         <v>26165.83245574007</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15165,7 +13981,7 @@
         <v>23521.91845574007</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15198,7 +14014,7 @@
         <v>23521.91845574007</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15231,7 +14047,7 @@
         <v>23651.41114062007</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15264,7 +14080,7 @@
         <v>21794.78614062007</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15297,7 +14113,7 @@
         <v>11674.15504062007</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15330,7 +14146,7 @@
         <v>5249.353340620071</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15363,7 +14179,7 @@
         <v>5940.271440620071</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15396,7 +14212,7 @@
         <v>6513.855140620071</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15429,7 +14245,7 @@
         <v>6513.855140620071</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15462,7 +14278,7 @@
         <v>8088.927840620071</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15495,7 +14311,7 @@
         <v>8088.927840620071</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15528,7 +14344,7 @@
         <v>5142.476340620071</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15561,7 +14377,7 @@
         <v>6066.466340620071</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15594,7 +14410,7 @@
         <v>6216.466340620071</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15627,7 +14443,7 @@
         <v>7094.86634062007</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15660,7 +14476,7 @@
         <v>7049.38644062007</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15693,7 +14509,7 @@
         <v>6541.70574062007</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15726,7 +14542,7 @@
         <v>6700.46574062007</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15759,7 +14575,7 @@
         <v>6700.46574062007</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15792,7 +14608,7 @@
         <v>6700.46574062007</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15825,7 +14641,7 @@
         <v>6700.46574062007</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -24438,11 +23254,17 @@
         <v>-135752.8905313999</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>611</v>
+      </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24471,11 +23293,17 @@
         <v>-135751.8905313999</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>610</v>
+      </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24508,7 +23336,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24537,11 +23369,17 @@
         <v>-136241.0058313999</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>611</v>
+      </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24570,11 +23408,17 @@
         <v>-136241.0058313999</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>610</v>
+      </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24603,11 +23447,17 @@
         <v>-136241.0058313999</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>610</v>
+      </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24636,11 +23486,17 @@
         <v>-135131.8055313999</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>610</v>
+      </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24669,11 +23525,17 @@
         <v>-135131.8055313999</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>612</v>
+      </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24702,11 +23564,17 @@
         <v>-135131.8055313999</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>612</v>
+      </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24735,11 +23603,17 @@
         <v>-132866.6687313999</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>612</v>
+      </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24772,7 +23646,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24805,7 +23683,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24838,7 +23720,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24867,11 +23753,17 @@
         <v>-132078.9150313999</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>615</v>
+      </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24904,7 +23796,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24933,11 +23829,17 @@
         <v>-144238.3915313999</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>611</v>
+      </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24970,7 +23872,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24999,11 +23905,17 @@
         <v>-125302.5214313999</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>616</v>
+      </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25036,7 +23948,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25065,11 +23981,17 @@
         <v>-115713.3360313999</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>612</v>
+      </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25102,7 +24024,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25135,7 +24061,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25164,11 +24094,17 @@
         <v>-131142.7317313999</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>606</v>
+      </c>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25197,11 +24133,17 @@
         <v>-131141.7317313999</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>606</v>
+      </c>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25230,11 +24172,17 @@
         <v>-131813.9987313999</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>610</v>
+      </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25263,11 +24211,17 @@
         <v>-131909.1154313999</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>606</v>
+      </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25296,11 +24250,17 @@
         <v>-134929.4943313999</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>605</v>
+      </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25329,11 +24289,17 @@
         <v>-138696.5423313999</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>604</v>
+      </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25362,11 +24328,17 @@
         <v>-138696.5423313999</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>601</v>
+      </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25399,7 +24371,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25428,11 +24404,17 @@
         <v>-152339.2566313999</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>594</v>
+      </c>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25461,11 +24443,17 @@
         <v>-152364.0706313999</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>594</v>
+      </c>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25494,11 +24482,17 @@
         <v>-141610.4953313999</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>593</v>
+      </c>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25527,11 +24521,17 @@
         <v>-135904.9373313999</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>594</v>
+      </c>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25560,11 +24560,17 @@
         <v>-132609.3915313999</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>598</v>
+      </c>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25593,11 +24599,17 @@
         <v>-141120.4032313999</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>607</v>
+      </c>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25626,11 +24638,17 @@
         <v>-135556.2905314</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>598</v>
+      </c>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25659,11 +24677,17 @@
         <v>-136504.8426314</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>602</v>
+      </c>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25692,11 +24716,17 @@
         <v>-141508.1252314</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>599</v>
+      </c>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25725,11 +24755,17 @@
         <v>-139217.9732314</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>598</v>
+      </c>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25758,11 +24794,17 @@
         <v>-139000.5943313999</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>599</v>
+      </c>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25791,11 +24833,17 @@
         <v>-139207.4222313999</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>601</v>
+      </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25824,11 +24872,17 @@
         <v>-138449.2827314</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>598</v>
+      </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25857,11 +24911,17 @@
         <v>-139059.2827314</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>602</v>
+      </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25890,11 +24950,17 @@
         <v>-139503.2827314</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>600</v>
+      </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25923,11 +24989,17 @@
         <v>-138313.0980313999</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>599</v>
+      </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25956,11 +25028,17 @@
         <v>-130956.8570314</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>603</v>
+      </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25989,11 +25067,17 @@
         <v>-130956.8570314</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>604</v>
+      </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26022,11 +25106,17 @@
         <v>-136185.7991314</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>604</v>
+      </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26055,11 +25145,17 @@
         <v>-137546.3465314</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>601</v>
+      </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26088,11 +25184,17 @@
         <v>-137546.3465314</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>600</v>
+      </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26121,11 +25223,17 @@
         <v>-137181.5444314</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>600</v>
+      </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26154,11 +25262,17 @@
         <v>-137181.5444314</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>607</v>
+      </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26187,11 +25301,17 @@
         <v>-136155.6680314</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>607</v>
+      </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26224,7 +25344,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26257,7 +25381,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26290,7 +25418,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26323,7 +25455,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26356,7 +25492,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26389,7 +25529,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26422,7 +25566,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26455,7 +25603,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26488,7 +25640,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26521,7 +25677,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26554,7 +25714,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26587,7 +25751,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26620,7 +25788,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26653,7 +25825,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26686,7 +25862,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26719,7 +25899,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26752,7 +25936,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26785,7 +25973,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26818,13 +26010,17 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
       <c r="M765" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-12 BackTest PPT.xlsx
+++ b/BackTest/2019-10-12 BackTest PPT.xlsx
@@ -9658,7 +9658,7 @@
         <v>113371.29475854</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>113371.29475854</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>86064.01263469005</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>82455.22512427006</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>83626.66542427006</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>83626.66542427006</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>82393.54087352006</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>81445.54087352006</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>81445.54087352006</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>81751.17887352007</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>84920.95097352007</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>84113.78537352008</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>61712.79377352008</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>63013.92127352008</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>54878.68827352008</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>62271.90217352008</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>62271.90217352008</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>62271.90217352008</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>59301.23477352008</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>59301.23477352008</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>57066.52357352008</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>55497.52357352008</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>42208.23617352008</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>42208.23617352008</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>42355.91687352008</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>49774.51227352008</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>45122.54967352008</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>45273.60707352008</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>44628.33077352008</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>45462.75987352008</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>45523.84619570008</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>43833.58919570009</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>43694.10359570009</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>50578.94829570009</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>50578.94829570009</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>48411.54829570009</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>46633.40149570008</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>46633.40149570008</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>45789.75059570008</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>46871.75509570009</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>42967.12069570008</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>42968.12069570008</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>40539.94092572008</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>42342.95645574008</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>42342.95645574008</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>43089.95645574008</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>43089.95645574008</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>43884.66915574008</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>43418.20075574008</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>43418.20075574008</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>43418.20075574008</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>45079.54435574008</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>45079.54435574008</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>44301.19655574008</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>44301.19655574008</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>44305.87655574008</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>44061.87665574007</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>40007.87675574007</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>24632.21775574007</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>26550.76495574007</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>29592.11275574008</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>28230.05275574007</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>27228.31615574007</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -23254,553 +23254,491 @@
         <v>-135752.8905313999</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
-      </c>
-      <c r="I693" t="n">
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
+      <c r="L693" t="n">
+        <v>1</v>
+      </c>
+      <c r="M693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="n">
+        <v>615</v>
+      </c>
+      <c r="C694" t="n">
+        <v>615</v>
+      </c>
+      <c r="D694" t="n">
+        <v>615</v>
+      </c>
+      <c r="E694" t="n">
+        <v>615</v>
+      </c>
+      <c r="F694" t="n">
+        <v>1</v>
+      </c>
+      <c r="G694" t="n">
+        <v>-135751.8905313999</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
+      <c r="L694" t="n">
+        <v>1</v>
+      </c>
+      <c r="M694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="n">
         <v>611</v>
       </c>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
+      <c r="C695" t="n">
+        <v>611</v>
+      </c>
+      <c r="D695" t="n">
+        <v>611</v>
+      </c>
+      <c r="E695" t="n">
+        <v>611</v>
+      </c>
+      <c r="F695" t="n">
+        <v>300</v>
+      </c>
+      <c r="G695" t="n">
+        <v>-136051.8905313999</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
+      <c r="L695" t="n">
+        <v>1</v>
+      </c>
+      <c r="M695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="n">
+        <v>611</v>
+      </c>
+      <c r="C696" t="n">
+        <v>610</v>
+      </c>
+      <c r="D696" t="n">
+        <v>612</v>
+      </c>
+      <c r="E696" t="n">
+        <v>603</v>
+      </c>
+      <c r="F696" t="n">
+        <v>189.1153</v>
+      </c>
+      <c r="G696" t="n">
+        <v>-136241.0058313999</v>
+      </c>
+      <c r="H696" t="n">
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
+      <c r="L696" t="n">
+        <v>1</v>
+      </c>
+      <c r="M696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="n">
+        <v>610</v>
+      </c>
+      <c r="C697" t="n">
+        <v>610</v>
+      </c>
+      <c r="D697" t="n">
+        <v>610</v>
+      </c>
+      <c r="E697" t="n">
+        <v>605</v>
+      </c>
+      <c r="F697" t="n">
+        <v>105.3765</v>
+      </c>
+      <c r="G697" t="n">
+        <v>-136241.0058313999</v>
+      </c>
+      <c r="H697" t="n">
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
+      <c r="L697" t="n">
+        <v>1</v>
+      </c>
+      <c r="M697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="n">
+        <v>610</v>
+      </c>
+      <c r="C698" t="n">
+        <v>610</v>
+      </c>
+      <c r="D698" t="n">
+        <v>610</v>
+      </c>
+      <c r="E698" t="n">
+        <v>610</v>
+      </c>
+      <c r="F698" t="n">
+        <v>963.9748</v>
+      </c>
+      <c r="G698" t="n">
+        <v>-136241.0058313999</v>
+      </c>
+      <c r="H698" t="n">
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
+      <c r="L698" t="n">
+        <v>1</v>
+      </c>
+      <c r="M698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="n">
+        <v>611</v>
+      </c>
+      <c r="C699" t="n">
+        <v>612</v>
+      </c>
+      <c r="D699" t="n">
+        <v>612</v>
+      </c>
+      <c r="E699" t="n">
+        <v>611</v>
+      </c>
+      <c r="F699" t="n">
+        <v>1109.2003</v>
+      </c>
+      <c r="G699" t="n">
+        <v>-135131.8055313999</v>
+      </c>
+      <c r="H699" t="n">
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
+      <c r="L699" t="n">
+        <v>1</v>
+      </c>
+      <c r="M699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="n">
+        <v>612</v>
+      </c>
+      <c r="C700" t="n">
+        <v>612</v>
+      </c>
+      <c r="D700" t="n">
+        <v>612</v>
+      </c>
+      <c r="E700" t="n">
+        <v>612</v>
+      </c>
+      <c r="F700" t="n">
+        <v>324</v>
+      </c>
+      <c r="G700" t="n">
+        <v>-135131.8055313999</v>
+      </c>
+      <c r="H700" t="n">
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
+      <c r="L700" t="n">
+        <v>1</v>
+      </c>
+      <c r="M700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="n">
+        <v>612</v>
+      </c>
+      <c r="C701" t="n">
+        <v>612</v>
+      </c>
+      <c r="D701" t="n">
+        <v>613</v>
+      </c>
+      <c r="E701" t="n">
+        <v>611</v>
+      </c>
+      <c r="F701" t="n">
+        <v>404.799</v>
+      </c>
+      <c r="G701" t="n">
+        <v>-135131.8055313999</v>
+      </c>
+      <c r="H701" t="n">
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
+      <c r="L701" t="n">
+        <v>1</v>
+      </c>
+      <c r="M701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="n">
+        <v>613</v>
+      </c>
+      <c r="C702" t="n">
+        <v>615</v>
+      </c>
+      <c r="D702" t="n">
+        <v>615</v>
+      </c>
+      <c r="E702" t="n">
+        <v>613</v>
+      </c>
+      <c r="F702" t="n">
+        <v>2265.1368</v>
+      </c>
+      <c r="G702" t="n">
+        <v>-132866.6687313999</v>
+      </c>
+      <c r="H702" t="n">
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
+      <c r="L702" t="n">
+        <v>1</v>
+      </c>
+      <c r="M702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="n">
+        <v>615</v>
+      </c>
+      <c r="C703" t="n">
+        <v>615</v>
+      </c>
+      <c r="D703" t="n">
+        <v>615</v>
+      </c>
+      <c r="E703" t="n">
+        <v>615</v>
+      </c>
+      <c r="F703" t="n">
+        <v>684.4071</v>
+      </c>
+      <c r="G703" t="n">
+        <v>-132866.6687313999</v>
+      </c>
+      <c r="H703" t="n">
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
+      <c r="L703" t="n">
+        <v>1</v>
+      </c>
+      <c r="M703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="n">
+        <v>615</v>
+      </c>
+      <c r="C704" t="n">
+        <v>615</v>
+      </c>
+      <c r="D704" t="n">
+        <v>615</v>
+      </c>
+      <c r="E704" t="n">
+        <v>615</v>
+      </c>
+      <c r="F704" t="n">
+        <v>80.5566</v>
+      </c>
+      <c r="G704" t="n">
+        <v>-132866.6687313999</v>
+      </c>
+      <c r="H704" t="n">
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
+      <c r="L704" t="n">
+        <v>1</v>
+      </c>
+      <c r="M704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="n">
+        <v>615</v>
+      </c>
+      <c r="C705" t="n">
+        <v>615</v>
+      </c>
+      <c r="D705" t="n">
+        <v>615</v>
+      </c>
+      <c r="E705" t="n">
+        <v>615</v>
+      </c>
+      <c r="F705" t="n">
+        <v>325.2278</v>
+      </c>
+      <c r="G705" t="n">
+        <v>-132866.6687313999</v>
+      </c>
+      <c r="H705" t="n">
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>615</v>
+      </c>
+      <c r="J705" t="n">
+        <v>615</v>
+      </c>
+      <c r="K705" t="inlineStr"/>
+      <c r="L705" t="n">
+        <v>1</v>
+      </c>
+      <c r="M705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="n">
+        <v>616</v>
+      </c>
+      <c r="C706" t="n">
+        <v>616</v>
+      </c>
+      <c r="D706" t="n">
+        <v>616</v>
+      </c>
+      <c r="E706" t="n">
+        <v>616</v>
+      </c>
+      <c r="F706" t="n">
+        <v>787.7537</v>
+      </c>
+      <c r="G706" t="n">
+        <v>-132078.9150313999</v>
+      </c>
+      <c r="H706" t="n">
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>615</v>
+      </c>
+      <c r="J706" t="n">
+        <v>615</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L706" t="n">
+        <v>1</v>
+      </c>
+      <c r="M706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="n">
+        <v>616</v>
+      </c>
+      <c r="C707" t="n">
+        <v>611</v>
+      </c>
+      <c r="D707" t="n">
+        <v>616</v>
+      </c>
+      <c r="E707" t="n">
+        <v>611</v>
+      </c>
+      <c r="F707" t="n">
+        <v>1286.1696</v>
+      </c>
+      <c r="G707" t="n">
+        <v>-133365.0846313999</v>
+      </c>
+      <c r="H707" t="n">
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>615</v>
+      </c>
+      <c r="K707" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L693" t="n">
-        <v>1</v>
-      </c>
-      <c r="M693" t="inlineStr"/>
-    </row>
-    <row r="694">
-      <c r="A694" s="1" t="n">
-        <v>692</v>
-      </c>
-      <c r="B694" t="n">
-        <v>615</v>
-      </c>
-      <c r="C694" t="n">
-        <v>615</v>
-      </c>
-      <c r="D694" t="n">
-        <v>615</v>
-      </c>
-      <c r="E694" t="n">
-        <v>615</v>
-      </c>
-      <c r="F694" t="n">
-        <v>1</v>
-      </c>
-      <c r="G694" t="n">
-        <v>-135751.8905313999</v>
-      </c>
-      <c r="H694" t="n">
-        <v>1</v>
-      </c>
-      <c r="I694" t="n">
-        <v>610</v>
-      </c>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L694" t="n">
-        <v>1</v>
-      </c>
-      <c r="M694" t="inlineStr"/>
-    </row>
-    <row r="695">
-      <c r="A695" s="1" t="n">
-        <v>693</v>
-      </c>
-      <c r="B695" t="n">
-        <v>611</v>
-      </c>
-      <c r="C695" t="n">
-        <v>611</v>
-      </c>
-      <c r="D695" t="n">
-        <v>611</v>
-      </c>
-      <c r="E695" t="n">
-        <v>611</v>
-      </c>
-      <c r="F695" t="n">
-        <v>300</v>
-      </c>
-      <c r="G695" t="n">
-        <v>-136051.8905313999</v>
-      </c>
-      <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L695" t="n">
-        <v>1</v>
-      </c>
-      <c r="M695" t="inlineStr"/>
-    </row>
-    <row r="696">
-      <c r="A696" s="1" t="n">
-        <v>694</v>
-      </c>
-      <c r="B696" t="n">
-        <v>611</v>
-      </c>
-      <c r="C696" t="n">
-        <v>610</v>
-      </c>
-      <c r="D696" t="n">
-        <v>612</v>
-      </c>
-      <c r="E696" t="n">
-        <v>603</v>
-      </c>
-      <c r="F696" t="n">
-        <v>189.1153</v>
-      </c>
-      <c r="G696" t="n">
-        <v>-136241.0058313999</v>
-      </c>
-      <c r="H696" t="n">
-        <v>1</v>
-      </c>
-      <c r="I696" t="n">
-        <v>611</v>
-      </c>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L696" t="n">
-        <v>1</v>
-      </c>
-      <c r="M696" t="inlineStr"/>
-    </row>
-    <row r="697">
-      <c r="A697" s="1" t="n">
-        <v>695</v>
-      </c>
-      <c r="B697" t="n">
-        <v>610</v>
-      </c>
-      <c r="C697" t="n">
-        <v>610</v>
-      </c>
-      <c r="D697" t="n">
-        <v>610</v>
-      </c>
-      <c r="E697" t="n">
-        <v>605</v>
-      </c>
-      <c r="F697" t="n">
-        <v>105.3765</v>
-      </c>
-      <c r="G697" t="n">
-        <v>-136241.0058313999</v>
-      </c>
-      <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>610</v>
-      </c>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L697" t="n">
-        <v>1</v>
-      </c>
-      <c r="M697" t="inlineStr"/>
-    </row>
-    <row r="698">
-      <c r="A698" s="1" t="n">
-        <v>696</v>
-      </c>
-      <c r="B698" t="n">
-        <v>610</v>
-      </c>
-      <c r="C698" t="n">
-        <v>610</v>
-      </c>
-      <c r="D698" t="n">
-        <v>610</v>
-      </c>
-      <c r="E698" t="n">
-        <v>610</v>
-      </c>
-      <c r="F698" t="n">
-        <v>963.9748</v>
-      </c>
-      <c r="G698" t="n">
-        <v>-136241.0058313999</v>
-      </c>
-      <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>610</v>
-      </c>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L698" t="n">
-        <v>1</v>
-      </c>
-      <c r="M698" t="inlineStr"/>
-    </row>
-    <row r="699">
-      <c r="A699" s="1" t="n">
-        <v>697</v>
-      </c>
-      <c r="B699" t="n">
-        <v>611</v>
-      </c>
-      <c r="C699" t="n">
-        <v>612</v>
-      </c>
-      <c r="D699" t="n">
-        <v>612</v>
-      </c>
-      <c r="E699" t="n">
-        <v>611</v>
-      </c>
-      <c r="F699" t="n">
-        <v>1109.2003</v>
-      </c>
-      <c r="G699" t="n">
-        <v>-135131.8055313999</v>
-      </c>
-      <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>610</v>
-      </c>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L699" t="n">
-        <v>1</v>
-      </c>
-      <c r="M699" t="inlineStr"/>
-    </row>
-    <row r="700">
-      <c r="A700" s="1" t="n">
-        <v>698</v>
-      </c>
-      <c r="B700" t="n">
-        <v>612</v>
-      </c>
-      <c r="C700" t="n">
-        <v>612</v>
-      </c>
-      <c r="D700" t="n">
-        <v>612</v>
-      </c>
-      <c r="E700" t="n">
-        <v>612</v>
-      </c>
-      <c r="F700" t="n">
-        <v>324</v>
-      </c>
-      <c r="G700" t="n">
-        <v>-135131.8055313999</v>
-      </c>
-      <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>612</v>
-      </c>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L700" t="n">
-        <v>1</v>
-      </c>
-      <c r="M700" t="inlineStr"/>
-    </row>
-    <row r="701">
-      <c r="A701" s="1" t="n">
-        <v>699</v>
-      </c>
-      <c r="B701" t="n">
-        <v>612</v>
-      </c>
-      <c r="C701" t="n">
-        <v>612</v>
-      </c>
-      <c r="D701" t="n">
-        <v>613</v>
-      </c>
-      <c r="E701" t="n">
-        <v>611</v>
-      </c>
-      <c r="F701" t="n">
-        <v>404.799</v>
-      </c>
-      <c r="G701" t="n">
-        <v>-135131.8055313999</v>
-      </c>
-      <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>612</v>
-      </c>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L701" t="n">
-        <v>1</v>
-      </c>
-      <c r="M701" t="inlineStr"/>
-    </row>
-    <row r="702">
-      <c r="A702" s="1" t="n">
-        <v>700</v>
-      </c>
-      <c r="B702" t="n">
-        <v>613</v>
-      </c>
-      <c r="C702" t="n">
-        <v>615</v>
-      </c>
-      <c r="D702" t="n">
-        <v>615</v>
-      </c>
-      <c r="E702" t="n">
-        <v>613</v>
-      </c>
-      <c r="F702" t="n">
-        <v>2265.1368</v>
-      </c>
-      <c r="G702" t="n">
-        <v>-132866.6687313999</v>
-      </c>
-      <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>612</v>
-      </c>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L702" t="n">
-        <v>1</v>
-      </c>
-      <c r="M702" t="inlineStr"/>
-    </row>
-    <row r="703">
-      <c r="A703" s="1" t="n">
-        <v>701</v>
-      </c>
-      <c r="B703" t="n">
-        <v>615</v>
-      </c>
-      <c r="C703" t="n">
-        <v>615</v>
-      </c>
-      <c r="D703" t="n">
-        <v>615</v>
-      </c>
-      <c r="E703" t="n">
-        <v>615</v>
-      </c>
-      <c r="F703" t="n">
-        <v>684.4071</v>
-      </c>
-      <c r="G703" t="n">
-        <v>-132866.6687313999</v>
-      </c>
-      <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L703" t="n">
-        <v>1</v>
-      </c>
-      <c r="M703" t="inlineStr"/>
-    </row>
-    <row r="704">
-      <c r="A704" s="1" t="n">
-        <v>702</v>
-      </c>
-      <c r="B704" t="n">
-        <v>615</v>
-      </c>
-      <c r="C704" t="n">
-        <v>615</v>
-      </c>
-      <c r="D704" t="n">
-        <v>615</v>
-      </c>
-      <c r="E704" t="n">
-        <v>615</v>
-      </c>
-      <c r="F704" t="n">
-        <v>80.5566</v>
-      </c>
-      <c r="G704" t="n">
-        <v>-132866.6687313999</v>
-      </c>
-      <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L704" t="n">
-        <v>1</v>
-      </c>
-      <c r="M704" t="inlineStr"/>
-    </row>
-    <row r="705">
-      <c r="A705" s="1" t="n">
-        <v>703</v>
-      </c>
-      <c r="B705" t="n">
-        <v>615</v>
-      </c>
-      <c r="C705" t="n">
-        <v>615</v>
-      </c>
-      <c r="D705" t="n">
-        <v>615</v>
-      </c>
-      <c r="E705" t="n">
-        <v>615</v>
-      </c>
-      <c r="F705" t="n">
-        <v>325.2278</v>
-      </c>
-      <c r="G705" t="n">
-        <v>-132866.6687313999</v>
-      </c>
-      <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L705" t="n">
-        <v>1</v>
-      </c>
-      <c r="M705" t="inlineStr"/>
-    </row>
-    <row r="706">
-      <c r="A706" s="1" t="n">
-        <v>704</v>
-      </c>
-      <c r="B706" t="n">
-        <v>616</v>
-      </c>
-      <c r="C706" t="n">
-        <v>616</v>
-      </c>
-      <c r="D706" t="n">
-        <v>616</v>
-      </c>
-      <c r="E706" t="n">
-        <v>616</v>
-      </c>
-      <c r="F706" t="n">
-        <v>787.7537</v>
-      </c>
-      <c r="G706" t="n">
-        <v>-132078.9150313999</v>
-      </c>
-      <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>615</v>
-      </c>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L706" t="n">
-        <v>1</v>
-      </c>
-      <c r="M706" t="inlineStr"/>
-    </row>
-    <row r="707">
-      <c r="A707" s="1" t="n">
-        <v>705</v>
-      </c>
-      <c r="B707" t="n">
-        <v>616</v>
-      </c>
-      <c r="C707" t="n">
-        <v>611</v>
-      </c>
-      <c r="D707" t="n">
-        <v>616</v>
-      </c>
-      <c r="E707" t="n">
-        <v>611</v>
-      </c>
-      <c r="F707" t="n">
-        <v>1286.1696</v>
-      </c>
-      <c r="G707" t="n">
-        <v>-133365.0846313999</v>
-      </c>
-      <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23834,7 +23772,9 @@
       <c r="I708" t="n">
         <v>611</v>
       </c>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>615</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23871,7 +23811,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>615</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23905,12 +23847,12 @@
         <v>-125302.5214313999</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>616</v>
-      </c>
-      <c r="J710" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>615</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23947,7 +23889,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>615</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23981,12 +23925,12 @@
         <v>-115713.3360313999</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>612</v>
-      </c>
-      <c r="J712" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>615</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24023,7 +23967,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>615</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24060,7 +24006,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>615</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24094,12 +24042,12 @@
         <v>-131142.7317313999</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
-      </c>
-      <c r="I715" t="n">
-        <v>606</v>
-      </c>
-      <c r="J715" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>615</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24133,12 +24081,12 @@
         <v>-131141.7317313999</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>606</v>
-      </c>
-      <c r="J716" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>615</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24172,12 +24120,12 @@
         <v>-131813.9987313999</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>610</v>
-      </c>
-      <c r="J717" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>615</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24211,12 +24159,12 @@
         <v>-131909.1154313999</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
-      </c>
-      <c r="I718" t="n">
-        <v>606</v>
-      </c>
-      <c r="J718" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>615</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24255,7 +24203,9 @@
       <c r="I719" t="n">
         <v>605</v>
       </c>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>615</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24294,7 +24244,9 @@
       <c r="I720" t="n">
         <v>604</v>
       </c>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>615</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24333,7 +24285,9 @@
       <c r="I721" t="n">
         <v>601</v>
       </c>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>615</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24370,7 +24324,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>615</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24404,12 +24360,12 @@
         <v>-152339.2566313999</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
-      </c>
-      <c r="I723" t="n">
-        <v>594</v>
-      </c>
-      <c r="J723" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>615</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24443,12 +24399,12 @@
         <v>-152364.0706313999</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
-      </c>
-      <c r="I724" t="n">
-        <v>594</v>
-      </c>
-      <c r="J724" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>615</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24482,12 +24438,12 @@
         <v>-141610.4953313999</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
-      </c>
-      <c r="I725" t="n">
-        <v>593</v>
-      </c>
-      <c r="J725" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>615</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24521,12 +24477,12 @@
         <v>-135904.9373313999</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
-      </c>
-      <c r="I726" t="n">
-        <v>594</v>
-      </c>
-      <c r="J726" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>615</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24560,12 +24516,12 @@
         <v>-132609.3915313999</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
-      </c>
-      <c r="I727" t="n">
-        <v>598</v>
-      </c>
-      <c r="J727" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>615</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24599,12 +24555,12 @@
         <v>-141120.4032313999</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
-      </c>
-      <c r="I728" t="n">
-        <v>607</v>
-      </c>
-      <c r="J728" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>615</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24638,12 +24594,12 @@
         <v>-135556.2905314</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
-        <v>598</v>
-      </c>
-      <c r="J729" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>615</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24677,12 +24633,12 @@
         <v>-136504.8426314</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>602</v>
-      </c>
-      <c r="J730" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>615</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24716,12 +24672,12 @@
         <v>-141508.1252314</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>599</v>
-      </c>
-      <c r="J731" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>615</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24760,7 +24716,9 @@
       <c r="I732" t="n">
         <v>598</v>
       </c>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>615</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24799,7 +24757,9 @@
       <c r="I733" t="n">
         <v>599</v>
       </c>
-      <c r="J733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>615</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24838,7 +24798,9 @@
       <c r="I734" t="n">
         <v>601</v>
       </c>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>615</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24877,7 +24839,9 @@
       <c r="I735" t="n">
         <v>598</v>
       </c>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>615</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24916,7 +24880,9 @@
       <c r="I736" t="n">
         <v>602</v>
       </c>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>615</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24955,7 +24921,9 @@
       <c r="I737" t="n">
         <v>600</v>
       </c>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>615</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24994,7 +24962,9 @@
       <c r="I738" t="n">
         <v>599</v>
       </c>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>615</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25033,7 +25003,9 @@
       <c r="I739" t="n">
         <v>603</v>
       </c>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>615</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25072,7 +25044,9 @@
       <c r="I740" t="n">
         <v>604</v>
       </c>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>615</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25111,7 +25085,9 @@
       <c r="I741" t="n">
         <v>604</v>
       </c>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>615</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25150,7 +25126,9 @@
       <c r="I742" t="n">
         <v>601</v>
       </c>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>615</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25189,7 +25167,9 @@
       <c r="I743" t="n">
         <v>600</v>
       </c>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>615</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25228,7 +25208,9 @@
       <c r="I744" t="n">
         <v>600</v>
       </c>
-      <c r="J744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>615</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25267,7 +25249,9 @@
       <c r="I745" t="n">
         <v>607</v>
       </c>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>615</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25306,7 +25290,9 @@
       <c r="I746" t="n">
         <v>607</v>
       </c>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>615</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25340,10 +25326,14 @@
         <v>-136706.6909314</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>612</v>
+      </c>
+      <c r="J747" t="n">
+        <v>615</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25377,10 +25367,14 @@
         <v>-136706.6909314</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>608</v>
+      </c>
+      <c r="J748" t="n">
+        <v>615</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25414,10 +25408,14 @@
         <v>-134653.2754314</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>608</v>
+      </c>
+      <c r="J749" t="n">
+        <v>615</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25451,10 +25449,14 @@
         <v>-135496.0210314</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>610</v>
+      </c>
+      <c r="J750" t="n">
+        <v>615</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25488,10 +25490,14 @@
         <v>-134319.5375314</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>604</v>
+      </c>
+      <c r="J751" t="n">
+        <v>615</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25525,10 +25531,14 @@
         <v>-134608.9375313999</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>607</v>
+      </c>
+      <c r="J752" t="n">
+        <v>615</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25562,10 +25572,14 @@
         <v>-133326.3745314</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>606</v>
+      </c>
+      <c r="J753" t="n">
+        <v>615</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25599,10 +25613,14 @@
         <v>-133462.6153314</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>607</v>
+      </c>
+      <c r="J754" t="n">
+        <v>615</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25636,10 +25654,14 @@
         <v>-132664.9997314</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>604</v>
+      </c>
+      <c r="J755" t="n">
+        <v>615</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25673,10 +25695,14 @@
         <v>-128050.4744314</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>606</v>
+      </c>
+      <c r="J756" t="n">
+        <v>615</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25710,10 +25736,14 @@
         <v>-128149.9323314</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>608</v>
+      </c>
+      <c r="J757" t="n">
+        <v>615</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25747,10 +25777,14 @@
         <v>-126149.9323314</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>605</v>
+      </c>
+      <c r="J758" t="n">
+        <v>615</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25784,10 +25818,14 @@
         <v>-126149.9323314</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>608</v>
+      </c>
+      <c r="J759" t="n">
+        <v>615</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25821,10 +25859,14 @@
         <v>-124237.9724314</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>608</v>
+      </c>
+      <c r="J760" t="n">
+        <v>615</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25858,10 +25900,14 @@
         <v>-124471.2800314</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>609</v>
+      </c>
+      <c r="J761" t="n">
+        <v>615</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25895,10 +25941,14 @@
         <v>-124271.0374314</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>608</v>
+      </c>
+      <c r="J762" t="n">
+        <v>615</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25932,10 +25982,14 @@
         <v>-124271.0374314</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>611</v>
+      </c>
+      <c r="J763" t="n">
+        <v>615</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25969,10 +26023,14 @@
         <v>-124358.5880314</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>611</v>
+      </c>
+      <c r="J764" t="n">
+        <v>615</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26006,10 +26064,14 @@
         <v>-123869.1859314</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>610</v>
+      </c>
+      <c r="J765" t="n">
+        <v>615</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
